--- a/assets/Translation_PM_JP_Asset.xlsx
+++ b/assets/Translation_PM_JP_Asset.xlsx
@@ -7,19 +7,19 @@
     <workbookView xWindow="19185" yWindow="-15" windowWidth="9630" windowHeight="13110" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Assets" sheetId="1" r:id="rId1"/>
-    <sheet name="Lookups" sheetId="2" r:id="rId2"/>
+    <sheet name="Lookups" sheetId="2" r:id="rId1"/>
+    <sheet name="FR" sheetId="1" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Assets!$A$1:$A$342</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">FR!$A$1:$A$342</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1776" uniqueCount="1088">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1582" uniqueCount="1150">
   <si>
     <t>B0001</t>
   </si>
@@ -3255,9 +3255,6 @@
     <t xml:space="preserve">sécurité </t>
   </si>
   <si>
-    <t>LanguageCode</t>
-  </si>
-  <si>
     <t>English Description</t>
   </si>
   <si>
@@ -3283,6 +3280,195 @@
   </si>
   <si>
     <t>année</t>
+  </si>
+  <si>
+    <t>NL</t>
+  </si>
+  <si>
+    <t>LC-</t>
+  </si>
+  <si>
+    <t>CV-</t>
+  </si>
+  <si>
+    <t>AA </t>
+  </si>
+  <si>
+    <t>IKO Brampton Site </t>
+  </si>
+  <si>
+    <t>ANT </t>
+  </si>
+  <si>
+    <t>IKO Antwerp </t>
+  </si>
+  <si>
+    <t>IKO-EU </t>
+  </si>
+  <si>
+    <t>BA </t>
+  </si>
+  <si>
+    <t>IKO Calgary Site </t>
+  </si>
+  <si>
+    <t>IKO-CAD </t>
+  </si>
+  <si>
+    <t>BL </t>
+  </si>
+  <si>
+    <t>IKO Hagerstown </t>
+  </si>
+  <si>
+    <t>IKO-US </t>
+  </si>
+  <si>
+    <t>CA </t>
+  </si>
+  <si>
+    <t>IKO Kankakee </t>
+  </si>
+  <si>
+    <t>CAM </t>
+  </si>
+  <si>
+    <t>IKO Appley Bridge </t>
+  </si>
+  <si>
+    <t>IKO-UK </t>
+  </si>
+  <si>
+    <t>COM </t>
+  </si>
+  <si>
+    <t>IKO Combronde </t>
+  </si>
+  <si>
+    <t>GA </t>
+  </si>
+  <si>
+    <t>IKO Wilmington </t>
+  </si>
+  <si>
+    <t>GC </t>
+  </si>
+  <si>
+    <t>IKO Sumas </t>
+  </si>
+  <si>
+    <t>GE </t>
+  </si>
+  <si>
+    <t>IKO Ashcroft Site </t>
+  </si>
+  <si>
+    <t>GH </t>
+  </si>
+  <si>
+    <t>IKO Hawkesbury Site </t>
+  </si>
+  <si>
+    <t>GI </t>
+  </si>
+  <si>
+    <t>IKO Madoc Site </t>
+  </si>
+  <si>
+    <t>GJ </t>
+  </si>
+  <si>
+    <t>GK </t>
+  </si>
+  <si>
+    <t>IG Brampton Site </t>
+  </si>
+  <si>
+    <t>GM </t>
+  </si>
+  <si>
+    <t>IG High River </t>
+  </si>
+  <si>
+    <t>GP </t>
+  </si>
+  <si>
+    <t>GR </t>
+  </si>
+  <si>
+    <t>Bramcal Site </t>
+  </si>
+  <si>
+    <t>GS </t>
+  </si>
+  <si>
+    <t>IKO Sylacauga </t>
+  </si>
+  <si>
+    <t>GV </t>
+  </si>
+  <si>
+    <t>IKO Hillsboro </t>
+  </si>
+  <si>
+    <t>GX </t>
+  </si>
+  <si>
+    <t>Maxi-Mix Site </t>
+  </si>
+  <si>
+    <t>PBM </t>
+  </si>
+  <si>
+    <t>IKO Slovakia </t>
+  </si>
+  <si>
+    <t>RAM </t>
+  </si>
+  <si>
+    <t>IKO Alconbury </t>
+  </si>
+  <si>
+    <t>IKO-CAD</t>
+  </si>
+  <si>
+    <t>Canroof Corp Site CRC Toronto </t>
+  </si>
+  <si>
+    <t>CRC Brampton Insulation Line </t>
+  </si>
+  <si>
+    <t>EN</t>
+  </si>
+  <si>
+    <t>DS</t>
+  </si>
+  <si>
+    <t>WS</t>
+  </si>
+  <si>
+    <t>MS</t>
+  </si>
+  <si>
+    <t>YS</t>
+  </si>
+  <si>
+    <t>C0617</t>
+  </si>
+  <si>
+    <t>Building System Fans</t>
+  </si>
+  <si>
+    <t>C0680</t>
+  </si>
+  <si>
+    <t>Storeroom</t>
+  </si>
+  <si>
+    <t>Débarras</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ventilateurs de système de construction </t>
   </si>
 </sst>
 </file>
@@ -3767,7 +3953,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3778,6 +3964,7 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -4120,11 +4307,721 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet2"/>
+  <dimension ref="A1:S24"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M30" sqref="M30"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="5.140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.5703125" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="3.140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.140625" style="5"/>
+    <col min="6" max="6" width="2.7109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11" style="5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="3.140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.140625" style="5"/>
+    <col min="11" max="11" width="2.85546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.42578125" style="5" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="3.140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="9.140625" style="5"/>
+    <col min="16" max="16" width="5.7109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="20" style="5" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="24.28515625" style="5" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="3.28515625" style="5" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="5"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
+        <v>1026</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>1068</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>1025</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>1048</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>1051</v>
+      </c>
+      <c r="H1" t="s">
+        <v>1139</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>1140</v>
+      </c>
+      <c r="L1" s="4" t="s">
+        <v>1054</v>
+      </c>
+      <c r="M1" s="6" t="s">
+        <v>1139</v>
+      </c>
+      <c r="P1" s="5" t="s">
+        <v>1090</v>
+      </c>
+      <c r="Q1" s="5" t="s">
+        <v>1091</v>
+      </c>
+      <c r="R1" s="5" t="s">
+        <v>1136</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
+        <v>1028</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>1069</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>1025</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>1049</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>1052</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>1139</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>1141</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>1056</v>
+      </c>
+      <c r="M2" s="6" t="s">
+        <v>1139</v>
+      </c>
+      <c r="P2" s="5" t="s">
+        <v>1092</v>
+      </c>
+      <c r="Q2" s="5" t="s">
+        <v>1093</v>
+      </c>
+      <c r="R2" s="5" t="s">
+        <v>1094</v>
+      </c>
+      <c r="S2" s="5" t="s">
+        <v>1087</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
+        <v>1030</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>1070</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>1025</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>1050</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>1053</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>1139</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>1142</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>1058</v>
+      </c>
+      <c r="M3" s="6" t="s">
+        <v>1139</v>
+      </c>
+      <c r="P3" s="5" t="s">
+        <v>1095</v>
+      </c>
+      <c r="Q3" s="5" t="s">
+        <v>1096</v>
+      </c>
+      <c r="R3" s="5" t="s">
+        <v>1097</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
+        <v>1032</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>1071</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>1025</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>1048</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>1065</v>
+      </c>
+      <c r="H4" s="5" t="s">
+        <v>1025</v>
+      </c>
+      <c r="K4" s="3" t="s">
+        <v>1143</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>1059</v>
+      </c>
+      <c r="M4" s="6" t="s">
+        <v>1139</v>
+      </c>
+      <c r="P4" s="5" t="s">
+        <v>1098</v>
+      </c>
+      <c r="Q4" s="5" t="s">
+        <v>1099</v>
+      </c>
+      <c r="R4" s="5" t="s">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="s">
+        <v>1034</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>1072</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>1025</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>1049</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>1066</v>
+      </c>
+      <c r="H5" s="5" t="s">
+        <v>1025</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>1055</v>
+      </c>
+      <c r="L5" s="4" t="s">
+        <v>1080</v>
+      </c>
+      <c r="M5" s="6" t="s">
+        <v>1139</v>
+      </c>
+      <c r="P5" s="5" t="s">
+        <v>1101</v>
+      </c>
+      <c r="Q5" s="5" t="s">
+        <v>1102</v>
+      </c>
+      <c r="R5" s="5" t="s">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A6" s="5" t="s">
+        <v>1036</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>1073</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>1025</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>1050</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>1067</v>
+      </c>
+      <c r="H6" s="5" t="s">
+        <v>1025</v>
+      </c>
+      <c r="K6" s="3" t="s">
+        <v>1057</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>1081</v>
+      </c>
+      <c r="M6" s="6" t="s">
+        <v>1139</v>
+      </c>
+      <c r="P6" s="5" t="s">
+        <v>1103</v>
+      </c>
+      <c r="Q6" s="5" t="s">
+        <v>1104</v>
+      </c>
+      <c r="R6" s="5" t="s">
+        <v>1105</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A7" s="5" t="s">
+        <v>1038</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>1074</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>1025</v>
+      </c>
+      <c r="H7" s="5"/>
+      <c r="K7" s="3" t="s">
+        <v>1049</v>
+      </c>
+      <c r="L7" s="1" t="s">
+        <v>1082</v>
+      </c>
+      <c r="M7" s="6" t="s">
+        <v>1139</v>
+      </c>
+      <c r="P7" s="5" t="s">
+        <v>1106</v>
+      </c>
+      <c r="Q7" s="5" t="s">
+        <v>1107</v>
+      </c>
+      <c r="R7" s="5" t="s">
+        <v>1094</v>
+      </c>
+      <c r="S7" s="5" t="s">
+        <v>1025</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A8" s="5" t="s">
+        <v>1040</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>1075</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>1025</v>
+      </c>
+      <c r="H8" s="5"/>
+      <c r="K8" s="3" t="s">
+        <v>1060</v>
+      </c>
+      <c r="L8" s="1" t="s">
+        <v>1083</v>
+      </c>
+      <c r="M8" s="6" t="s">
+        <v>1139</v>
+      </c>
+      <c r="P8" s="5" t="s">
+        <v>1108</v>
+      </c>
+      <c r="Q8" s="5" t="s">
+        <v>1109</v>
+      </c>
+      <c r="R8" s="5" t="s">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A9" s="5" t="s">
+        <v>1042</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>1068</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>1025</v>
+      </c>
+      <c r="H9" s="5"/>
+      <c r="K9" s="2" t="s">
+        <v>1140</v>
+      </c>
+      <c r="L9" s="5" t="s">
+        <v>1061</v>
+      </c>
+      <c r="M9" s="5" t="s">
+        <v>1025</v>
+      </c>
+      <c r="P9" s="5" t="s">
+        <v>1110</v>
+      </c>
+      <c r="Q9" s="5" t="s">
+        <v>1111</v>
+      </c>
+      <c r="R9" s="5" t="s">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A10" s="5" t="s">
+        <v>1044</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>1076</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>1025</v>
+      </c>
+      <c r="H10" s="5"/>
+      <c r="K10" s="3" t="s">
+        <v>1141</v>
+      </c>
+      <c r="L10" s="5" t="s">
+        <v>1062</v>
+      </c>
+      <c r="M10" s="5" t="s">
+        <v>1025</v>
+      </c>
+      <c r="P10" s="5" t="s">
+        <v>1112</v>
+      </c>
+      <c r="Q10" s="5" t="s">
+        <v>1113</v>
+      </c>
+      <c r="R10" s="5" t="s">
+        <v>1097</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A11" s="5" t="s">
+        <v>1046</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>1077</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>1025</v>
+      </c>
+      <c r="H11" s="5"/>
+      <c r="K11" s="3" t="s">
+        <v>1142</v>
+      </c>
+      <c r="L11" s="5" t="s">
+        <v>1063</v>
+      </c>
+      <c r="M11" s="5" t="s">
+        <v>1025</v>
+      </c>
+      <c r="P11" s="5" t="s">
+        <v>1114</v>
+      </c>
+      <c r="Q11" s="5" t="s">
+        <v>1115</v>
+      </c>
+      <c r="R11" s="5" t="s">
+        <v>1097</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A12" s="5" t="s">
+        <v>1036</v>
+      </c>
+      <c r="B12" t="s">
+        <v>1089</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>1025</v>
+      </c>
+      <c r="K12" s="3" t="s">
+        <v>1143</v>
+      </c>
+      <c r="L12" s="5" t="s">
+        <v>1064</v>
+      </c>
+      <c r="M12" s="5" t="s">
+        <v>1025</v>
+      </c>
+      <c r="P12" s="5" t="s">
+        <v>1116</v>
+      </c>
+      <c r="Q12" s="5" t="s">
+        <v>1117</v>
+      </c>
+      <c r="R12" s="5" t="s">
+        <v>1097</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A13" s="5" t="s">
+        <v>1026</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>1027</v>
+      </c>
+      <c r="C13" t="s">
+        <v>1139</v>
+      </c>
+      <c r="K13" s="2" t="s">
+        <v>1055</v>
+      </c>
+      <c r="L13" s="5" t="s">
+        <v>1084</v>
+      </c>
+      <c r="M13" s="5" t="s">
+        <v>1025</v>
+      </c>
+      <c r="P13" s="5" t="s">
+        <v>1118</v>
+      </c>
+      <c r="Q13" s="5" t="s">
+        <v>1137</v>
+      </c>
+      <c r="R13" s="5" t="s">
+        <v>1136</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A14" s="5" t="s">
+        <v>1028</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>1029</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>1139</v>
+      </c>
+      <c r="K14" s="3" t="s">
+        <v>1057</v>
+      </c>
+      <c r="L14" s="5" t="s">
+        <v>1085</v>
+      </c>
+      <c r="M14" s="5" t="s">
+        <v>1025</v>
+      </c>
+      <c r="P14" s="5" t="s">
+        <v>1119</v>
+      </c>
+      <c r="Q14" s="5" t="s">
+        <v>1120</v>
+      </c>
+      <c r="R14" s="5" t="s">
+        <v>1097</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A15" s="5" t="s">
+        <v>1030</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>1031</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>1139</v>
+      </c>
+      <c r="K15" s="3" t="s">
+        <v>1049</v>
+      </c>
+      <c r="L15" s="5" t="s">
+        <v>1063</v>
+      </c>
+      <c r="M15" s="5" t="s">
+        <v>1025</v>
+      </c>
+      <c r="P15" s="5" t="s">
+        <v>1121</v>
+      </c>
+      <c r="Q15" s="5" t="s">
+        <v>1122</v>
+      </c>
+      <c r="R15" s="5" t="s">
+        <v>1097</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A16" s="5" t="s">
+        <v>1032</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>1033</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>1139</v>
+      </c>
+      <c r="K16" s="3" t="s">
+        <v>1060</v>
+      </c>
+      <c r="L16" s="5" t="s">
+        <v>1086</v>
+      </c>
+      <c r="M16" s="5" t="s">
+        <v>1025</v>
+      </c>
+      <c r="P16" s="5" t="s">
+        <v>1123</v>
+      </c>
+      <c r="Q16" s="5" t="s">
+        <v>1138</v>
+      </c>
+      <c r="R16" s="5" t="s">
+        <v>1136</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A17" s="5" t="s">
+        <v>1034</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>1035</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>1139</v>
+      </c>
+      <c r="P17" s="5" t="s">
+        <v>1124</v>
+      </c>
+      <c r="Q17" s="5" t="s">
+        <v>1125</v>
+      </c>
+      <c r="R17" s="5" t="s">
+        <v>1097</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A18" s="5" t="s">
+        <v>1036</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>1037</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>1139</v>
+      </c>
+      <c r="P18" s="5" t="s">
+        <v>1126</v>
+      </c>
+      <c r="Q18" s="5" t="s">
+        <v>1127</v>
+      </c>
+      <c r="R18" s="5" t="s">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A19" s="5" t="s">
+        <v>1038</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>1039</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>1139</v>
+      </c>
+      <c r="P19" s="5" t="s">
+        <v>1128</v>
+      </c>
+      <c r="Q19" s="5" t="s">
+        <v>1129</v>
+      </c>
+      <c r="R19" s="5" t="s">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A20" s="5" t="s">
+        <v>1040</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>1041</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>1139</v>
+      </c>
+      <c r="P20" s="5" t="s">
+        <v>1130</v>
+      </c>
+      <c r="Q20" s="5" t="s">
+        <v>1131</v>
+      </c>
+      <c r="R20" s="5" t="s">
+        <v>1097</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A21" s="5" t="s">
+        <v>1042</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>1043</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>1139</v>
+      </c>
+      <c r="P21" s="5" t="s">
+        <v>1132</v>
+      </c>
+      <c r="Q21" s="5" t="s">
+        <v>1133</v>
+      </c>
+      <c r="R21" s="5" t="s">
+        <v>1094</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A22" s="5" t="s">
+        <v>1044</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>1045</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>1139</v>
+      </c>
+      <c r="P22" s="5" t="s">
+        <v>1134</v>
+      </c>
+      <c r="Q22" s="5" t="s">
+        <v>1135</v>
+      </c>
+      <c r="R22" s="5" t="s">
+        <v>1105</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A23" s="5" t="s">
+        <v>1046</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>1047</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>1139</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A24" s="5" t="s">
+        <v>1036</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>1088</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>1139</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:E342"/>
+  <dimension ref="A1:D344"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+    <sheetView tabSelected="1" topLeftCell="A327" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F346" sqref="F346"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4132,29 +5029,25 @@
     <col min="1" max="1" width="60.7109375" style="5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="73.140625" style="5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="6.28515625" style="5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14" style="5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.140625" style="5" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="9.140625" style="5"/>
+    <col min="4" max="4" width="8.140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
+        <v>1078</v>
+      </c>
+      <c r="B1" s="5" t="s">
         <v>1079</v>
-      </c>
-      <c r="B1" s="5" t="s">
-        <v>1080</v>
       </c>
       <c r="C1" s="5" t="s">
         <v>1023</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>1078</v>
-      </c>
-      <c r="E1" s="5" t="s">
         <v>422</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>668</v>
       </c>
@@ -4165,13 +5058,10 @@
         <v>1024</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>1025</v>
-      </c>
-      <c r="E2" s="5" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>2</v>
       </c>
@@ -4182,13 +5072,10 @@
         <v>1024</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>1025</v>
-      </c>
-      <c r="E3" s="5" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>4</v>
       </c>
@@ -4199,13 +5086,10 @@
         <v>1024</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>1025</v>
-      </c>
-      <c r="E4" s="5" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>6</v>
       </c>
@@ -4216,13 +5100,10 @@
         <v>1024</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>1025</v>
-      </c>
-      <c r="E5" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>8</v>
       </c>
@@ -4233,13 +5114,10 @@
         <v>1024</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>1025</v>
-      </c>
-      <c r="E6" s="5" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>10</v>
       </c>
@@ -4250,13 +5128,10 @@
         <v>1024</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>1025</v>
-      </c>
-      <c r="E7" s="5" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>12</v>
       </c>
@@ -4267,13 +5142,10 @@
         <v>1024</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>1025</v>
-      </c>
-      <c r="E8" s="5" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>14</v>
       </c>
@@ -4284,13 +5156,10 @@
         <v>1024</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>1025</v>
-      </c>
-      <c r="E9" s="5" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>16</v>
       </c>
@@ -4301,13 +5170,10 @@
         <v>1024</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>1025</v>
-      </c>
-      <c r="E10" s="5" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>18</v>
       </c>
@@ -4318,13 +5184,10 @@
         <v>1024</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>1025</v>
-      </c>
-      <c r="E11" s="5" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
         <v>20</v>
       </c>
@@ -4335,13 +5198,10 @@
         <v>1024</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>1025</v>
-      </c>
-      <c r="E12" s="5" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
         <v>22</v>
       </c>
@@ -4352,13 +5212,10 @@
         <v>1024</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>1025</v>
-      </c>
-      <c r="E13" s="5" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
         <v>24</v>
       </c>
@@ -4369,13 +5226,10 @@
         <v>1024</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>1025</v>
-      </c>
-      <c r="E14" s="5" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
         <v>26</v>
       </c>
@@ -4386,13 +5240,10 @@
         <v>1024</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>1025</v>
-      </c>
-      <c r="E15" s="5" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
         <v>28</v>
       </c>
@@ -4403,13 +5254,10 @@
         <v>1024</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>1025</v>
-      </c>
-      <c r="E16" s="5" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
         <v>30</v>
       </c>
@@ -4420,13 +5268,10 @@
         <v>1024</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>1025</v>
-      </c>
-      <c r="E17" s="5" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
         <v>32</v>
       </c>
@@ -4437,13 +5282,10 @@
         <v>1024</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>1025</v>
-      </c>
-      <c r="E18" s="5" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
         <v>34</v>
       </c>
@@ -4454,13 +5296,10 @@
         <v>1024</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>1025</v>
-      </c>
-      <c r="E19" s="5" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
         <v>36</v>
       </c>
@@ -4471,13 +5310,10 @@
         <v>1024</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>1025</v>
-      </c>
-      <c r="E20" s="5" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
         <v>38</v>
       </c>
@@ -4488,13 +5324,10 @@
         <v>1024</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>1025</v>
-      </c>
-      <c r="E21" s="5" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
         <v>40</v>
       </c>
@@ -4505,13 +5338,10 @@
         <v>1024</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>1025</v>
-      </c>
-      <c r="E22" s="5" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
         <v>42</v>
       </c>
@@ -4522,13 +5352,10 @@
         <v>1024</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>1025</v>
-      </c>
-      <c r="E23" s="5" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
         <v>44</v>
       </c>
@@ -4539,13 +5366,10 @@
         <v>1024</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>1025</v>
-      </c>
-      <c r="E24" s="5" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="5" t="s">
         <v>46</v>
       </c>
@@ -4556,13 +5380,10 @@
         <v>1024</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>1025</v>
-      </c>
-      <c r="E25" s="5" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
         <v>48</v>
       </c>
@@ -4573,13 +5394,10 @@
         <v>1024</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>1025</v>
-      </c>
-      <c r="E26" s="5" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="5" t="s">
         <v>50</v>
       </c>
@@ -4590,13 +5408,10 @@
         <v>1024</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>1025</v>
-      </c>
-      <c r="E27" s="5" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="5" t="s">
         <v>52</v>
       </c>
@@ -4607,13 +5422,10 @@
         <v>1024</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>1025</v>
-      </c>
-      <c r="E28" s="5" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="5" t="s">
         <v>54</v>
       </c>
@@ -4624,13 +5436,10 @@
         <v>1024</v>
       </c>
       <c r="D29" s="5" t="s">
-        <v>1025</v>
-      </c>
-      <c r="E29" s="5" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="5" t="s">
         <v>56</v>
       </c>
@@ -4641,13 +5450,10 @@
         <v>1024</v>
       </c>
       <c r="D30" s="5" t="s">
-        <v>1025</v>
-      </c>
-      <c r="E30" s="5" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="5" t="s">
         <v>58</v>
       </c>
@@ -4658,13 +5464,10 @@
         <v>1024</v>
       </c>
       <c r="D31" s="5" t="s">
-        <v>1025</v>
-      </c>
-      <c r="E31" s="5" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="5" t="s">
         <v>60</v>
       </c>
@@ -4675,13 +5478,10 @@
         <v>1024</v>
       </c>
       <c r="D32" s="5" t="s">
-        <v>1025</v>
-      </c>
-      <c r="E32" s="5" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="5" t="s">
         <v>62</v>
       </c>
@@ -4692,13 +5492,10 @@
         <v>1024</v>
       </c>
       <c r="D33" s="5" t="s">
-        <v>1025</v>
-      </c>
-      <c r="E33" s="5" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="5" t="s">
         <v>64</v>
       </c>
@@ -4709,13 +5506,10 @@
         <v>1024</v>
       </c>
       <c r="D34" s="5" t="s">
-        <v>1025</v>
-      </c>
-      <c r="E34" s="5" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="5" t="s">
         <v>66</v>
       </c>
@@ -4726,13 +5520,10 @@
         <v>1024</v>
       </c>
       <c r="D35" s="5" t="s">
-        <v>1025</v>
-      </c>
-      <c r="E35" s="5" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="5" t="s">
         <v>68</v>
       </c>
@@ -4743,13 +5534,10 @@
         <v>1024</v>
       </c>
       <c r="D36" s="5" t="s">
-        <v>1025</v>
-      </c>
-      <c r="E36" s="5" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="5" t="s">
         <v>70</v>
       </c>
@@ -4760,13 +5548,10 @@
         <v>1024</v>
       </c>
       <c r="D37" s="5" t="s">
-        <v>1025</v>
-      </c>
-      <c r="E37" s="5" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="5" t="s">
         <v>72</v>
       </c>
@@ -4777,13 +5562,10 @@
         <v>1024</v>
       </c>
       <c r="D38" s="5" t="s">
-        <v>1025</v>
-      </c>
-      <c r="E38" s="5" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="5" t="s">
         <v>75</v>
       </c>
@@ -4794,13 +5576,10 @@
         <v>1024</v>
       </c>
       <c r="D39" s="5" t="s">
-        <v>1025</v>
-      </c>
-      <c r="E39" s="5" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="5" t="s">
         <v>77</v>
       </c>
@@ -4811,13 +5590,10 @@
         <v>1024</v>
       </c>
       <c r="D40" s="5" t="s">
-        <v>1025</v>
-      </c>
-      <c r="E40" s="5" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="5" t="s">
         <v>79</v>
       </c>
@@ -4828,13 +5604,10 @@
         <v>1024</v>
       </c>
       <c r="D41" s="5" t="s">
-        <v>1025</v>
-      </c>
-      <c r="E41" s="5" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="5" t="s">
         <v>81</v>
       </c>
@@ -4845,13 +5618,10 @@
         <v>1024</v>
       </c>
       <c r="D42" s="5" t="s">
-        <v>1025</v>
-      </c>
-      <c r="E42" s="5" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="5" t="s">
         <v>83</v>
       </c>
@@ -4862,13 +5632,10 @@
         <v>1024</v>
       </c>
       <c r="D43" s="5" t="s">
-        <v>1025</v>
-      </c>
-      <c r="E43" s="5" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="5" t="s">
         <v>85</v>
       </c>
@@ -4879,13 +5646,10 @@
         <v>1024</v>
       </c>
       <c r="D44" s="5" t="s">
-        <v>1025</v>
-      </c>
-      <c r="E44" s="5" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="5" t="s">
         <v>87</v>
       </c>
@@ -4896,13 +5660,10 @@
         <v>1024</v>
       </c>
       <c r="D45" s="5" t="s">
-        <v>1025</v>
-      </c>
-      <c r="E45" s="5" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="5" t="s">
         <v>89</v>
       </c>
@@ -4913,13 +5674,10 @@
         <v>1024</v>
       </c>
       <c r="D46" s="5" t="s">
-        <v>1025</v>
-      </c>
-      <c r="E46" s="5" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="5" t="s">
         <v>91</v>
       </c>
@@ -4930,13 +5688,10 @@
         <v>1024</v>
       </c>
       <c r="D47" s="5" t="s">
-        <v>1025</v>
-      </c>
-      <c r="E47" s="5" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="5" t="s">
         <v>93</v>
       </c>
@@ -4947,13 +5702,10 @@
         <v>1024</v>
       </c>
       <c r="D48" s="5" t="s">
-        <v>1025</v>
-      </c>
-      <c r="E48" s="5" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="5" t="s">
         <v>95</v>
       </c>
@@ -4964,13 +5716,10 @@
         <v>1024</v>
       </c>
       <c r="D49" s="5" t="s">
-        <v>1025</v>
-      </c>
-      <c r="E49" s="5" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="5" t="s">
         <v>97</v>
       </c>
@@ -4981,13 +5730,10 @@
         <v>1024</v>
       </c>
       <c r="D50" s="5" t="s">
-        <v>1025</v>
-      </c>
-      <c r="E50" s="5" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="5" t="s">
         <v>99</v>
       </c>
@@ -4998,13 +5744,10 @@
         <v>1024</v>
       </c>
       <c r="D51" s="5" t="s">
-        <v>1025</v>
-      </c>
-      <c r="E51" s="5" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="5" t="s">
         <v>101</v>
       </c>
@@ -5015,13 +5758,10 @@
         <v>1024</v>
       </c>
       <c r="D52" s="5" t="s">
-        <v>1025</v>
-      </c>
-      <c r="E52" s="5" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="5" t="s">
         <v>103</v>
       </c>
@@ -5032,13 +5772,10 @@
         <v>1024</v>
       </c>
       <c r="D53" s="5" t="s">
-        <v>1025</v>
-      </c>
-      <c r="E53" s="5" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="5" t="s">
         <v>105</v>
       </c>
@@ -5049,13 +5786,10 @@
         <v>1024</v>
       </c>
       <c r="D54" s="5" t="s">
-        <v>1025</v>
-      </c>
-      <c r="E54" s="5" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="5" t="s">
         <v>107</v>
       </c>
@@ -5066,13 +5800,10 @@
         <v>1024</v>
       </c>
       <c r="D55" s="5" t="s">
-        <v>1025</v>
-      </c>
-      <c r="E55" s="5" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="5" t="s">
         <v>109</v>
       </c>
@@ -5083,13 +5814,10 @@
         <v>1024</v>
       </c>
       <c r="D56" s="5" t="s">
-        <v>1025</v>
-      </c>
-      <c r="E56" s="5" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="5" t="s">
         <v>111</v>
       </c>
@@ -5100,13 +5828,10 @@
         <v>1024</v>
       </c>
       <c r="D57" s="5" t="s">
-        <v>1025</v>
-      </c>
-      <c r="E57" s="5" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="5" t="s">
         <v>113</v>
       </c>
@@ -5117,13 +5842,10 @@
         <v>1024</v>
       </c>
       <c r="D58" s="5" t="s">
-        <v>1025</v>
-      </c>
-      <c r="E58" s="5" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="5" t="s">
         <v>115</v>
       </c>
@@ -5134,13 +5856,10 @@
         <v>1024</v>
       </c>
       <c r="D59" s="5" t="s">
-        <v>1025</v>
-      </c>
-      <c r="E59" s="5" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="5" t="s">
         <v>117</v>
       </c>
@@ -5151,13 +5870,10 @@
         <v>1024</v>
       </c>
       <c r="D60" s="5" t="s">
-        <v>1025</v>
-      </c>
-      <c r="E60" s="5" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="5" t="s">
         <v>119</v>
       </c>
@@ -5168,13 +5884,10 @@
         <v>1024</v>
       </c>
       <c r="D61" s="5" t="s">
-        <v>1025</v>
-      </c>
-      <c r="E61" s="5" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="5" t="s">
         <v>121</v>
       </c>
@@ -5185,13 +5898,10 @@
         <v>1024</v>
       </c>
       <c r="D62" s="5" t="s">
-        <v>1025</v>
-      </c>
-      <c r="E62" s="5" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="5" t="s">
         <v>123</v>
       </c>
@@ -5202,13 +5912,10 @@
         <v>1024</v>
       </c>
       <c r="D63" s="5" t="s">
-        <v>1025</v>
-      </c>
-      <c r="E63" s="5" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="5" t="s">
         <v>125</v>
       </c>
@@ -5219,13 +5926,10 @@
         <v>1024</v>
       </c>
       <c r="D64" s="5" t="s">
-        <v>1025</v>
-      </c>
-      <c r="E64" s="5" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="5" t="s">
         <v>127</v>
       </c>
@@ -5236,13 +5940,10 @@
         <v>1024</v>
       </c>
       <c r="D65" s="5" t="s">
-        <v>1025</v>
-      </c>
-      <c r="E65" s="5" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="5" t="s">
         <v>129</v>
       </c>
@@ -5253,13 +5954,10 @@
         <v>1024</v>
       </c>
       <c r="D66" s="5" t="s">
-        <v>1025</v>
-      </c>
-      <c r="E66" s="5" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="5" t="s">
         <v>131</v>
       </c>
@@ -5270,13 +5968,10 @@
         <v>1024</v>
       </c>
       <c r="D67" s="5" t="s">
-        <v>1025</v>
-      </c>
-      <c r="E67" s="5" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="5" t="s">
         <v>133</v>
       </c>
@@ -5287,13 +5982,10 @@
         <v>1024</v>
       </c>
       <c r="D68" s="5" t="s">
-        <v>1025</v>
-      </c>
-      <c r="E68" s="5" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="5" t="s">
         <v>135</v>
       </c>
@@ -5304,13 +5996,10 @@
         <v>1024</v>
       </c>
       <c r="D69" s="5" t="s">
-        <v>1025</v>
-      </c>
-      <c r="E69" s="5" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="5" t="s">
         <v>137</v>
       </c>
@@ -5321,13 +6010,10 @@
         <v>1024</v>
       </c>
       <c r="D70" s="5" t="s">
-        <v>1025</v>
-      </c>
-      <c r="E70" s="5" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="5" t="s">
         <v>139</v>
       </c>
@@ -5338,13 +6024,10 @@
         <v>1024</v>
       </c>
       <c r="D71" s="5" t="s">
-        <v>1025</v>
-      </c>
-      <c r="E71" s="5" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="5" t="s">
         <v>141</v>
       </c>
@@ -5355,13 +6038,10 @@
         <v>1024</v>
       </c>
       <c r="D72" s="5" t="s">
-        <v>1025</v>
-      </c>
-      <c r="E72" s="5" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="5" t="s">
         <v>143</v>
       </c>
@@ -5372,13 +6052,10 @@
         <v>1024</v>
       </c>
       <c r="D73" s="5" t="s">
-        <v>1025</v>
-      </c>
-      <c r="E73" s="5" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="5" t="s">
         <v>145</v>
       </c>
@@ -5389,13 +6066,10 @@
         <v>1024</v>
       </c>
       <c r="D74" s="5" t="s">
-        <v>1025</v>
-      </c>
-      <c r="E74" s="5" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" s="5" t="s">
         <v>73</v>
       </c>
@@ -5406,13 +6080,10 @@
         <v>1024</v>
       </c>
       <c r="D75" s="5" t="s">
-        <v>1025</v>
-      </c>
-      <c r="E75" s="5" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" s="5" t="s">
         <v>148</v>
       </c>
@@ -5423,13 +6094,10 @@
         <v>1024</v>
       </c>
       <c r="D76" s="5" t="s">
-        <v>1025</v>
-      </c>
-      <c r="E76" s="5" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" s="5" t="s">
         <v>150</v>
       </c>
@@ -5440,13 +6108,10 @@
         <v>1024</v>
       </c>
       <c r="D77" s="5" t="s">
-        <v>1025</v>
-      </c>
-      <c r="E77" s="5" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" s="5" t="s">
         <v>152</v>
       </c>
@@ -5457,13 +6122,10 @@
         <v>1024</v>
       </c>
       <c r="D78" s="5" t="s">
-        <v>1025</v>
-      </c>
-      <c r="E78" s="5" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" s="5" t="s">
         <v>154</v>
       </c>
@@ -5474,13 +6136,10 @@
         <v>1024</v>
       </c>
       <c r="D79" s="5" t="s">
-        <v>1025</v>
-      </c>
-      <c r="E79" s="5" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" s="5" t="s">
         <v>156</v>
       </c>
@@ -5491,13 +6150,10 @@
         <v>1024</v>
       </c>
       <c r="D80" s="5" t="s">
-        <v>1025</v>
-      </c>
-      <c r="E80" s="5" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" s="5" t="s">
         <v>903</v>
       </c>
@@ -5508,13 +6164,10 @@
         <v>1024</v>
       </c>
       <c r="D81" s="5" t="s">
-        <v>1025</v>
-      </c>
-      <c r="E81" s="5" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" s="5" t="s">
         <v>159</v>
       </c>
@@ -5525,13 +6178,10 @@
         <v>1024</v>
       </c>
       <c r="D82" s="5" t="s">
-        <v>1025</v>
-      </c>
-      <c r="E82" s="5" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" s="5" t="s">
         <v>161</v>
       </c>
@@ -5542,13 +6192,10 @@
         <v>1024</v>
       </c>
       <c r="D83" s="5" t="s">
-        <v>1025</v>
-      </c>
-      <c r="E83" s="5" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" s="5" t="s">
         <v>163</v>
       </c>
@@ -5559,13 +6206,10 @@
         <v>1024</v>
       </c>
       <c r="D84" s="5" t="s">
-        <v>1025</v>
-      </c>
-      <c r="E84" s="5" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" s="5" t="s">
         <v>165</v>
       </c>
@@ -5576,13 +6220,10 @@
         <v>1024</v>
       </c>
       <c r="D85" s="5" t="s">
-        <v>1025</v>
-      </c>
-      <c r="E85" s="5" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" s="5" t="s">
         <v>167</v>
       </c>
@@ -5593,13 +6234,10 @@
         <v>1024</v>
       </c>
       <c r="D86" s="5" t="s">
-        <v>1025</v>
-      </c>
-      <c r="E86" s="5" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" s="5" t="s">
         <v>169</v>
       </c>
@@ -5610,13 +6248,10 @@
         <v>1024</v>
       </c>
       <c r="D87" s="5" t="s">
-        <v>1025</v>
-      </c>
-      <c r="E87" s="5" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" s="5" t="s">
         <v>171</v>
       </c>
@@ -5627,13 +6262,10 @@
         <v>1024</v>
       </c>
       <c r="D88" s="5" t="s">
-        <v>1025</v>
-      </c>
-      <c r="E88" s="5" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" s="5" t="s">
         <v>173</v>
       </c>
@@ -5644,13 +6276,10 @@
         <v>1024</v>
       </c>
       <c r="D89" s="5" t="s">
-        <v>1025</v>
-      </c>
-      <c r="E89" s="5" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" s="5" t="s">
         <v>175</v>
       </c>
@@ -5661,13 +6290,10 @@
         <v>1024</v>
       </c>
       <c r="D90" s="5" t="s">
-        <v>1025</v>
-      </c>
-      <c r="E90" s="5" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" s="5" t="s">
         <v>177</v>
       </c>
@@ -5678,13 +6304,10 @@
         <v>1024</v>
       </c>
       <c r="D91" s="5" t="s">
-        <v>1025</v>
-      </c>
-      <c r="E91" s="5" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" s="5" t="s">
         <v>179</v>
       </c>
@@ -5695,13 +6318,10 @@
         <v>1024</v>
       </c>
       <c r="D92" s="5" t="s">
-        <v>1025</v>
-      </c>
-      <c r="E92" s="5" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" s="5" t="s">
         <v>181</v>
       </c>
@@ -5712,13 +6332,10 @@
         <v>1024</v>
       </c>
       <c r="D93" s="5" t="s">
-        <v>1025</v>
-      </c>
-      <c r="E93" s="5" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" s="5" t="s">
         <v>183</v>
       </c>
@@ -5729,13 +6346,10 @@
         <v>1024</v>
       </c>
       <c r="D94" s="5" t="s">
-        <v>1025</v>
-      </c>
-      <c r="E94" s="5" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" s="5" t="s">
         <v>185</v>
       </c>
@@ -5746,13 +6360,10 @@
         <v>1024</v>
       </c>
       <c r="D95" s="5" t="s">
-        <v>1025</v>
-      </c>
-      <c r="E95" s="5" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" s="5" t="s">
         <v>187</v>
       </c>
@@ -5763,13 +6374,10 @@
         <v>1024</v>
       </c>
       <c r="D96" s="5" t="s">
-        <v>1025</v>
-      </c>
-      <c r="E96" s="5" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" s="5" t="s">
         <v>189</v>
       </c>
@@ -5780,13 +6388,10 @@
         <v>1024</v>
       </c>
       <c r="D97" s="5" t="s">
-        <v>1025</v>
-      </c>
-      <c r="E97" s="5" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" s="5" t="s">
         <v>191</v>
       </c>
@@ -5797,13 +6402,10 @@
         <v>1024</v>
       </c>
       <c r="D98" s="5" t="s">
-        <v>1025</v>
-      </c>
-      <c r="E98" s="5" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99" s="5" t="s">
         <v>193</v>
       </c>
@@ -5814,13 +6416,10 @@
         <v>1024</v>
       </c>
       <c r="D99" s="5" t="s">
-        <v>1025</v>
-      </c>
-      <c r="E99" s="5" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" s="5" t="s">
         <v>195</v>
       </c>
@@ -5831,13 +6430,10 @@
         <v>1024</v>
       </c>
       <c r="D100" s="5" t="s">
-        <v>1025</v>
-      </c>
-      <c r="E100" s="5" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" s="5" t="s">
         <v>197</v>
       </c>
@@ -5848,13 +6444,10 @@
         <v>1024</v>
       </c>
       <c r="D101" s="5" t="s">
-        <v>1025</v>
-      </c>
-      <c r="E101" s="5" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102" s="5" t="s">
         <v>199</v>
       </c>
@@ -5865,13 +6458,10 @@
         <v>1024</v>
       </c>
       <c r="D102" s="5" t="s">
-        <v>1025</v>
-      </c>
-      <c r="E102" s="5" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103" s="5" t="s">
         <v>201</v>
       </c>
@@ -5882,13 +6472,10 @@
         <v>1024</v>
       </c>
       <c r="D103" s="5" t="s">
-        <v>1025</v>
-      </c>
-      <c r="E103" s="5" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104" s="5" t="s">
         <v>203</v>
       </c>
@@ -5899,13 +6486,10 @@
         <v>1024</v>
       </c>
       <c r="D104" s="5" t="s">
-        <v>1025</v>
-      </c>
-      <c r="E104" s="5" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105" s="5" t="s">
         <v>205</v>
       </c>
@@ -5916,13 +6500,10 @@
         <v>1024</v>
       </c>
       <c r="D105" s="5" t="s">
-        <v>1025</v>
-      </c>
-      <c r="E105" s="5" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A106" s="5" t="s">
         <v>207</v>
       </c>
@@ -5933,13 +6514,10 @@
         <v>1024</v>
       </c>
       <c r="D106" s="5" t="s">
-        <v>1025</v>
-      </c>
-      <c r="E106" s="5" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A107" s="5" t="s">
         <v>209</v>
       </c>
@@ -5950,13 +6528,10 @@
         <v>1024</v>
       </c>
       <c r="D107" s="5" t="s">
-        <v>1025</v>
-      </c>
-      <c r="E107" s="5" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A108" s="5" t="s">
         <v>211</v>
       </c>
@@ -5967,13 +6542,10 @@
         <v>1024</v>
       </c>
       <c r="D108" s="5" t="s">
-        <v>1025</v>
-      </c>
-      <c r="E108" s="5" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A109" s="5" t="s">
         <v>213</v>
       </c>
@@ -5984,13 +6556,10 @@
         <v>1024</v>
       </c>
       <c r="D109" s="5" t="s">
-        <v>1025</v>
-      </c>
-      <c r="E109" s="5" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A110" s="5" t="s">
         <v>215</v>
       </c>
@@ -6001,13 +6570,10 @@
         <v>1024</v>
       </c>
       <c r="D110" s="5" t="s">
-        <v>1025</v>
-      </c>
-      <c r="E110" s="5" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A111" s="5" t="s">
         <v>217</v>
       </c>
@@ -6018,13 +6584,10 @@
         <v>1024</v>
       </c>
       <c r="D111" s="5" t="s">
-        <v>1025</v>
-      </c>
-      <c r="E111" s="5" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A112" s="5" t="s">
         <v>219</v>
       </c>
@@ -6035,13 +6598,10 @@
         <v>1024</v>
       </c>
       <c r="D112" s="5" t="s">
-        <v>1025</v>
-      </c>
-      <c r="E112" s="5" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A113" s="5" t="s">
         <v>221</v>
       </c>
@@ -6052,13 +6612,10 @@
         <v>1024</v>
       </c>
       <c r="D113" s="5" t="s">
-        <v>1025</v>
-      </c>
-      <c r="E113" s="5" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A114" s="5" t="s">
         <v>223</v>
       </c>
@@ -6069,13 +6626,10 @@
         <v>1024</v>
       </c>
       <c r="D114" s="5" t="s">
-        <v>1025</v>
-      </c>
-      <c r="E114" s="5" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A115" s="5" t="s">
         <v>225</v>
       </c>
@@ -6086,13 +6640,10 @@
         <v>1024</v>
       </c>
       <c r="D115" s="5" t="s">
-        <v>1025</v>
-      </c>
-      <c r="E115" s="5" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A116" s="5" t="s">
         <v>227</v>
       </c>
@@ -6103,13 +6654,10 @@
         <v>1024</v>
       </c>
       <c r="D116" s="5" t="s">
-        <v>1025</v>
-      </c>
-      <c r="E116" s="5" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A117" s="5" t="s">
         <v>229</v>
       </c>
@@ -6120,13 +6668,10 @@
         <v>1024</v>
       </c>
       <c r="D117" s="5" t="s">
-        <v>1025</v>
-      </c>
-      <c r="E117" s="5" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A118" s="5" t="s">
         <v>231</v>
       </c>
@@ -6137,13 +6682,10 @@
         <v>1024</v>
       </c>
       <c r="D118" s="5" t="s">
-        <v>1025</v>
-      </c>
-      <c r="E118" s="5" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A119" s="5" t="s">
         <v>233</v>
       </c>
@@ -6154,13 +6696,10 @@
         <v>1024</v>
       </c>
       <c r="D119" s="5" t="s">
-        <v>1025</v>
-      </c>
-      <c r="E119" s="5" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A120" s="5" t="s">
         <v>235</v>
       </c>
@@ -6171,13 +6710,10 @@
         <v>1024</v>
       </c>
       <c r="D120" s="5" t="s">
-        <v>1025</v>
-      </c>
-      <c r="E120" s="5" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A121" s="5" t="s">
         <v>237</v>
       </c>
@@ -6188,13 +6724,10 @@
         <v>1024</v>
       </c>
       <c r="D121" s="5" t="s">
-        <v>1025</v>
-      </c>
-      <c r="E121" s="5" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A122" s="5" t="s">
         <v>239</v>
       </c>
@@ -6205,13 +6738,10 @@
         <v>1024</v>
       </c>
       <c r="D122" s="5" t="s">
-        <v>1025</v>
-      </c>
-      <c r="E122" s="5" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A123" s="5" t="s">
         <v>241</v>
       </c>
@@ -6222,13 +6752,10 @@
         <v>1024</v>
       </c>
       <c r="D123" s="5" t="s">
-        <v>1025</v>
-      </c>
-      <c r="E123" s="5" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A124" s="5" t="s">
         <v>243</v>
       </c>
@@ -6239,13 +6766,10 @@
         <v>1024</v>
       </c>
       <c r="D124" s="5" t="s">
-        <v>1025</v>
-      </c>
-      <c r="E124" s="5" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A125" s="5" t="s">
         <v>245</v>
       </c>
@@ -6256,13 +6780,10 @@
         <v>1024</v>
       </c>
       <c r="D125" s="5" t="s">
-        <v>1025</v>
-      </c>
-      <c r="E125" s="5" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A126" s="5" t="s">
         <v>247</v>
       </c>
@@ -6273,13 +6794,10 @@
         <v>1024</v>
       </c>
       <c r="D126" s="5" t="s">
-        <v>1025</v>
-      </c>
-      <c r="E126" s="5" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A127" s="5" t="s">
         <v>249</v>
       </c>
@@ -6290,13 +6808,10 @@
         <v>1024</v>
       </c>
       <c r="D127" s="5" t="s">
-        <v>1025</v>
-      </c>
-      <c r="E127" s="5" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A128" s="5" t="s">
         <v>251</v>
       </c>
@@ -6307,13 +6822,10 @@
         <v>1024</v>
       </c>
       <c r="D128" s="5" t="s">
-        <v>1025</v>
-      </c>
-      <c r="E128" s="5" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A129" s="5" t="s">
         <v>253</v>
       </c>
@@ -6324,13 +6836,10 @@
         <v>1024</v>
       </c>
       <c r="D129" s="5" t="s">
-        <v>1025</v>
-      </c>
-      <c r="E129" s="5" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A130" s="5" t="s">
         <v>255</v>
       </c>
@@ -6341,13 +6850,10 @@
         <v>1024</v>
       </c>
       <c r="D130" s="5" t="s">
-        <v>1025</v>
-      </c>
-      <c r="E130" s="5" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A131" s="5" t="s">
         <v>257</v>
       </c>
@@ -6358,13 +6864,10 @@
         <v>1024</v>
       </c>
       <c r="D131" s="5" t="s">
-        <v>1025</v>
-      </c>
-      <c r="E131" s="5" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A132" s="5" t="s">
         <v>259</v>
       </c>
@@ -6375,13 +6878,10 @@
         <v>1024</v>
       </c>
       <c r="D132" s="5" t="s">
-        <v>1025</v>
-      </c>
-      <c r="E132" s="5" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A133" s="5" t="s">
         <v>261</v>
       </c>
@@ -6392,13 +6892,10 @@
         <v>1024</v>
       </c>
       <c r="D133" s="5" t="s">
-        <v>1025</v>
-      </c>
-      <c r="E133" s="5" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A134" s="5" t="s">
         <v>263</v>
       </c>
@@ -6409,13 +6906,10 @@
         <v>1024</v>
       </c>
       <c r="D134" s="5" t="s">
-        <v>1025</v>
-      </c>
-      <c r="E134" s="5" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A135" s="5" t="s">
         <v>265</v>
       </c>
@@ -6426,13 +6920,10 @@
         <v>1024</v>
       </c>
       <c r="D135" s="5" t="s">
-        <v>1025</v>
-      </c>
-      <c r="E135" s="5" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A136" s="5" t="s">
         <v>267</v>
       </c>
@@ -6443,13 +6934,10 @@
         <v>1024</v>
       </c>
       <c r="D136" s="5" t="s">
-        <v>1025</v>
-      </c>
-      <c r="E136" s="5" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A137" s="5" t="s">
         <v>269</v>
       </c>
@@ -6460,13 +6948,10 @@
         <v>1024</v>
       </c>
       <c r="D137" s="5" t="s">
-        <v>1025</v>
-      </c>
-      <c r="E137" s="5" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A138" s="5" t="s">
         <v>271</v>
       </c>
@@ -6477,13 +6962,10 @@
         <v>1024</v>
       </c>
       <c r="D138" s="5" t="s">
-        <v>1025</v>
-      </c>
-      <c r="E138" s="5" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A139" s="5" t="s">
         <v>273</v>
       </c>
@@ -6494,13 +6976,10 @@
         <v>1024</v>
       </c>
       <c r="D139" s="5" t="s">
-        <v>1025</v>
-      </c>
-      <c r="E139" s="5" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A140" s="5" t="s">
         <v>275</v>
       </c>
@@ -6511,13 +6990,10 @@
         <v>1024</v>
       </c>
       <c r="D140" s="5" t="s">
-        <v>1025</v>
-      </c>
-      <c r="E140" s="5" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A141" s="5" t="s">
         <v>277</v>
       </c>
@@ -6528,13 +7004,10 @@
         <v>1024</v>
       </c>
       <c r="D141" s="5" t="s">
-        <v>1025</v>
-      </c>
-      <c r="E141" s="5" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A142" s="5" t="s">
         <v>279</v>
       </c>
@@ -6545,13 +7018,10 @@
         <v>1024</v>
       </c>
       <c r="D142" s="5" t="s">
-        <v>1025</v>
-      </c>
-      <c r="E142" s="5" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A143" s="5" t="s">
         <v>281</v>
       </c>
@@ -6562,13 +7032,10 @@
         <v>1024</v>
       </c>
       <c r="D143" s="5" t="s">
-        <v>1025</v>
-      </c>
-      <c r="E143" s="5" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A144" s="5" t="s">
         <v>283</v>
       </c>
@@ -6579,13 +7046,10 @@
         <v>1024</v>
       </c>
       <c r="D144" s="5" t="s">
-        <v>1025</v>
-      </c>
-      <c r="E144" s="5" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A145" s="5" t="s">
         <v>285</v>
       </c>
@@ -6596,13 +7060,10 @@
         <v>1024</v>
       </c>
       <c r="D145" s="5" t="s">
-        <v>1025</v>
-      </c>
-      <c r="E145" s="5" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A146" s="5" t="s">
         <v>287</v>
       </c>
@@ -6613,13 +7074,10 @@
         <v>1024</v>
       </c>
       <c r="D146" s="5" t="s">
-        <v>1025</v>
-      </c>
-      <c r="E146" s="5" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A147" s="5" t="s">
         <v>289</v>
       </c>
@@ -6630,13 +7088,10 @@
         <v>1024</v>
       </c>
       <c r="D147" s="5" t="s">
-        <v>1025</v>
-      </c>
-      <c r="E147" s="5" t="s">
         <v>288</v>
       </c>
     </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A148" s="5" t="s">
         <v>291</v>
       </c>
@@ -6647,13 +7102,10 @@
         <v>1024</v>
       </c>
       <c r="D148" s="5" t="s">
-        <v>1025</v>
-      </c>
-      <c r="E148" s="5" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A149" s="5" t="s">
         <v>293</v>
       </c>
@@ -6664,13 +7116,10 @@
         <v>1024</v>
       </c>
       <c r="D149" s="5" t="s">
-        <v>1025</v>
-      </c>
-      <c r="E149" s="5" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A150" s="5" t="s">
         <v>295</v>
       </c>
@@ -6681,13 +7130,10 @@
         <v>1024</v>
       </c>
       <c r="D150" s="5" t="s">
-        <v>1025</v>
-      </c>
-      <c r="E150" s="5" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="151" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A151" s="5" t="s">
         <v>297</v>
       </c>
@@ -6698,13 +7144,10 @@
         <v>1024</v>
       </c>
       <c r="D151" s="5" t="s">
-        <v>1025</v>
-      </c>
-      <c r="E151" s="5" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="152" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A152" s="5" t="s">
         <v>299</v>
       </c>
@@ -6715,13 +7158,10 @@
         <v>1024</v>
       </c>
       <c r="D152" s="5" t="s">
-        <v>1025</v>
-      </c>
-      <c r="E152" s="5" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="153" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A153" s="5" t="s">
         <v>301</v>
       </c>
@@ -6732,13 +7172,10 @@
         <v>1024</v>
       </c>
       <c r="D153" s="5" t="s">
-        <v>1025</v>
-      </c>
-      <c r="E153" s="5" t="s">
         <v>300</v>
       </c>
     </row>
-    <row r="154" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A154" s="5" t="s">
         <v>303</v>
       </c>
@@ -6749,13 +7186,10 @@
         <v>1024</v>
       </c>
       <c r="D154" s="5" t="s">
-        <v>1025</v>
-      </c>
-      <c r="E154" s="5" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="155" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A155" s="5" t="s">
         <v>305</v>
       </c>
@@ -6766,13 +7200,10 @@
         <v>1024</v>
       </c>
       <c r="D155" s="5" t="s">
-        <v>1025</v>
-      </c>
-      <c r="E155" s="5" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="156" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A156" s="5" t="s">
         <v>307</v>
       </c>
@@ -6783,13 +7214,10 @@
         <v>1024</v>
       </c>
       <c r="D156" s="5" t="s">
-        <v>1025</v>
-      </c>
-      <c r="E156" s="5" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="157" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A157" s="5" t="s">
         <v>309</v>
       </c>
@@ -6800,13 +7228,10 @@
         <v>1024</v>
       </c>
       <c r="D157" s="5" t="s">
-        <v>1025</v>
-      </c>
-      <c r="E157" s="5" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="158" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A158" s="5" t="s">
         <v>311</v>
       </c>
@@ -6817,13 +7242,10 @@
         <v>1024</v>
       </c>
       <c r="D158" s="5" t="s">
-        <v>1025</v>
-      </c>
-      <c r="E158" s="5" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="159" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A159" s="5" t="s">
         <v>313</v>
       </c>
@@ -6834,13 +7256,10 @@
         <v>1024</v>
       </c>
       <c r="D159" s="5" t="s">
-        <v>1025</v>
-      </c>
-      <c r="E159" s="5" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="160" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A160" s="5" t="s">
         <v>315</v>
       </c>
@@ -6851,13 +7270,10 @@
         <v>1024</v>
       </c>
       <c r="D160" s="5" t="s">
-        <v>1025</v>
-      </c>
-      <c r="E160" s="5" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="161" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A161" s="5" t="s">
         <v>317</v>
       </c>
@@ -6868,13 +7284,10 @@
         <v>1024</v>
       </c>
       <c r="D161" s="5" t="s">
-        <v>1025</v>
-      </c>
-      <c r="E161" s="5" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="162" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A162" s="5" t="s">
         <v>319</v>
       </c>
@@ -6885,13 +7298,10 @@
         <v>1024</v>
       </c>
       <c r="D162" s="5" t="s">
-        <v>1025</v>
-      </c>
-      <c r="E162" s="5" t="s">
         <v>318</v>
       </c>
     </row>
-    <row r="163" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A163" s="5" t="s">
         <v>321</v>
       </c>
@@ -6902,13 +7312,10 @@
         <v>1024</v>
       </c>
       <c r="D163" s="5" t="s">
-        <v>1025</v>
-      </c>
-      <c r="E163" s="5" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="164" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A164" s="5" t="s">
         <v>323</v>
       </c>
@@ -6919,13 +7326,10 @@
         <v>1024</v>
       </c>
       <c r="D164" s="5" t="s">
-        <v>1025</v>
-      </c>
-      <c r="E164" s="5" t="s">
         <v>322</v>
       </c>
     </row>
-    <row r="165" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A165" s="5" t="s">
         <v>810</v>
       </c>
@@ -6936,13 +7340,10 @@
         <v>1024</v>
       </c>
       <c r="D165" s="5" t="s">
-        <v>1025</v>
-      </c>
-      <c r="E165" s="5" t="s">
         <v>324</v>
       </c>
     </row>
-    <row r="166" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A166" s="5" t="s">
         <v>811</v>
       </c>
@@ -6953,13 +7354,10 @@
         <v>1024</v>
       </c>
       <c r="D166" s="5" t="s">
-        <v>1025</v>
-      </c>
-      <c r="E166" s="5" t="s">
         <v>809</v>
       </c>
     </row>
-    <row r="167" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A167" s="5" t="s">
         <v>808</v>
       </c>
@@ -6970,13 +7368,10 @@
         <v>1024</v>
       </c>
       <c r="D167" s="5" t="s">
-        <v>1025</v>
-      </c>
-      <c r="E167" s="5" t="s">
         <v>325</v>
       </c>
     </row>
-    <row r="168" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A168" s="5" t="s">
         <v>327</v>
       </c>
@@ -6987,13 +7382,10 @@
         <v>1024</v>
       </c>
       <c r="D168" s="5" t="s">
-        <v>1025</v>
-      </c>
-      <c r="E168" s="5" t="s">
         <v>326</v>
       </c>
     </row>
-    <row r="169" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A169" s="5" t="s">
         <v>329</v>
       </c>
@@ -7004,13 +7396,10 @@
         <v>1024</v>
       </c>
       <c r="D169" s="5" t="s">
-        <v>1025</v>
-      </c>
-      <c r="E169" s="5" t="s">
         <v>328</v>
       </c>
     </row>
-    <row r="170" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A170" s="5" t="s">
         <v>331</v>
       </c>
@@ -7021,13 +7410,10 @@
         <v>1024</v>
       </c>
       <c r="D170" s="5" t="s">
-        <v>1025</v>
-      </c>
-      <c r="E170" s="5" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="171" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A171" s="5" t="s">
         <v>333</v>
       </c>
@@ -7038,13 +7424,10 @@
         <v>1024</v>
       </c>
       <c r="D171" s="5" t="s">
-        <v>1025</v>
-      </c>
-      <c r="E171" s="5" t="s">
         <v>332</v>
       </c>
     </row>
-    <row r="172" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A172" s="5" t="s">
         <v>335</v>
       </c>
@@ -7055,13 +7438,10 @@
         <v>1024</v>
       </c>
       <c r="D172" s="5" t="s">
-        <v>1025</v>
-      </c>
-      <c r="E172" s="5" t="s">
         <v>334</v>
       </c>
     </row>
-    <row r="173" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A173" s="5" t="s">
         <v>337</v>
       </c>
@@ -7072,13 +7452,10 @@
         <v>1024</v>
       </c>
       <c r="D173" s="5" t="s">
-        <v>1025</v>
-      </c>
-      <c r="E173" s="5" t="s">
         <v>336</v>
       </c>
     </row>
-    <row r="174" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A174" s="5" t="s">
         <v>343</v>
       </c>
@@ -7089,13 +7466,10 @@
         <v>1024</v>
       </c>
       <c r="D174" s="5" t="s">
-        <v>1025</v>
-      </c>
-      <c r="E174" s="5" t="s">
         <v>338</v>
       </c>
     </row>
-    <row r="175" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A175" s="5" t="s">
         <v>341</v>
       </c>
@@ -7106,13 +7480,10 @@
         <v>1024</v>
       </c>
       <c r="D175" s="5" t="s">
-        <v>1025</v>
-      </c>
-      <c r="E175" s="5" t="s">
         <v>340</v>
       </c>
     </row>
-    <row r="176" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A176" s="5" t="s">
         <v>339</v>
       </c>
@@ -7123,13 +7494,10 @@
         <v>1024</v>
       </c>
       <c r="D176" s="5" t="s">
-        <v>1025</v>
-      </c>
-      <c r="E176" s="5" t="s">
         <v>342</v>
       </c>
     </row>
-    <row r="177" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A177" s="5" t="s">
         <v>345</v>
       </c>
@@ -7140,13 +7508,10 @@
         <v>1024</v>
       </c>
       <c r="D177" s="5" t="s">
-        <v>1025</v>
-      </c>
-      <c r="E177" s="5" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="178" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A178" s="5" t="s">
         <v>347</v>
       </c>
@@ -7157,13 +7522,10 @@
         <v>1024</v>
       </c>
       <c r="D178" s="5" t="s">
-        <v>1025</v>
-      </c>
-      <c r="E178" s="5" t="s">
         <v>346</v>
       </c>
     </row>
-    <row r="179" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A179" s="5" t="s">
         <v>349</v>
       </c>
@@ -7174,13 +7536,10 @@
         <v>1024</v>
       </c>
       <c r="D179" s="5" t="s">
-        <v>1025</v>
-      </c>
-      <c r="E179" s="5" t="s">
         <v>348</v>
       </c>
     </row>
-    <row r="180" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A180" s="5" t="s">
         <v>351</v>
       </c>
@@ -7191,13 +7550,10 @@
         <v>1024</v>
       </c>
       <c r="D180" s="5" t="s">
-        <v>1025</v>
-      </c>
-      <c r="E180" s="5" t="s">
         <v>350</v>
       </c>
     </row>
-    <row r="181" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A181" s="5" t="s">
         <v>353</v>
       </c>
@@ -7208,13 +7564,10 @@
         <v>1024</v>
       </c>
       <c r="D181" s="5" t="s">
-        <v>1025</v>
-      </c>
-      <c r="E181" s="5" t="s">
         <v>352</v>
       </c>
     </row>
-    <row r="182" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A182" s="5" t="s">
         <v>355</v>
       </c>
@@ -7225,13 +7578,10 @@
         <v>1024</v>
       </c>
       <c r="D182" s="5" t="s">
-        <v>1025</v>
-      </c>
-      <c r="E182" s="5" t="s">
         <v>354</v>
       </c>
     </row>
-    <row r="183" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A183" s="5" t="s">
         <v>357</v>
       </c>
@@ -7242,13 +7592,10 @@
         <v>1024</v>
       </c>
       <c r="D183" s="5" t="s">
-        <v>1025</v>
-      </c>
-      <c r="E183" s="5" t="s">
         <v>356</v>
       </c>
     </row>
-    <row r="184" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A184" s="5" t="s">
         <v>359</v>
       </c>
@@ -7259,13 +7606,10 @@
         <v>1024</v>
       </c>
       <c r="D184" s="5" t="s">
-        <v>1025</v>
-      </c>
-      <c r="E184" s="5" t="s">
         <v>358</v>
       </c>
     </row>
-    <row r="185" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A185" s="5" t="s">
         <v>361</v>
       </c>
@@ -7276,13 +7620,10 @@
         <v>1024</v>
       </c>
       <c r="D185" s="5" t="s">
-        <v>1025</v>
-      </c>
-      <c r="E185" s="5" t="s">
         <v>360</v>
       </c>
     </row>
-    <row r="186" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A186" s="5" t="s">
         <v>363</v>
       </c>
@@ -7293,13 +7634,10 @@
         <v>1024</v>
       </c>
       <c r="D186" s="5" t="s">
-        <v>1025</v>
-      </c>
-      <c r="E186" s="5" t="s">
         <v>362</v>
       </c>
     </row>
-    <row r="187" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A187" s="5" t="s">
         <v>365</v>
       </c>
@@ -7310,13 +7648,10 @@
         <v>1024</v>
       </c>
       <c r="D187" s="5" t="s">
-        <v>1025</v>
-      </c>
-      <c r="E187" s="5" t="s">
         <v>364</v>
       </c>
     </row>
-    <row r="188" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A188" s="5" t="s">
         <v>367</v>
       </c>
@@ -7327,13 +7662,10 @@
         <v>1024</v>
       </c>
       <c r="D188" s="5" t="s">
-        <v>1025</v>
-      </c>
-      <c r="E188" s="5" t="s">
         <v>366</v>
       </c>
     </row>
-    <row r="189" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A189" s="5" t="s">
         <v>369</v>
       </c>
@@ -7344,13 +7676,10 @@
         <v>1024</v>
       </c>
       <c r="D189" s="5" t="s">
-        <v>1025</v>
-      </c>
-      <c r="E189" s="5" t="s">
         <v>368</v>
       </c>
     </row>
-    <row r="190" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A190" s="5" t="s">
         <v>371</v>
       </c>
@@ -7361,13 +7690,10 @@
         <v>1024</v>
       </c>
       <c r="D190" s="5" t="s">
-        <v>1025</v>
-      </c>
-      <c r="E190" s="5" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="191" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A191" s="5" t="s">
         <v>373</v>
       </c>
@@ -7378,13 +7704,10 @@
         <v>1024</v>
       </c>
       <c r="D191" s="5" t="s">
-        <v>1025</v>
-      </c>
-      <c r="E191" s="5" t="s">
         <v>372</v>
       </c>
     </row>
-    <row r="192" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A192" s="5" t="s">
         <v>375</v>
       </c>
@@ -7395,13 +7718,10 @@
         <v>1024</v>
       </c>
       <c r="D192" s="5" t="s">
-        <v>1025</v>
-      </c>
-      <c r="E192" s="5" t="s">
         <v>374</v>
       </c>
     </row>
-    <row r="193" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A193" s="5" t="s">
         <v>377</v>
       </c>
@@ -7412,13 +7732,10 @@
         <v>1024</v>
       </c>
       <c r="D193" s="5" t="s">
-        <v>1025</v>
-      </c>
-      <c r="E193" s="5" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="194" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A194" s="5" t="s">
         <v>379</v>
       </c>
@@ -7429,13 +7746,10 @@
         <v>1024</v>
       </c>
       <c r="D194" s="5" t="s">
-        <v>1025</v>
-      </c>
-      <c r="E194" s="5" t="s">
         <v>378</v>
       </c>
     </row>
-    <row r="195" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A195" s="5" t="s">
         <v>381</v>
       </c>
@@ -7446,13 +7760,10 @@
         <v>1024</v>
       </c>
       <c r="D195" s="5" t="s">
-        <v>1025</v>
-      </c>
-      <c r="E195" s="5" t="s">
         <v>380</v>
       </c>
     </row>
-    <row r="196" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A196" s="5" t="s">
         <v>383</v>
       </c>
@@ -7463,13 +7774,10 @@
         <v>1024</v>
       </c>
       <c r="D196" s="5" t="s">
-        <v>1025</v>
-      </c>
-      <c r="E196" s="5" t="s">
         <v>382</v>
       </c>
     </row>
-    <row r="197" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A197" s="5" t="s">
         <v>385</v>
       </c>
@@ -7480,13 +7788,10 @@
         <v>1024</v>
       </c>
       <c r="D197" s="5" t="s">
-        <v>1025</v>
-      </c>
-      <c r="E197" s="5" t="s">
         <v>384</v>
       </c>
     </row>
-    <row r="198" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A198" s="5" t="s">
         <v>387</v>
       </c>
@@ -7497,13 +7802,10 @@
         <v>1024</v>
       </c>
       <c r="D198" s="5" t="s">
-        <v>1025</v>
-      </c>
-      <c r="E198" s="5" t="s">
         <v>386</v>
       </c>
     </row>
-    <row r="199" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A199" s="5" t="s">
         <v>389</v>
       </c>
@@ -7514,13 +7816,10 @@
         <v>1024</v>
       </c>
       <c r="D199" s="5" t="s">
-        <v>1025</v>
-      </c>
-      <c r="E199" s="5" t="s">
         <v>388</v>
       </c>
     </row>
-    <row r="200" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A200" s="5" t="s">
         <v>391</v>
       </c>
@@ -7531,13 +7830,10 @@
         <v>1024</v>
       </c>
       <c r="D200" s="5" t="s">
-        <v>1025</v>
-      </c>
-      <c r="E200" s="5" t="s">
         <v>390</v>
       </c>
     </row>
-    <row r="201" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A201" s="5" t="s">
         <v>393</v>
       </c>
@@ -7548,13 +7844,10 @@
         <v>1024</v>
       </c>
       <c r="D201" s="5" t="s">
-        <v>1025</v>
-      </c>
-      <c r="E201" s="5" t="s">
         <v>392</v>
       </c>
     </row>
-    <row r="202" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A202" s="5" t="s">
         <v>395</v>
       </c>
@@ -7565,13 +7858,10 @@
         <v>1024</v>
       </c>
       <c r="D202" s="5" t="s">
-        <v>1025</v>
-      </c>
-      <c r="E202" s="5" t="s">
         <v>394</v>
       </c>
     </row>
-    <row r="203" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A203" s="5" t="s">
         <v>397</v>
       </c>
@@ -7582,13 +7872,10 @@
         <v>1024</v>
       </c>
       <c r="D203" s="5" t="s">
-        <v>1025</v>
-      </c>
-      <c r="E203" s="5" t="s">
         <v>396</v>
       </c>
     </row>
-    <row r="204" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A204" s="5" t="s">
         <v>399</v>
       </c>
@@ -7599,13 +7886,10 @@
         <v>1024</v>
       </c>
       <c r="D204" s="5" t="s">
-        <v>1025</v>
-      </c>
-      <c r="E204" s="5" t="s">
         <v>398</v>
       </c>
     </row>
-    <row r="205" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A205" s="5" t="s">
         <v>401</v>
       </c>
@@ -7616,13 +7900,10 @@
         <v>1024</v>
       </c>
       <c r="D205" s="5" t="s">
-        <v>1025</v>
-      </c>
-      <c r="E205" s="5" t="s">
         <v>400</v>
       </c>
     </row>
-    <row r="206" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A206" s="5" t="s">
         <v>403</v>
       </c>
@@ -7633,13 +7914,10 @@
         <v>1024</v>
       </c>
       <c r="D206" s="5" t="s">
-        <v>1025</v>
-      </c>
-      <c r="E206" s="5" t="s">
         <v>402</v>
       </c>
     </row>
-    <row r="207" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A207" s="5" t="s">
         <v>405</v>
       </c>
@@ -7650,13 +7928,10 @@
         <v>1024</v>
       </c>
       <c r="D207" s="5" t="s">
-        <v>1025</v>
-      </c>
-      <c r="E207" s="5" t="s">
         <v>404</v>
       </c>
     </row>
-    <row r="208" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A208" s="5" t="s">
         <v>407</v>
       </c>
@@ -7667,13 +7942,10 @@
         <v>1024</v>
       </c>
       <c r="D208" s="5" t="s">
-        <v>1025</v>
-      </c>
-      <c r="E208" s="5" t="s">
         <v>406</v>
       </c>
     </row>
-    <row r="209" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A209" s="5" t="s">
         <v>409</v>
       </c>
@@ -7684,13 +7956,10 @@
         <v>1024</v>
       </c>
       <c r="D209" s="5" t="s">
-        <v>1025</v>
-      </c>
-      <c r="E209" s="5" t="s">
         <v>408</v>
       </c>
     </row>
-    <row r="210" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A210" s="5" t="s">
         <v>411</v>
       </c>
@@ -7701,13 +7970,10 @@
         <v>1024</v>
       </c>
       <c r="D210" s="5" t="s">
-        <v>1025</v>
-      </c>
-      <c r="E210" s="5" t="s">
         <v>410</v>
       </c>
     </row>
-    <row r="211" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A211" s="5" t="s">
         <v>413</v>
       </c>
@@ -7718,13 +7984,10 @@
         <v>1024</v>
       </c>
       <c r="D211" s="5" t="s">
-        <v>1025</v>
-      </c>
-      <c r="E211" s="5" t="s">
         <v>412</v>
       </c>
     </row>
-    <row r="212" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A212" s="5" t="s">
         <v>415</v>
       </c>
@@ -7735,13 +7998,10 @@
         <v>1024</v>
       </c>
       <c r="D212" s="5" t="s">
-        <v>1025</v>
-      </c>
-      <c r="E212" s="5" t="s">
         <v>414</v>
       </c>
     </row>
-    <row r="213" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A213" s="5" t="s">
         <v>417</v>
       </c>
@@ -7752,13 +8012,10 @@
         <v>1024</v>
       </c>
       <c r="D213" s="5" t="s">
-        <v>1025</v>
-      </c>
-      <c r="E213" s="5" t="s">
         <v>416</v>
       </c>
     </row>
-    <row r="214" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A214" s="5" t="s">
         <v>419</v>
       </c>
@@ -7769,13 +8026,10 @@
         <v>1024</v>
       </c>
       <c r="D214" s="5" t="s">
-        <v>1025</v>
-      </c>
-      <c r="E214" s="5" t="s">
         <v>418</v>
       </c>
     </row>
-    <row r="215" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A215" s="5" t="s">
         <v>421</v>
       </c>
@@ -7786,13 +8040,10 @@
         <v>1024</v>
       </c>
       <c r="D215" s="5" t="s">
-        <v>1025</v>
-      </c>
-      <c r="E215" s="5" t="s">
         <v>420</v>
       </c>
     </row>
-    <row r="216" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A216" s="5" t="s">
         <v>424</v>
       </c>
@@ -7803,13 +8054,10 @@
         <v>1024</v>
       </c>
       <c r="D216" s="5" t="s">
-        <v>1025</v>
-      </c>
-      <c r="E216" s="5" t="s">
         <v>423</v>
       </c>
     </row>
-    <row r="217" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A217" s="5" t="s">
         <v>426</v>
       </c>
@@ -7820,13 +8068,10 @@
         <v>1024</v>
       </c>
       <c r="D217" s="5" t="s">
-        <v>1025</v>
-      </c>
-      <c r="E217" s="5" t="s">
         <v>425</v>
       </c>
     </row>
-    <row r="218" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A218" s="5" t="s">
         <v>428</v>
       </c>
@@ -7837,13 +8082,10 @@
         <v>1024</v>
       </c>
       <c r="D218" s="5" t="s">
-        <v>1025</v>
-      </c>
-      <c r="E218" s="5" t="s">
         <v>427</v>
       </c>
     </row>
-    <row r="219" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A219" s="5" t="s">
         <v>430</v>
       </c>
@@ -7854,13 +8096,10 @@
         <v>1024</v>
       </c>
       <c r="D219" s="5" t="s">
-        <v>1025</v>
-      </c>
-      <c r="E219" s="5" t="s">
         <v>429</v>
       </c>
     </row>
-    <row r="220" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A220" s="5" t="s">
         <v>432</v>
       </c>
@@ -7871,13 +8110,10 @@
         <v>1024</v>
       </c>
       <c r="D220" s="5" t="s">
-        <v>1025</v>
-      </c>
-      <c r="E220" s="5" t="s">
         <v>431</v>
       </c>
     </row>
-    <row r="221" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A221" s="5" t="s">
         <v>434</v>
       </c>
@@ -7888,13 +8124,10 @@
         <v>1024</v>
       </c>
       <c r="D221" s="5" t="s">
-        <v>1025</v>
-      </c>
-      <c r="E221" s="5" t="s">
         <v>433</v>
       </c>
     </row>
-    <row r="222" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A222" s="5" t="s">
         <v>436</v>
       </c>
@@ -7905,13 +8138,10 @@
         <v>1024</v>
       </c>
       <c r="D222" s="5" t="s">
-        <v>1025</v>
-      </c>
-      <c r="E222" s="5" t="s">
         <v>435</v>
       </c>
     </row>
-    <row r="223" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A223" s="5" t="s">
         <v>438</v>
       </c>
@@ -7922,13 +8152,10 @@
         <v>1024</v>
       </c>
       <c r="D223" s="5" t="s">
-        <v>1025</v>
-      </c>
-      <c r="E223" s="5" t="s">
         <v>437</v>
       </c>
     </row>
-    <row r="224" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A224" s="5" t="s">
         <v>440</v>
       </c>
@@ -7939,13 +8166,10 @@
         <v>1024</v>
       </c>
       <c r="D224" s="5" t="s">
-        <v>1025</v>
-      </c>
-      <c r="E224" s="5" t="s">
         <v>439</v>
       </c>
     </row>
-    <row r="225" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A225" s="5" t="s">
         <v>442</v>
       </c>
@@ -7956,13 +8180,10 @@
         <v>1024</v>
       </c>
       <c r="D225" s="5" t="s">
-        <v>1025</v>
-      </c>
-      <c r="E225" s="5" t="s">
         <v>441</v>
       </c>
     </row>
-    <row r="226" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A226" s="5" t="s">
         <v>444</v>
       </c>
@@ -7973,13 +8194,10 @@
         <v>1024</v>
       </c>
       <c r="D226" s="5" t="s">
-        <v>1025</v>
-      </c>
-      <c r="E226" s="5" t="s">
         <v>443</v>
       </c>
     </row>
-    <row r="227" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A227" s="5" t="s">
         <v>446</v>
       </c>
@@ -7990,13 +8208,10 @@
         <v>1024</v>
       </c>
       <c r="D227" s="5" t="s">
-        <v>1025</v>
-      </c>
-      <c r="E227" s="5" t="s">
         <v>445</v>
       </c>
     </row>
-    <row r="228" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A228" s="5" t="s">
         <v>448</v>
       </c>
@@ -8007,13 +8222,10 @@
         <v>1024</v>
       </c>
       <c r="D228" s="5" t="s">
-        <v>1025</v>
-      </c>
-      <c r="E228" s="5" t="s">
         <v>447</v>
       </c>
     </row>
-    <row r="229" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A229" s="5" t="s">
         <v>450</v>
       </c>
@@ -8024,13 +8236,10 @@
         <v>1024</v>
       </c>
       <c r="D229" s="5" t="s">
-        <v>1025</v>
-      </c>
-      <c r="E229" s="5" t="s">
         <v>449</v>
       </c>
     </row>
-    <row r="230" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A230" s="5" t="s">
         <v>452</v>
       </c>
@@ -8041,13 +8250,10 @@
         <v>1024</v>
       </c>
       <c r="D230" s="5" t="s">
-        <v>1025</v>
-      </c>
-      <c r="E230" s="5" t="s">
         <v>451</v>
       </c>
     </row>
-    <row r="231" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A231" s="5" t="s">
         <v>454</v>
       </c>
@@ -8058,13 +8264,10 @@
         <v>1024</v>
       </c>
       <c r="D231" s="5" t="s">
-        <v>1025</v>
-      </c>
-      <c r="E231" s="5" t="s">
         <v>453</v>
       </c>
     </row>
-    <row r="232" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A232" s="5" t="s">
         <v>456</v>
       </c>
@@ -8075,13 +8278,10 @@
         <v>1024</v>
       </c>
       <c r="D232" s="5" t="s">
-        <v>1025</v>
-      </c>
-      <c r="E232" s="5" t="s">
         <v>455</v>
       </c>
     </row>
-    <row r="233" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A233" s="5" t="s">
         <v>458</v>
       </c>
@@ -8092,13 +8292,10 @@
         <v>1024</v>
       </c>
       <c r="D233" s="5" t="s">
-        <v>1025</v>
-      </c>
-      <c r="E233" s="5" t="s">
         <v>457</v>
       </c>
     </row>
-    <row r="234" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A234" s="5" t="s">
         <v>460</v>
       </c>
@@ -8109,13 +8306,10 @@
         <v>1024</v>
       </c>
       <c r="D234" s="5" t="s">
-        <v>1025</v>
-      </c>
-      <c r="E234" s="5" t="s">
         <v>459</v>
       </c>
     </row>
-    <row r="235" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A235" s="5" t="s">
         <v>462</v>
       </c>
@@ -8126,13 +8320,10 @@
         <v>1024</v>
       </c>
       <c r="D235" s="5" t="s">
-        <v>1025</v>
-      </c>
-      <c r="E235" s="5" t="s">
         <v>461</v>
       </c>
     </row>
-    <row r="236" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A236" s="5" t="s">
         <v>464</v>
       </c>
@@ -8143,13 +8334,10 @@
         <v>1024</v>
       </c>
       <c r="D236" s="5" t="s">
-        <v>1025</v>
-      </c>
-      <c r="E236" s="5" t="s">
         <v>463</v>
       </c>
     </row>
-    <row r="237" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A237" s="5" t="s">
         <v>466</v>
       </c>
@@ -8160,13 +8348,10 @@
         <v>1024</v>
       </c>
       <c r="D237" s="5" t="s">
-        <v>1025</v>
-      </c>
-      <c r="E237" s="5" t="s">
         <v>465</v>
       </c>
     </row>
-    <row r="238" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A238" s="5" t="s">
         <v>468</v>
       </c>
@@ -8177,13 +8362,10 @@
         <v>1024</v>
       </c>
       <c r="D238" s="5" t="s">
-        <v>1025</v>
-      </c>
-      <c r="E238" s="5" t="s">
         <v>467</v>
       </c>
     </row>
-    <row r="239" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A239" s="5" t="s">
         <v>470</v>
       </c>
@@ -8194,13 +8376,10 @@
         <v>1024</v>
       </c>
       <c r="D239" s="5" t="s">
-        <v>1025</v>
-      </c>
-      <c r="E239" s="5" t="s">
         <v>469</v>
       </c>
     </row>
-    <row r="240" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A240" s="5" t="s">
         <v>472</v>
       </c>
@@ -8211,13 +8390,10 @@
         <v>1024</v>
       </c>
       <c r="D240" s="5" t="s">
-        <v>1025</v>
-      </c>
-      <c r="E240" s="5" t="s">
         <v>471</v>
       </c>
     </row>
-    <row r="241" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A241" s="5" t="s">
         <v>474</v>
       </c>
@@ -8228,13 +8404,10 @@
         <v>1024</v>
       </c>
       <c r="D241" s="5" t="s">
-        <v>1025</v>
-      </c>
-      <c r="E241" s="5" t="s">
         <v>473</v>
       </c>
     </row>
-    <row r="242" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A242" s="5" t="s">
         <v>476</v>
       </c>
@@ -8245,13 +8418,10 @@
         <v>1024</v>
       </c>
       <c r="D242" s="5" t="s">
-        <v>1025</v>
-      </c>
-      <c r="E242" s="5" t="s">
         <v>475</v>
       </c>
     </row>
-    <row r="243" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A243" s="5" t="s">
         <v>478</v>
       </c>
@@ -8262,13 +8432,10 @@
         <v>1024</v>
       </c>
       <c r="D243" s="5" t="s">
-        <v>1025</v>
-      </c>
-      <c r="E243" s="5" t="s">
         <v>477</v>
       </c>
     </row>
-    <row r="244" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A244" s="5" t="s">
         <v>480</v>
       </c>
@@ -8279,13 +8446,10 @@
         <v>1024</v>
       </c>
       <c r="D244" s="5" t="s">
-        <v>1025</v>
-      </c>
-      <c r="E244" s="5" t="s">
         <v>479</v>
       </c>
     </row>
-    <row r="245" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A245" s="5" t="s">
         <v>482</v>
       </c>
@@ -8296,13 +8460,10 @@
         <v>1024</v>
       </c>
       <c r="D245" s="5" t="s">
-        <v>1025</v>
-      </c>
-      <c r="E245" s="5" t="s">
         <v>481</v>
       </c>
     </row>
-    <row r="246" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A246" s="5" t="s">
         <v>679</v>
       </c>
@@ -8313,13 +8474,10 @@
         <v>1024</v>
       </c>
       <c r="D246" s="5" t="s">
-        <v>1025</v>
-      </c>
-      <c r="E246" s="5" t="s">
         <v>483</v>
       </c>
     </row>
-    <row r="247" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A247" s="5" t="s">
         <v>680</v>
       </c>
@@ -8330,13 +8488,10 @@
         <v>1024</v>
       </c>
       <c r="D247" s="5" t="s">
-        <v>1025</v>
-      </c>
-      <c r="E247" s="5" t="s">
         <v>484</v>
       </c>
     </row>
-    <row r="248" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A248" s="5" t="s">
         <v>681</v>
       </c>
@@ -8347,13 +8502,10 @@
         <v>1024</v>
       </c>
       <c r="D248" s="5" t="s">
-        <v>1025</v>
-      </c>
-      <c r="E248" s="5" t="s">
         <v>485</v>
       </c>
     </row>
-    <row r="249" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A249" s="5" t="s">
         <v>682</v>
       </c>
@@ -8364,13 +8516,10 @@
         <v>1024</v>
       </c>
       <c r="D249" s="5" t="s">
-        <v>1025</v>
-      </c>
-      <c r="E249" s="5" t="s">
         <v>486</v>
       </c>
     </row>
-    <row r="250" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A250" s="5" t="s">
         <v>683</v>
       </c>
@@ -8381,13 +8530,10 @@
         <v>1024</v>
       </c>
       <c r="D250" s="5" t="s">
-        <v>1025</v>
-      </c>
-      <c r="E250" s="5" t="s">
         <v>487</v>
       </c>
     </row>
-    <row r="251" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A251" s="5" t="s">
         <v>684</v>
       </c>
@@ -8398,13 +8544,10 @@
         <v>1024</v>
       </c>
       <c r="D251" s="5" t="s">
-        <v>1025</v>
-      </c>
-      <c r="E251" s="5" t="s">
         <v>488</v>
       </c>
     </row>
-    <row r="252" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A252" s="5" t="s">
         <v>685</v>
       </c>
@@ -8415,13 +8558,10 @@
         <v>1024</v>
       </c>
       <c r="D252" s="5" t="s">
-        <v>1025</v>
-      </c>
-      <c r="E252" s="5" t="s">
         <v>489</v>
       </c>
     </row>
-    <row r="253" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A253" s="5" t="s">
         <v>491</v>
       </c>
@@ -8432,13 +8572,10 @@
         <v>1024</v>
       </c>
       <c r="D253" s="5" t="s">
-        <v>1025</v>
-      </c>
-      <c r="E253" s="5" t="s">
         <v>490</v>
       </c>
     </row>
-    <row r="254" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A254" s="5" t="s">
         <v>493</v>
       </c>
@@ -8449,13 +8586,10 @@
         <v>1024</v>
       </c>
       <c r="D254" s="5" t="s">
-        <v>1025</v>
-      </c>
-      <c r="E254" s="5" t="s">
         <v>492</v>
       </c>
     </row>
-    <row r="255" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A255" s="5" t="s">
         <v>495</v>
       </c>
@@ -8466,13 +8600,10 @@
         <v>1024</v>
       </c>
       <c r="D255" s="5" t="s">
-        <v>1025</v>
-      </c>
-      <c r="E255" s="5" t="s">
         <v>494</v>
       </c>
     </row>
-    <row r="256" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A256" s="5" t="s">
         <v>497</v>
       </c>
@@ -8483,13 +8614,10 @@
         <v>1024</v>
       </c>
       <c r="D256" s="5" t="s">
-        <v>1025</v>
-      </c>
-      <c r="E256" s="5" t="s">
         <v>496</v>
       </c>
     </row>
-    <row r="257" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A257" s="5" t="s">
         <v>499</v>
       </c>
@@ -8500,13 +8628,10 @@
         <v>1024</v>
       </c>
       <c r="D257" s="5" t="s">
-        <v>1025</v>
-      </c>
-      <c r="E257" s="5" t="s">
         <v>498</v>
       </c>
     </row>
-    <row r="258" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A258" s="5" t="s">
         <v>501</v>
       </c>
@@ -8517,13 +8642,10 @@
         <v>1024</v>
       </c>
       <c r="D258" s="5" t="s">
-        <v>1025</v>
-      </c>
-      <c r="E258" s="5" t="s">
         <v>500</v>
       </c>
     </row>
-    <row r="259" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A259" s="5" t="s">
         <v>503</v>
       </c>
@@ -8534,13 +8656,10 @@
         <v>1024</v>
       </c>
       <c r="D259" s="5" t="s">
-        <v>1025</v>
-      </c>
-      <c r="E259" s="5" t="s">
         <v>502</v>
       </c>
     </row>
-    <row r="260" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A260" s="5" t="s">
         <v>505</v>
       </c>
@@ -8551,13 +8670,10 @@
         <v>1024</v>
       </c>
       <c r="D260" s="5" t="s">
-        <v>1025</v>
-      </c>
-      <c r="E260" s="5" t="s">
         <v>504</v>
       </c>
     </row>
-    <row r="261" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A261" s="5" t="s">
         <v>507</v>
       </c>
@@ -8568,13 +8684,10 @@
         <v>1024</v>
       </c>
       <c r="D261" s="5" t="s">
-        <v>1025</v>
-      </c>
-      <c r="E261" s="5" t="s">
         <v>506</v>
       </c>
     </row>
-    <row r="262" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A262" s="5" t="s">
         <v>509</v>
       </c>
@@ -8585,13 +8698,10 @@
         <v>1024</v>
       </c>
       <c r="D262" s="5" t="s">
-        <v>1025</v>
-      </c>
-      <c r="E262" s="5" t="s">
         <v>508</v>
       </c>
     </row>
-    <row r="263" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A263" s="5" t="s">
         <v>511</v>
       </c>
@@ -8602,13 +8712,10 @@
         <v>1024</v>
       </c>
       <c r="D263" s="5" t="s">
-        <v>1025</v>
-      </c>
-      <c r="E263" s="5" t="s">
         <v>510</v>
       </c>
     </row>
-    <row r="264" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A264" s="5" t="s">
         <v>513</v>
       </c>
@@ -8619,13 +8726,10 @@
         <v>1024</v>
       </c>
       <c r="D264" s="5" t="s">
-        <v>1025</v>
-      </c>
-      <c r="E264" s="5" t="s">
         <v>512</v>
       </c>
     </row>
-    <row r="265" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A265" s="5" t="s">
         <v>515</v>
       </c>
@@ -8636,13 +8740,10 @@
         <v>1024</v>
       </c>
       <c r="D265" s="5" t="s">
-        <v>1025</v>
-      </c>
-      <c r="E265" s="5" t="s">
         <v>514</v>
       </c>
     </row>
-    <row r="266" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A266" s="5" t="s">
         <v>517</v>
       </c>
@@ -8653,13 +8754,10 @@
         <v>1024</v>
       </c>
       <c r="D266" s="5" t="s">
-        <v>1025</v>
-      </c>
-      <c r="E266" s="5" t="s">
         <v>516</v>
       </c>
     </row>
-    <row r="267" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A267" s="5" t="s">
         <v>519</v>
       </c>
@@ -8670,13 +8768,10 @@
         <v>1024</v>
       </c>
       <c r="D267" s="5" t="s">
-        <v>1025</v>
-      </c>
-      <c r="E267" s="5" t="s">
         <v>518</v>
       </c>
     </row>
-    <row r="268" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A268" s="5" t="s">
         <v>521</v>
       </c>
@@ -8687,13 +8782,10 @@
         <v>1024</v>
       </c>
       <c r="D268" s="5" t="s">
-        <v>1025</v>
-      </c>
-      <c r="E268" s="5" t="s">
         <v>520</v>
       </c>
     </row>
-    <row r="269" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A269" s="5" t="s">
         <v>523</v>
       </c>
@@ -8704,13 +8796,10 @@
         <v>1024</v>
       </c>
       <c r="D269" s="5" t="s">
-        <v>1025</v>
-      </c>
-      <c r="E269" s="5" t="s">
         <v>522</v>
       </c>
     </row>
-    <row r="270" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A270" s="5" t="s">
         <v>525</v>
       </c>
@@ -8721,13 +8810,10 @@
         <v>1024</v>
       </c>
       <c r="D270" s="5" t="s">
-        <v>1025</v>
-      </c>
-      <c r="E270" s="5" t="s">
         <v>524</v>
       </c>
     </row>
-    <row r="271" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A271" s="5" t="s">
         <v>527</v>
       </c>
@@ -8738,13 +8824,10 @@
         <v>1024</v>
       </c>
       <c r="D271" s="5" t="s">
-        <v>1025</v>
-      </c>
-      <c r="E271" s="5" t="s">
         <v>526</v>
       </c>
     </row>
-    <row r="272" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A272" s="5" t="s">
         <v>529</v>
       </c>
@@ -8755,13 +8838,10 @@
         <v>1024</v>
       </c>
       <c r="D272" s="5" t="s">
-        <v>1025</v>
-      </c>
-      <c r="E272" s="5" t="s">
         <v>528</v>
       </c>
     </row>
-    <row r="273" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A273" s="5" t="s">
         <v>531</v>
       </c>
@@ -8772,13 +8852,10 @@
         <v>1024</v>
       </c>
       <c r="D273" s="5" t="s">
-        <v>1025</v>
-      </c>
-      <c r="E273" s="5" t="s">
         <v>530</v>
       </c>
     </row>
-    <row r="274" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A274" s="5" t="s">
         <v>533</v>
       </c>
@@ -8789,13 +8866,10 @@
         <v>1024</v>
       </c>
       <c r="D274" s="5" t="s">
-        <v>1025</v>
-      </c>
-      <c r="E274" s="5" t="s">
         <v>532</v>
       </c>
     </row>
-    <row r="275" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A275" s="5" t="s">
         <v>535</v>
       </c>
@@ -8806,13 +8880,10 @@
         <v>1024</v>
       </c>
       <c r="D275" s="5" t="s">
-        <v>1025</v>
-      </c>
-      <c r="E275" s="5" t="s">
         <v>534</v>
       </c>
     </row>
-    <row r="276" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A276" s="5" t="s">
         <v>537</v>
       </c>
@@ -8823,13 +8894,10 @@
         <v>1024</v>
       </c>
       <c r="D276" s="5" t="s">
-        <v>1025</v>
-      </c>
-      <c r="E276" s="5" t="s">
         <v>536</v>
       </c>
     </row>
-    <row r="277" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A277" s="5" t="s">
         <v>539</v>
       </c>
@@ -8840,13 +8908,10 @@
         <v>1024</v>
       </c>
       <c r="D277" s="5" t="s">
-        <v>1025</v>
-      </c>
-      <c r="E277" s="5" t="s">
         <v>538</v>
       </c>
     </row>
-    <row r="278" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A278" s="5" t="s">
         <v>541</v>
       </c>
@@ -8857,13 +8922,10 @@
         <v>1024</v>
       </c>
       <c r="D278" s="5" t="s">
-        <v>1025</v>
-      </c>
-      <c r="E278" s="5" t="s">
         <v>540</v>
       </c>
     </row>
-    <row r="279" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A279" s="5" t="s">
         <v>543</v>
       </c>
@@ -8874,13 +8936,10 @@
         <v>1024</v>
       </c>
       <c r="D279" s="5" t="s">
-        <v>1025</v>
-      </c>
-      <c r="E279" s="5" t="s">
         <v>542</v>
       </c>
     </row>
-    <row r="280" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A280" s="5" t="s">
         <v>545</v>
       </c>
@@ -8891,13 +8950,10 @@
         <v>1024</v>
       </c>
       <c r="D280" s="5" t="s">
-        <v>1025</v>
-      </c>
-      <c r="E280" s="5" t="s">
         <v>544</v>
       </c>
     </row>
-    <row r="281" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A281" s="5" t="s">
         <v>547</v>
       </c>
@@ -8908,13 +8964,10 @@
         <v>1024</v>
       </c>
       <c r="D281" s="5" t="s">
-        <v>1025</v>
-      </c>
-      <c r="E281" s="5" t="s">
         <v>546</v>
       </c>
     </row>
-    <row r="282" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A282" s="5" t="s">
         <v>549</v>
       </c>
@@ -8925,13 +8978,10 @@
         <v>1024</v>
       </c>
       <c r="D282" s="5" t="s">
-        <v>1025</v>
-      </c>
-      <c r="E282" s="5" t="s">
         <v>548</v>
       </c>
     </row>
-    <row r="283" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A283" s="5" t="s">
         <v>551</v>
       </c>
@@ -8942,13 +8992,10 @@
         <v>1024</v>
       </c>
       <c r="D283" s="5" t="s">
-        <v>1025</v>
-      </c>
-      <c r="E283" s="5" t="s">
         <v>550</v>
       </c>
     </row>
-    <row r="284" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A284" s="5" t="s">
         <v>553</v>
       </c>
@@ -8959,13 +9006,10 @@
         <v>1024</v>
       </c>
       <c r="D284" s="5" t="s">
-        <v>1025</v>
-      </c>
-      <c r="E284" s="5" t="s">
         <v>552</v>
       </c>
     </row>
-    <row r="285" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A285" s="5" t="s">
         <v>555</v>
       </c>
@@ -8976,13 +9020,10 @@
         <v>1024</v>
       </c>
       <c r="D285" s="5" t="s">
-        <v>1025</v>
-      </c>
-      <c r="E285" s="5" t="s">
         <v>554</v>
       </c>
     </row>
-    <row r="286" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A286" s="5" t="s">
         <v>557</v>
       </c>
@@ -8993,13 +9034,10 @@
         <v>1024</v>
       </c>
       <c r="D286" s="5" t="s">
-        <v>1025</v>
-      </c>
-      <c r="E286" s="5" t="s">
         <v>556</v>
       </c>
     </row>
-    <row r="287" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A287" s="5" t="s">
         <v>559</v>
       </c>
@@ -9010,13 +9048,10 @@
         <v>1024</v>
       </c>
       <c r="D287" s="5" t="s">
-        <v>1025</v>
-      </c>
-      <c r="E287" s="5" t="s">
         <v>558</v>
       </c>
     </row>
-    <row r="288" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A288" s="5" t="s">
         <v>561</v>
       </c>
@@ -9027,13 +9062,10 @@
         <v>1024</v>
       </c>
       <c r="D288" s="5" t="s">
-        <v>1025</v>
-      </c>
-      <c r="E288" s="5" t="s">
         <v>560</v>
       </c>
     </row>
-    <row r="289" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A289" s="5" t="s">
         <v>563</v>
       </c>
@@ -9044,13 +9076,10 @@
         <v>1024</v>
       </c>
       <c r="D289" s="5" t="s">
-        <v>1025</v>
-      </c>
-      <c r="E289" s="5" t="s">
         <v>562</v>
       </c>
     </row>
-    <row r="290" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A290" s="5" t="s">
         <v>565</v>
       </c>
@@ -9061,13 +9090,10 @@
         <v>1024</v>
       </c>
       <c r="D290" s="5" t="s">
-        <v>1025</v>
-      </c>
-      <c r="E290" s="5" t="s">
         <v>564</v>
       </c>
     </row>
-    <row r="291" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A291" s="5" t="s">
         <v>567</v>
       </c>
@@ -9078,13 +9104,10 @@
         <v>1024</v>
       </c>
       <c r="D291" s="5" t="s">
-        <v>1025</v>
-      </c>
-      <c r="E291" s="5" t="s">
         <v>566</v>
       </c>
     </row>
-    <row r="292" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A292" s="5" t="s">
         <v>569</v>
       </c>
@@ -9095,13 +9118,10 @@
         <v>1024</v>
       </c>
       <c r="D292" s="5" t="s">
-        <v>1025</v>
-      </c>
-      <c r="E292" s="5" t="s">
         <v>568</v>
       </c>
     </row>
-    <row r="293" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A293" s="5" t="s">
         <v>571</v>
       </c>
@@ -9112,13 +9132,10 @@
         <v>1024</v>
       </c>
       <c r="D293" s="5" t="s">
-        <v>1025</v>
-      </c>
-      <c r="E293" s="5" t="s">
         <v>570</v>
       </c>
     </row>
-    <row r="294" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A294" s="5" t="s">
         <v>573</v>
       </c>
@@ -9129,13 +9146,10 @@
         <v>1024</v>
       </c>
       <c r="D294" s="5" t="s">
-        <v>1025</v>
-      </c>
-      <c r="E294" s="5" t="s">
         <v>572</v>
       </c>
     </row>
-    <row r="295" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A295" s="5" t="s">
         <v>575</v>
       </c>
@@ -9146,13 +9160,10 @@
         <v>1024</v>
       </c>
       <c r="D295" s="5" t="s">
-        <v>1025</v>
-      </c>
-      <c r="E295" s="5" t="s">
         <v>574</v>
       </c>
     </row>
-    <row r="296" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A296" s="5" t="s">
         <v>577</v>
       </c>
@@ -9163,13 +9174,10 @@
         <v>1024</v>
       </c>
       <c r="D296" s="5" t="s">
-        <v>1025</v>
-      </c>
-      <c r="E296" s="5" t="s">
         <v>576</v>
       </c>
     </row>
-    <row r="297" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A297" s="5" t="s">
         <v>579</v>
       </c>
@@ -9180,13 +9188,10 @@
         <v>1024</v>
       </c>
       <c r="D297" s="5" t="s">
-        <v>1025</v>
-      </c>
-      <c r="E297" s="5" t="s">
         <v>578</v>
       </c>
     </row>
-    <row r="298" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A298" s="5" t="s">
         <v>581</v>
       </c>
@@ -9197,13 +9202,10 @@
         <v>1024</v>
       </c>
       <c r="D298" s="5" t="s">
-        <v>1025</v>
-      </c>
-      <c r="E298" s="5" t="s">
         <v>580</v>
       </c>
     </row>
-    <row r="299" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A299" s="5" t="s">
         <v>583</v>
       </c>
@@ -9214,13 +9216,10 @@
         <v>1024</v>
       </c>
       <c r="D299" s="5" t="s">
-        <v>1025</v>
-      </c>
-      <c r="E299" s="5" t="s">
         <v>582</v>
       </c>
     </row>
-    <row r="300" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A300" s="5" t="s">
         <v>585</v>
       </c>
@@ -9231,13 +9230,10 @@
         <v>1024</v>
       </c>
       <c r="D300" s="5" t="s">
-        <v>1025</v>
-      </c>
-      <c r="E300" s="5" t="s">
         <v>584</v>
       </c>
     </row>
-    <row r="301" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A301" s="5" t="s">
         <v>587</v>
       </c>
@@ -9248,13 +9244,10 @@
         <v>1024</v>
       </c>
       <c r="D301" s="5" t="s">
-        <v>1025</v>
-      </c>
-      <c r="E301" s="5" t="s">
         <v>586</v>
       </c>
     </row>
-    <row r="302" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A302" s="5" t="s">
         <v>589</v>
       </c>
@@ -9265,13 +9258,10 @@
         <v>1024</v>
       </c>
       <c r="D302" s="5" t="s">
-        <v>1025</v>
-      </c>
-      <c r="E302" s="5" t="s">
         <v>588</v>
       </c>
     </row>
-    <row r="303" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A303" s="5" t="s">
         <v>591</v>
       </c>
@@ -9282,13 +9272,10 @@
         <v>1024</v>
       </c>
       <c r="D303" s="5" t="s">
-        <v>1025</v>
-      </c>
-      <c r="E303" s="5" t="s">
         <v>590</v>
       </c>
     </row>
-    <row r="304" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A304" s="5" t="s">
         <v>788</v>
       </c>
@@ -9299,13 +9286,10 @@
         <v>1024</v>
       </c>
       <c r="D304" s="5" t="s">
-        <v>1025</v>
-      </c>
-      <c r="E304" s="5" t="s">
         <v>592</v>
       </c>
     </row>
-    <row r="305" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A305" s="5" t="s">
         <v>594</v>
       </c>
@@ -9316,13 +9300,10 @@
         <v>1024</v>
       </c>
       <c r="D305" s="5" t="s">
-        <v>1025</v>
-      </c>
-      <c r="E305" s="5" t="s">
         <v>593</v>
       </c>
     </row>
-    <row r="306" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A306" s="5" t="s">
         <v>644</v>
       </c>
@@ -9333,13 +9314,10 @@
         <v>1024</v>
       </c>
       <c r="D306" s="5" t="s">
-        <v>1025</v>
-      </c>
-      <c r="E306" s="5" t="s">
         <v>643</v>
       </c>
     </row>
-    <row r="307" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A307" s="5" t="s">
         <v>596</v>
       </c>
@@ -9350,13 +9328,10 @@
         <v>1024</v>
       </c>
       <c r="D307" s="5" t="s">
-        <v>1025</v>
-      </c>
-      <c r="E307" s="5" t="s">
         <v>595</v>
       </c>
     </row>
-    <row r="308" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A308" s="5" t="s">
         <v>598</v>
       </c>
@@ -9367,13 +9342,10 @@
         <v>1024</v>
       </c>
       <c r="D308" s="5" t="s">
-        <v>1025</v>
-      </c>
-      <c r="E308" s="5" t="s">
         <v>597</v>
       </c>
     </row>
-    <row r="309" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A309" s="5" t="s">
         <v>600</v>
       </c>
@@ -9384,13 +9356,10 @@
         <v>1024</v>
       </c>
       <c r="D309" s="5" t="s">
-        <v>1025</v>
-      </c>
-      <c r="E309" s="5" t="s">
         <v>599</v>
       </c>
     </row>
-    <row r="310" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A310" s="5" t="s">
         <v>602</v>
       </c>
@@ -9401,13 +9370,10 @@
         <v>1024</v>
       </c>
       <c r="D310" s="5" t="s">
-        <v>1025</v>
-      </c>
-      <c r="E310" s="5" t="s">
         <v>601</v>
       </c>
     </row>
-    <row r="311" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A311" s="5" t="s">
         <v>604</v>
       </c>
@@ -9418,13 +9384,10 @@
         <v>1024</v>
       </c>
       <c r="D311" s="5" t="s">
-        <v>1025</v>
-      </c>
-      <c r="E311" s="5" t="s">
         <v>603</v>
       </c>
     </row>
-    <row r="312" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A312" s="5" t="s">
         <v>606</v>
       </c>
@@ -9435,13 +9398,10 @@
         <v>1024</v>
       </c>
       <c r="D312" s="5" t="s">
-        <v>1025</v>
-      </c>
-      <c r="E312" s="5" t="s">
         <v>605</v>
       </c>
     </row>
-    <row r="313" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A313" s="5" t="s">
         <v>608</v>
       </c>
@@ -9452,13 +9412,10 @@
         <v>1024</v>
       </c>
       <c r="D313" s="5" t="s">
-        <v>1025</v>
-      </c>
-      <c r="E313" s="5" t="s">
         <v>607</v>
       </c>
     </row>
-    <row r="314" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A314" s="5" t="s">
         <v>610</v>
       </c>
@@ -9469,13 +9426,10 @@
         <v>1024</v>
       </c>
       <c r="D314" s="5" t="s">
-        <v>1025</v>
-      </c>
-      <c r="E314" s="5" t="s">
         <v>609</v>
       </c>
     </row>
-    <row r="315" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A315" s="5" t="s">
         <v>612</v>
       </c>
@@ -9486,13 +9440,10 @@
         <v>1024</v>
       </c>
       <c r="D315" s="5" t="s">
-        <v>1025</v>
-      </c>
-      <c r="E315" s="5" t="s">
         <v>611</v>
       </c>
     </row>
-    <row r="316" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A316" s="5" t="s">
         <v>614</v>
       </c>
@@ -9503,13 +9454,10 @@
         <v>1024</v>
       </c>
       <c r="D316" s="5" t="s">
-        <v>1025</v>
-      </c>
-      <c r="E316" s="5" t="s">
         <v>613</v>
       </c>
     </row>
-    <row r="317" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A317" s="5" t="s">
         <v>616</v>
       </c>
@@ -9520,13 +9468,10 @@
         <v>1024</v>
       </c>
       <c r="D317" s="5" t="s">
-        <v>1025</v>
-      </c>
-      <c r="E317" s="5" t="s">
         <v>615</v>
       </c>
     </row>
-    <row r="318" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A318" s="5" t="s">
         <v>618</v>
       </c>
@@ -9537,13 +9482,10 @@
         <v>1024</v>
       </c>
       <c r="D318" s="5" t="s">
-        <v>1025</v>
-      </c>
-      <c r="E318" s="5" t="s">
         <v>617</v>
       </c>
     </row>
-    <row r="319" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A319" s="5" t="s">
         <v>620</v>
       </c>
@@ -9554,13 +9496,10 @@
         <v>1024</v>
       </c>
       <c r="D319" s="5" t="s">
-        <v>1025</v>
-      </c>
-      <c r="E319" s="5" t="s">
         <v>619</v>
       </c>
     </row>
-    <row r="320" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A320" s="5" t="s">
         <v>622</v>
       </c>
@@ -9571,13 +9510,10 @@
         <v>1024</v>
       </c>
       <c r="D320" s="5" t="s">
-        <v>1025</v>
-      </c>
-      <c r="E320" s="5" t="s">
         <v>621</v>
       </c>
     </row>
-    <row r="321" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A321" s="5" t="s">
         <v>624</v>
       </c>
@@ -9588,13 +9524,10 @@
         <v>1024</v>
       </c>
       <c r="D321" s="5" t="s">
-        <v>1025</v>
-      </c>
-      <c r="E321" s="5" t="s">
         <v>623</v>
       </c>
     </row>
-    <row r="322" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A322" s="5" t="s">
         <v>626</v>
       </c>
@@ -9605,13 +9538,10 @@
         <v>1024</v>
       </c>
       <c r="D322" s="5" t="s">
-        <v>1025</v>
-      </c>
-      <c r="E322" s="5" t="s">
         <v>625</v>
       </c>
     </row>
-    <row r="323" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A323" s="5" t="s">
         <v>628</v>
       </c>
@@ -9622,13 +9552,10 @@
         <v>1024</v>
       </c>
       <c r="D323" s="5" t="s">
-        <v>1025</v>
-      </c>
-      <c r="E323" s="5" t="s">
         <v>627</v>
       </c>
     </row>
-    <row r="324" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A324" s="5" t="s">
         <v>630</v>
       </c>
@@ -9639,13 +9566,10 @@
         <v>1024</v>
       </c>
       <c r="D324" s="5" t="s">
-        <v>1025</v>
-      </c>
-      <c r="E324" s="5" t="s">
         <v>629</v>
       </c>
     </row>
-    <row r="325" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A325" s="5" t="s">
         <v>632</v>
       </c>
@@ -9656,13 +9580,10 @@
         <v>1024</v>
       </c>
       <c r="D325" s="5" t="s">
-        <v>1025</v>
-      </c>
-      <c r="E325" s="5" t="s">
         <v>631</v>
       </c>
     </row>
-    <row r="326" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A326" s="5" t="s">
         <v>634</v>
       </c>
@@ -9673,13 +9594,10 @@
         <v>1024</v>
       </c>
       <c r="D326" s="5" t="s">
-        <v>1025</v>
-      </c>
-      <c r="E326" s="5" t="s">
         <v>633</v>
       </c>
     </row>
-    <row r="327" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A327" s="5" t="s">
         <v>636</v>
       </c>
@@ -9690,13 +9608,10 @@
         <v>1024</v>
       </c>
       <c r="D327" s="5" t="s">
-        <v>1025</v>
-      </c>
-      <c r="E327" s="5" t="s">
         <v>635</v>
       </c>
     </row>
-    <row r="328" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A328" s="5" t="s">
         <v>638</v>
       </c>
@@ -9707,13 +9622,10 @@
         <v>1024</v>
       </c>
       <c r="D328" s="5" t="s">
-        <v>1025</v>
-      </c>
-      <c r="E328" s="5" t="s">
         <v>637</v>
       </c>
     </row>
-    <row r="329" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A329" s="5" t="s">
         <v>640</v>
       </c>
@@ -9724,13 +9636,10 @@
         <v>1024</v>
       </c>
       <c r="D329" s="5" t="s">
-        <v>1025</v>
-      </c>
-      <c r="E329" s="5" t="s">
         <v>639</v>
       </c>
     </row>
-    <row r="330" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A330" s="5" t="s">
         <v>642</v>
       </c>
@@ -9741,13 +9650,10 @@
         <v>1024</v>
       </c>
       <c r="D330" s="5" t="s">
-        <v>1025</v>
-      </c>
-      <c r="E330" s="5" t="s">
         <v>641</v>
       </c>
     </row>
-    <row r="331" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A331" s="5" t="s">
         <v>646</v>
       </c>
@@ -9758,13 +9664,10 @@
         <v>1024</v>
       </c>
       <c r="D331" s="5" t="s">
-        <v>1025</v>
-      </c>
-      <c r="E331" s="5" t="s">
         <v>645</v>
       </c>
     </row>
-    <row r="332" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A332" s="5" t="s">
         <v>648</v>
       </c>
@@ -9775,13 +9678,10 @@
         <v>1024</v>
       </c>
       <c r="D332" s="5" t="s">
-        <v>1025</v>
-      </c>
-      <c r="E332" s="5" t="s">
         <v>647</v>
       </c>
     </row>
-    <row r="333" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A333" s="5" t="s">
         <v>650</v>
       </c>
@@ -9792,13 +9692,10 @@
         <v>1024</v>
       </c>
       <c r="D333" s="5" t="s">
-        <v>1025</v>
-      </c>
-      <c r="E333" s="5" t="s">
         <v>649</v>
       </c>
     </row>
-    <row r="334" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A334" s="5" t="s">
         <v>654</v>
       </c>
@@ -9809,13 +9706,10 @@
         <v>1024</v>
       </c>
       <c r="D334" s="5" t="s">
-        <v>1025</v>
-      </c>
-      <c r="E334" s="5" t="s">
         <v>653</v>
       </c>
     </row>
-    <row r="335" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A335" s="5" t="s">
         <v>656</v>
       </c>
@@ -9826,13 +9720,10 @@
         <v>1024</v>
       </c>
       <c r="D335" s="5" t="s">
-        <v>1025</v>
-      </c>
-      <c r="E335" s="5" t="s">
         <v>655</v>
       </c>
     </row>
-    <row r="336" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A336" s="5" t="s">
         <v>658</v>
       </c>
@@ -9843,13 +9734,10 @@
         <v>1024</v>
       </c>
       <c r="D336" s="5" t="s">
-        <v>1025</v>
-      </c>
-      <c r="E336" s="5" t="s">
         <v>657</v>
       </c>
     </row>
-    <row r="337" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A337" s="5" t="s">
         <v>652</v>
       </c>
@@ -9860,13 +9748,10 @@
         <v>1024</v>
       </c>
       <c r="D337" s="5" t="s">
-        <v>1025</v>
-      </c>
-      <c r="E337" s="5" t="s">
         <v>651</v>
       </c>
     </row>
-    <row r="338" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A338" s="5" t="s">
         <v>660</v>
       </c>
@@ -9877,13 +9762,10 @@
         <v>1024</v>
       </c>
       <c r="D338" s="5" t="s">
-        <v>1025</v>
-      </c>
-      <c r="E338" s="5" t="s">
         <v>659</v>
       </c>
     </row>
-    <row r="339" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A339" s="5" t="s">
         <v>662</v>
       </c>
@@ -9894,13 +9776,10 @@
         <v>1024</v>
       </c>
       <c r="D339" s="5" t="s">
-        <v>1025</v>
-      </c>
-      <c r="E339" s="5" t="s">
         <v>661</v>
       </c>
     </row>
-    <row r="340" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A340" s="5" t="s">
         <v>664</v>
       </c>
@@ -9911,13 +9790,10 @@
         <v>1024</v>
       </c>
       <c r="D340" s="5" t="s">
-        <v>1025</v>
-      </c>
-      <c r="E340" s="5" t="s">
         <v>663</v>
       </c>
     </row>
-    <row r="341" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A341" s="5" t="s">
         <v>666</v>
       </c>
@@ -9928,13 +9804,10 @@
         <v>1024</v>
       </c>
       <c r="D341" s="5" t="s">
-        <v>1025</v>
-      </c>
-      <c r="E341" s="5" t="s">
         <v>665</v>
       </c>
     </row>
-    <row r="342" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A342" s="5" t="s">
         <v>667</v>
       </c>
@@ -9945,277 +9818,41 @@
         <v>1024</v>
       </c>
       <c r="D342" s="5" t="s">
-        <v>1025</v>
-      </c>
-      <c r="E342" s="5" t="s">
         <v>812</v>
+      </c>
+    </row>
+    <row r="343" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A343" s="5" t="s">
+        <v>1145</v>
+      </c>
+      <c r="B343" s="5" t="s">
+        <v>1149</v>
+      </c>
+      <c r="C343" s="5" t="s">
+        <v>1024</v>
+      </c>
+      <c r="D343" s="5" t="s">
+        <v>1144</v>
+      </c>
+    </row>
+    <row r="344" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A344" s="5" t="s">
+        <v>1147</v>
+      </c>
+      <c r="B344" s="5" t="s">
+        <v>1148</v>
+      </c>
+      <c r="C344" s="5" t="s">
+        <v>1024</v>
+      </c>
+      <c r="D344" s="5" t="s">
+        <v>1146</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:A342"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:K11"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="T7" sqref="T7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="5.140625" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.5703125" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="25.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.140625" style="5"/>
-    <col min="5" max="5" width="2.7109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11" style="5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.140625" style="5"/>
-    <col min="9" max="9" width="2.85546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="7.7109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="5"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
-        <v>1026</v>
-      </c>
-      <c r="B1" s="5" t="s">
-        <v>1027</v>
-      </c>
-      <c r="C1" s="5" t="s">
-        <v>1068</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>1048</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>1051</v>
-      </c>
-      <c r="G1" s="5" t="s">
-        <v>1065</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>1055</v>
-      </c>
-      <c r="J1" s="4" t="s">
-        <v>1054</v>
-      </c>
-      <c r="K1" s="5" t="s">
-        <v>1061</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
-        <v>1028</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>1029</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>1069</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>1049</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>1052</v>
-      </c>
-      <c r="G2" s="5" t="s">
-        <v>1066</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>1057</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>1056</v>
-      </c>
-      <c r="K2" s="5" t="s">
-        <v>1062</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" s="5" t="s">
-        <v>1030</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>1031</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>1070</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>1050</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>1053</v>
-      </c>
-      <c r="G3" s="5" t="s">
-        <v>1067</v>
-      </c>
-      <c r="I3" s="3" t="s">
-        <v>1049</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>1058</v>
-      </c>
-      <c r="K3" s="5" t="s">
-        <v>1063</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="5" t="s">
-        <v>1032</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>1033</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>1071</v>
-      </c>
-      <c r="G4" s="5"/>
-      <c r="I4" s="3" t="s">
-        <v>1060</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>1059</v>
-      </c>
-      <c r="K4" s="5" t="s">
-        <v>1064</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" s="5" t="s">
-        <v>1034</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>1035</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>1072</v>
-      </c>
-      <c r="G5" s="5"/>
-      <c r="I5" s="2" t="s">
-        <v>1055</v>
-      </c>
-      <c r="J5" s="4" t="s">
-        <v>1081</v>
-      </c>
-      <c r="K5" s="5" t="s">
-        <v>1085</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" s="5" t="s">
-        <v>1036</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>1037</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>1073</v>
-      </c>
-      <c r="G6" s="5"/>
-      <c r="I6" s="3" t="s">
-        <v>1057</v>
-      </c>
-      <c r="J6" s="1" t="s">
-        <v>1082</v>
-      </c>
-      <c r="K6" s="5" t="s">
-        <v>1086</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" s="5" t="s">
-        <v>1038</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>1039</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>1074</v>
-      </c>
-      <c r="G7" s="5"/>
-      <c r="I7" s="3" t="s">
-        <v>1049</v>
-      </c>
-      <c r="J7" s="1" t="s">
-        <v>1083</v>
-      </c>
-      <c r="K7" s="5" t="s">
-        <v>1063</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A8" s="5" t="s">
-        <v>1040</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>1041</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>1075</v>
-      </c>
-      <c r="G8" s="5"/>
-      <c r="I8" s="3" t="s">
-        <v>1060</v>
-      </c>
-      <c r="J8" s="1" t="s">
-        <v>1084</v>
-      </c>
-      <c r="K8" s="5" t="s">
-        <v>1087</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A9" s="5" t="s">
-        <v>1042</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>1043</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>1068</v>
-      </c>
-      <c r="G9" s="5"/>
-      <c r="K9" s="5"/>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10" s="5" t="s">
-        <v>1044</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>1045</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>1076</v>
-      </c>
-      <c r="G10" s="5"/>
-      <c r="K10" s="5"/>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A11" s="5" t="s">
-        <v>1046</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>1047</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>1077</v>
-      </c>
-      <c r="G11" s="5"/>
-      <c r="K11" s="5"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -10531,14 +10168,14 @@
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B7E25A43-40CB-42BE-8E2F-7DB0420CEFCE}">
   <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="935c85e0-4a6b-43a0-9a26-590824ed45f9"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="935c85e0-4a6b-43a0-9a26-590824ed45f9"/>
     <ds:schemaRef ds:uri="b5ec5cd8-580e-4a43-b29d-c005862e3691"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
   </ds:schemaRefs>

--- a/assets/Translation_PM_JP_Asset.xlsx
+++ b/assets/Translation_PM_JP_Asset.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\majona\Documents\GitHub\iko_mro_items\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{742FC9EE-98A0-4EAD-9007-5000D1E8E7E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1BD4FA4-E723-4E38-9A1C-FEF032337FB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">FR!$A$1:$E$456</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">NL!$A$1:$D$490</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">NL!$A$1:$D$480</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">NLANT!$A$1:$D$1017</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -75,7 +75,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9712" uniqueCount="4913">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9682" uniqueCount="4917">
   <si>
     <t>B0001</t>
   </si>
@@ -14814,6 +14814,18 @@
   </si>
   <si>
     <t>H4852</t>
+  </si>
+  <si>
+    <t>Dwarszaag Eenheid</t>
+  </si>
+  <si>
+    <t>Dwarszaag Uitgang Rollenbaan</t>
+  </si>
+  <si>
+    <t>Koeltoren</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Octoate Piping System </t>
   </si>
 </sst>
 </file>
@@ -15380,7 +15392,37 @@
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="3">
+  <dxfs count="6">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -43667,7 +43709,7 @@
     </sortState>
   </autoFilter>
   <conditionalFormatting sqref="A1:A1048576">
-    <cfRule type="duplicateValues" dxfId="2" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="3" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -43677,10 +43719,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10049E04-F69F-4BBF-AF12-08CD8861AE25}">
-  <dimension ref="A1:D490"/>
+  <dimension ref="A1:D480"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A194" workbookViewId="0">
-      <selection activeCell="P199" sqref="P199"/>
+    <sheetView tabSelected="1" topLeftCell="A370" workbookViewId="0">
+      <selection activeCell="B382" sqref="B382"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -43708,44 +43750,44 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>4386</v>
+        <v>4776</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>4010</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>4776</v>
+        <v>4777</v>
       </c>
       <c r="C3" s="5" t="s">
         <v>4010</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>4777</v>
+        <v>4386</v>
       </c>
       <c r="C4" s="5" t="s">
         <v>4010</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -43764,2381 +43806,2291 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
-        <v>4561</v>
+        <v>1161</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>4779</v>
+        <v>4388</v>
       </c>
       <c r="C6" s="5" t="s">
         <v>4010</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>4511</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
-        <v>4562</v>
+        <v>127</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>4780</v>
+        <v>4665</v>
       </c>
       <c r="C7" s="5" t="s">
         <v>4010</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>148</v>
+        <v>126</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
-        <v>1212</v>
+        <v>4560</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>4781</v>
+        <v>4669</v>
       </c>
       <c r="C8" s="5" t="s">
         <v>4010</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
-        <v>151</v>
+        <v>1212</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>4782</v>
+        <v>4781</v>
       </c>
       <c r="C9" s="5" t="s">
         <v>4010</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
-        <v>1211</v>
+        <v>149</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>4783</v>
+        <v>4390</v>
       </c>
       <c r="C10" s="5" t="s">
         <v>4010</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
-        <v>4574</v>
+        <v>4561</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>4784</v>
+        <v>4779</v>
       </c>
       <c r="C11" s="5" t="s">
         <v>4010</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>223</v>
+        <v>4511</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
-        <v>4577</v>
+        <v>4562</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>4785</v>
+        <v>4780</v>
       </c>
       <c r="C12" s="5" t="s">
         <v>4010</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>229</v>
+        <v>148</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
-        <v>4573</v>
+        <v>151</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>4786</v>
+        <v>4782</v>
       </c>
       <c r="C13" s="5" t="s">
         <v>4010</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>4517</v>
+        <v>150</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
-        <v>4575</v>
+        <v>1211</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>4787</v>
+        <v>4783</v>
       </c>
       <c r="C14" s="5" t="s">
         <v>4010</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>4518</v>
+        <v>145</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
-        <v>4578</v>
+        <v>499</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>4788</v>
+        <v>4120</v>
       </c>
       <c r="C15" s="5" t="s">
         <v>4010</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>4520</v>
+        <v>498</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
-        <v>4576</v>
+        <v>1160</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>4789</v>
+        <v>4393</v>
       </c>
       <c r="C16" s="5" t="s">
         <v>4010</v>
-      </c>
-      <c r="D16" s="5" t="s">
-        <v>4519</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
-        <v>220</v>
+        <v>119</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>4790</v>
+        <v>4663</v>
       </c>
       <c r="C17" s="5" t="s">
         <v>4010</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>219</v>
+        <v>118</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
-        <v>222</v>
+        <v>121</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>4791</v>
+        <v>4664</v>
       </c>
       <c r="C18" s="5" t="s">
         <v>4010</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>221</v>
+        <v>120</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
-        <v>4558</v>
+        <v>115</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>4792</v>
+        <v>4794</v>
       </c>
       <c r="C19" s="5" t="s">
         <v>4010</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>4509</v>
+        <v>114</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
-        <v>4559</v>
+        <v>117</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>4793</v>
+        <v>4795</v>
       </c>
       <c r="C20" s="5" t="s">
         <v>4010</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>4663</v>
+        <v>4394</v>
       </c>
       <c r="C21" s="5" t="s">
         <v>4010</v>
-      </c>
-      <c r="D21" s="5" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
-        <v>121</v>
+        <v>4558</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>4664</v>
+        <v>4792</v>
       </c>
       <c r="C22" s="5" t="s">
         <v>4010</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>120</v>
+        <v>4509</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
-        <v>115</v>
+        <v>4559</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>4794</v>
+        <v>4793</v>
       </c>
       <c r="C23" s="5" t="s">
         <v>4010</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
-        <v>117</v>
+        <v>125</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>4795</v>
+        <v>4796</v>
       </c>
       <c r="C24" s="5" t="s">
         <v>4010</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="5" t="s">
-        <v>125</v>
+        <v>1159</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>4796</v>
+        <v>4396</v>
       </c>
       <c r="C25" s="5" t="s">
         <v>4010</v>
-      </c>
-      <c r="D25" s="5" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
-        <v>401</v>
+        <v>113</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>4797</v>
+        <v>4660</v>
       </c>
       <c r="C26" s="5" t="s">
         <v>4010</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>400</v>
+        <v>112</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="5" t="s">
-        <v>403</v>
+        <v>331</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>4798</v>
+        <v>4727</v>
       </c>
       <c r="C27" s="5" t="s">
         <v>4010</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>402</v>
+        <v>330</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="5" t="s">
-        <v>4590</v>
+        <v>335</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>4799</v>
+        <v>4397</v>
       </c>
       <c r="C28" s="5" t="s">
         <v>4010</v>
-      </c>
-      <c r="D28" s="5" t="s">
-        <v>4525</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="5" t="s">
-        <v>4589</v>
+        <v>4590</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>4800</v>
+        <v>4799</v>
       </c>
       <c r="C29" s="5" t="s">
         <v>4010</v>
       </c>
       <c r="D29" s="5" t="s">
-        <v>334</v>
+        <v>4525</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="5" t="s">
-        <v>4591</v>
+        <v>4589</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>4801</v>
+        <v>4800</v>
       </c>
       <c r="C30" s="5" t="s">
         <v>4010</v>
       </c>
       <c r="D30" s="5" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="5" t="s">
-        <v>4592</v>
+        <v>4591</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>4802</v>
+        <v>4801</v>
       </c>
       <c r="C31" s="5" t="s">
         <v>4010</v>
       </c>
       <c r="D31" s="5" t="s">
-        <v>4526</v>
+        <v>338</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="5" t="s">
-        <v>4593</v>
+        <v>4592</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>4803</v>
+        <v>4802</v>
       </c>
       <c r="C32" s="5" t="s">
         <v>4010</v>
       </c>
       <c r="D32" s="5" t="s">
-        <v>340</v>
+        <v>4526</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="5" t="s">
-        <v>345</v>
+        <v>4593</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>4804</v>
+        <v>4803</v>
       </c>
       <c r="C33" s="5" t="s">
         <v>4010</v>
       </c>
       <c r="D33" s="5" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="5" t="s">
-        <v>347</v>
+        <v>1208</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>4805</v>
+        <v>4398</v>
       </c>
       <c r="C34" s="5" t="s">
         <v>4010</v>
-      </c>
-      <c r="D34" s="5" t="s">
-        <v>346</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="5" t="s">
-        <v>4597</v>
+        <v>3211</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>4806</v>
+        <v>4035</v>
       </c>
       <c r="C35" s="5" t="s">
         <v>4010</v>
       </c>
       <c r="D35" s="5" t="s">
-        <v>4530</v>
+        <v>1090</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="5" t="s">
-        <v>4594</v>
+        <v>438</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>4807</v>
+        <v>4018</v>
       </c>
       <c r="C36" s="5" t="s">
         <v>4010</v>
       </c>
       <c r="D36" s="5" t="s">
-        <v>4527</v>
+        <v>437</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="5" t="s">
-        <v>4595</v>
+        <v>4138</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>4808</v>
+        <v>4139</v>
       </c>
       <c r="C37" s="5" t="s">
         <v>4010</v>
       </c>
       <c r="D37" s="5" t="s">
-        <v>4528</v>
+        <v>520</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="5" t="s">
-        <v>4596</v>
+        <v>4140</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>4809</v>
+        <v>4141</v>
       </c>
       <c r="C38" s="5" t="s">
         <v>4010</v>
       </c>
       <c r="D38" s="5" t="s">
-        <v>4529</v>
+        <v>522</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="5" t="s">
-        <v>4618</v>
+        <v>4142</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>4810</v>
+        <v>4143</v>
       </c>
       <c r="C39" s="5" t="s">
         <v>4010</v>
       </c>
       <c r="D39" s="5" t="s">
-        <v>386</v>
+        <v>524</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="5" t="s">
-        <v>1141</v>
+        <v>4144</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>4811</v>
+        <v>4145</v>
       </c>
       <c r="C40" s="5" t="s">
         <v>4010</v>
       </c>
       <c r="D40" s="5" t="s">
-        <v>276</v>
+        <v>4304</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="5" t="s">
-        <v>269</v>
+        <v>4146</v>
       </c>
       <c r="B41" s="5" t="s">
-        <v>4812</v>
+        <v>4147</v>
       </c>
       <c r="C41" s="5" t="s">
         <v>4010</v>
       </c>
       <c r="D41" s="5" t="s">
-        <v>268</v>
+        <v>526</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="5" t="s">
-        <v>266</v>
+        <v>1173</v>
       </c>
       <c r="B42" s="5" t="s">
-        <v>4813</v>
+        <v>3792</v>
       </c>
       <c r="C42" s="5" t="s">
         <v>4010</v>
-      </c>
-      <c r="D42" s="5" t="s">
-        <v>265</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="5" t="s">
-        <v>4579</v>
+        <v>1199</v>
       </c>
       <c r="B43" s="5" t="s">
-        <v>4814</v>
+        <v>3793</v>
       </c>
       <c r="C43" s="5" t="s">
         <v>4010</v>
-      </c>
-      <c r="D43" s="5" t="s">
-        <v>267</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="5" t="s">
-        <v>4580</v>
+        <v>4148</v>
       </c>
       <c r="B44" s="5" t="s">
-        <v>4815</v>
+        <v>4149</v>
       </c>
       <c r="C44" s="5" t="s">
         <v>4010</v>
       </c>
       <c r="D44" s="5" t="s">
-        <v>272</v>
+        <v>4305</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="5" t="s">
-        <v>4602</v>
+        <v>4356</v>
       </c>
       <c r="B45" s="5" t="s">
-        <v>4816</v>
+        <v>4399</v>
       </c>
       <c r="C45" s="5" t="s">
         <v>4010</v>
-      </c>
-      <c r="D45" s="5" t="s">
-        <v>4533</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="5" t="s">
-        <v>4606</v>
+        <v>1141</v>
       </c>
       <c r="B46" s="5" t="s">
-        <v>4817</v>
+        <v>4811</v>
       </c>
       <c r="C46" s="5" t="s">
         <v>4010</v>
       </c>
       <c r="D46" s="5" t="s">
-        <v>4534</v>
+        <v>276</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="5" t="s">
-        <v>4599</v>
+        <v>266</v>
       </c>
       <c r="B47" s="5" t="s">
-        <v>4818</v>
+        <v>4813</v>
       </c>
       <c r="C47" s="5" t="s">
         <v>4010</v>
       </c>
       <c r="D47" s="5" t="s">
-        <v>356</v>
+        <v>265</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="5" t="s">
-        <v>4600</v>
+        <v>275</v>
       </c>
       <c r="B48" s="5" t="s">
-        <v>4819</v>
+        <v>4914</v>
       </c>
       <c r="C48" s="5" t="s">
         <v>4010</v>
-      </c>
-      <c r="D48" s="5" t="s">
-        <v>4532</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="5" t="s">
-        <v>4604</v>
+        <v>4580</v>
       </c>
       <c r="B49" s="5" t="s">
-        <v>4820</v>
+        <v>4815</v>
       </c>
       <c r="C49" s="5" t="s">
         <v>4010</v>
       </c>
       <c r="D49" s="5" t="s">
-        <v>362</v>
+        <v>272</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="5" t="s">
-        <v>4601</v>
+        <v>4579</v>
       </c>
       <c r="B50" s="5" t="s">
-        <v>4821</v>
+        <v>4814</v>
       </c>
       <c r="C50" s="5" t="s">
         <v>4010</v>
       </c>
       <c r="D50" s="5" t="s">
-        <v>358</v>
+        <v>267</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="5" t="s">
-        <v>4605</v>
+        <v>1140</v>
       </c>
       <c r="B51" s="5" t="s">
-        <v>4822</v>
+        <v>4913</v>
       </c>
       <c r="C51" s="5" t="s">
         <v>4010</v>
-      </c>
-      <c r="D51" s="5" t="s">
-        <v>364</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="5" t="s">
-        <v>4607</v>
+        <v>269</v>
       </c>
       <c r="B52" s="5" t="s">
-        <v>4823</v>
+        <v>4812</v>
       </c>
       <c r="C52" s="5" t="s">
         <v>4010</v>
       </c>
       <c r="D52" s="5" t="s">
-        <v>366</v>
+        <v>268</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="5" t="s">
-        <v>4603</v>
+        <v>563</v>
       </c>
       <c r="B53" s="5" t="s">
-        <v>4824</v>
+        <v>4222</v>
       </c>
       <c r="C53" s="5" t="s">
         <v>4010</v>
       </c>
       <c r="D53" s="5" t="s">
-        <v>360</v>
+        <v>562</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="5" t="s">
-        <v>236</v>
+        <v>4360</v>
       </c>
       <c r="B54" s="5" t="s">
-        <v>4825</v>
+        <v>4405</v>
       </c>
       <c r="C54" s="5" t="s">
         <v>4010</v>
-      </c>
-      <c r="D54" s="5" t="s">
-        <v>235</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="5" t="s">
-        <v>246</v>
+        <v>1172</v>
       </c>
       <c r="B55" s="5" t="s">
-        <v>4826</v>
+        <v>4363</v>
       </c>
       <c r="C55" s="5" t="s">
         <v>4010</v>
-      </c>
-      <c r="D55" s="5" t="s">
-        <v>245</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="5" t="s">
-        <v>238</v>
+        <v>4133</v>
       </c>
       <c r="B56" s="5" t="s">
-        <v>4703</v>
+        <v>4134</v>
       </c>
       <c r="C56" s="5" t="s">
         <v>4010</v>
       </c>
       <c r="D56" s="5" t="s">
-        <v>237</v>
+        <v>514</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="5" t="s">
-        <v>240</v>
+        <v>3276</v>
       </c>
       <c r="B57" s="5" t="s">
-        <v>4704</v>
+        <v>3275</v>
       </c>
       <c r="C57" s="5" t="s">
         <v>4010</v>
       </c>
       <c r="D57" s="5" t="s">
-        <v>239</v>
+        <v>435</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="5" t="s">
-        <v>242</v>
+        <v>2745</v>
       </c>
       <c r="B58" s="5" t="s">
-        <v>4705</v>
+        <v>4243</v>
       </c>
       <c r="C58" s="5" t="s">
         <v>4010</v>
       </c>
       <c r="D58" s="5" t="s">
-        <v>241</v>
+        <v>587</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="5" t="s">
-        <v>2</v>
+        <v>485</v>
       </c>
       <c r="B59" s="5" t="s">
-        <v>4827</v>
+        <v>4106</v>
       </c>
       <c r="C59" s="5" t="s">
         <v>4010</v>
       </c>
       <c r="D59" s="5" t="s">
-        <v>0</v>
+        <v>484</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="5" t="s">
-        <v>4582</v>
+        <v>418</v>
       </c>
       <c r="B60" s="5" t="s">
-        <v>4716</v>
+        <v>4012</v>
       </c>
       <c r="C60" s="5" t="s">
         <v>4010</v>
       </c>
       <c r="D60" s="5" t="s">
-        <v>284</v>
+        <v>417</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="5" t="s">
-        <v>4583</v>
+        <v>4136</v>
       </c>
       <c r="B61" s="5" t="s">
-        <v>4717</v>
+        <v>4137</v>
       </c>
       <c r="C61" s="5" t="s">
         <v>4010</v>
       </c>
       <c r="D61" s="5" t="s">
-        <v>288</v>
+        <v>518</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="5" t="s">
-        <v>4584</v>
+        <v>4150</v>
       </c>
       <c r="B62" s="5" t="s">
-        <v>4718</v>
+        <v>4151</v>
       </c>
       <c r="C62" s="5" t="s">
         <v>4010</v>
       </c>
       <c r="D62" s="5" t="s">
-        <v>292</v>
+        <v>534</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="5" t="s">
-        <v>4581</v>
+        <v>2957</v>
       </c>
       <c r="B63" s="5" t="s">
-        <v>4828</v>
+        <v>4135</v>
       </c>
       <c r="C63" s="5" t="s">
         <v>4010</v>
       </c>
       <c r="D63" s="5" t="s">
-        <v>4521</v>
+        <v>516</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="5" t="s">
-        <v>4585</v>
+        <v>1143</v>
       </c>
       <c r="B64" s="5" t="s">
-        <v>4829</v>
+        <v>4915</v>
       </c>
       <c r="C64" s="5" t="s">
         <v>4010</v>
-      </c>
-      <c r="D64" s="5" t="s">
-        <v>300</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="5" t="s">
-        <v>4586</v>
+        <v>4582</v>
       </c>
       <c r="B65" s="5" t="s">
-        <v>4830</v>
+        <v>4716</v>
       </c>
       <c r="C65" s="5" t="s">
         <v>4010</v>
       </c>
       <c r="D65" s="5" t="s">
-        <v>304</v>
+        <v>284</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="5" t="s">
-        <v>1201</v>
+        <v>4583</v>
       </c>
       <c r="B66" s="5" t="s">
-        <v>4831</v>
+        <v>4717</v>
       </c>
       <c r="C66" s="5" t="s">
         <v>4010</v>
       </c>
       <c r="D66" s="5" t="s">
-        <v>308</v>
+        <v>288</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="5" t="s">
-        <v>250</v>
+        <v>4584</v>
       </c>
       <c r="B67" s="5" t="s">
-        <v>250</v>
+        <v>4718</v>
       </c>
       <c r="C67" s="5" t="s">
         <v>4010</v>
       </c>
       <c r="D67" s="5" t="s">
-        <v>249</v>
+        <v>292</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="5" t="s">
-        <v>262</v>
+        <v>1142</v>
       </c>
       <c r="B68" s="5" t="s">
-        <v>4832</v>
+        <v>4407</v>
       </c>
       <c r="C68" s="5" t="s">
         <v>4010</v>
-      </c>
-      <c r="D68" s="5" t="s">
-        <v>261</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="5" t="s">
-        <v>252</v>
+        <v>1201</v>
       </c>
       <c r="B69" s="5" t="s">
-        <v>4833</v>
+        <v>4831</v>
       </c>
       <c r="C69" s="5" t="s">
         <v>4010</v>
       </c>
       <c r="D69" s="5" t="s">
-        <v>251</v>
+        <v>308</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="5" t="s">
-        <v>258</v>
+        <v>4586</v>
       </c>
       <c r="B70" s="5" t="s">
-        <v>4834</v>
+        <v>4830</v>
       </c>
       <c r="C70" s="5" t="s">
         <v>4010</v>
       </c>
       <c r="D70" s="5" t="s">
-        <v>257</v>
+        <v>304</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="5" t="s">
-        <v>260</v>
+        <v>1200</v>
       </c>
       <c r="B71" s="5" t="s">
-        <v>4835</v>
+        <v>4409</v>
       </c>
       <c r="C71" s="5" t="s">
         <v>4010</v>
-      </c>
-      <c r="D71" s="5" t="s">
-        <v>259</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="5" t="s">
-        <v>254</v>
+        <v>4581</v>
       </c>
       <c r="B72" s="5" t="s">
-        <v>4707</v>
+        <v>4828</v>
       </c>
       <c r="C72" s="5" t="s">
         <v>4010</v>
       </c>
       <c r="D72" s="5" t="s">
-        <v>253</v>
+        <v>4521</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="5" t="s">
-        <v>256</v>
+        <v>4585</v>
       </c>
       <c r="B73" s="5" t="s">
-        <v>4836</v>
+        <v>4829</v>
       </c>
       <c r="C73" s="5" t="s">
         <v>4010</v>
       </c>
       <c r="D73" s="5" t="s">
-        <v>255</v>
+        <v>300</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="5" t="s">
-        <v>4338</v>
+        <v>279</v>
       </c>
       <c r="B74" s="5" t="s">
-        <v>4837</v>
+        <v>4714</v>
       </c>
       <c r="C74" s="5" t="s">
         <v>4010</v>
       </c>
       <c r="D74" s="5" t="s">
-        <v>4523</v>
+        <v>278</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" s="5" t="s">
-        <v>4339</v>
+        <v>3459</v>
       </c>
       <c r="B75" s="5" t="s">
-        <v>4838</v>
+        <v>3776</v>
       </c>
       <c r="C75" s="5" t="s">
         <v>4010</v>
-      </c>
-      <c r="D75" s="5" t="s">
-        <v>4524</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" s="5" t="s">
-        <v>4336</v>
+        <v>4110</v>
       </c>
       <c r="B76" s="5" t="s">
-        <v>4839</v>
+        <v>4111</v>
       </c>
       <c r="C76" s="5" t="s">
         <v>4010</v>
       </c>
       <c r="D76" s="5" t="s">
-        <v>4522</v>
+        <v>3140</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" s="5" t="s">
-        <v>327</v>
+        <v>4112</v>
       </c>
       <c r="B77" s="5" t="s">
-        <v>4840</v>
+        <v>4113</v>
       </c>
       <c r="C77" s="5" t="s">
         <v>4010</v>
       </c>
       <c r="D77" s="5" t="s">
-        <v>326</v>
+        <v>3137</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" s="5" t="s">
-        <v>325</v>
+        <v>4114</v>
       </c>
       <c r="B78" s="5" t="s">
-        <v>4841</v>
+        <v>4115</v>
       </c>
       <c r="C78" s="5" t="s">
         <v>4010</v>
       </c>
       <c r="D78" s="5" t="s">
-        <v>324</v>
+        <v>3134</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" s="5" t="s">
-        <v>4588</v>
+        <v>4116</v>
       </c>
       <c r="B79" s="5" t="s">
-        <v>4842</v>
+        <v>4117</v>
       </c>
       <c r="C79" s="5" t="s">
         <v>4010</v>
       </c>
       <c r="D79" s="5" t="s">
-        <v>322</v>
+        <v>4301</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" s="5" t="s">
-        <v>28</v>
+        <v>1238</v>
       </c>
       <c r="B80" s="5" t="s">
-        <v>4634</v>
+        <v>4126</v>
       </c>
       <c r="C80" s="5" t="s">
         <v>4010</v>
       </c>
       <c r="D80" s="5" t="s">
-        <v>27</v>
+        <v>506</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" s="5" t="s">
-        <v>30</v>
+        <v>264</v>
       </c>
       <c r="B81" s="5" t="s">
-        <v>4635</v>
+        <v>4711</v>
       </c>
       <c r="C81" s="5" t="s">
         <v>4010</v>
       </c>
       <c r="D81" s="5" t="s">
-        <v>29</v>
+        <v>263</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" s="5" t="s">
-        <v>32</v>
+        <v>2739</v>
       </c>
       <c r="B82" s="5" t="s">
-        <v>4636</v>
+        <v>4246</v>
       </c>
       <c r="C82" s="5" t="s">
         <v>4010</v>
       </c>
       <c r="D82" s="5" t="s">
-        <v>31</v>
+        <v>2728</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" s="5" t="s">
-        <v>34</v>
+        <v>4278</v>
       </c>
       <c r="B83" s="5" t="s">
-        <v>4843</v>
+        <v>4279</v>
       </c>
       <c r="C83" s="5" t="s">
         <v>4010</v>
       </c>
       <c r="D83" s="5" t="s">
-        <v>33</v>
+        <v>4912</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" s="5" t="s">
-        <v>8</v>
+        <v>4276</v>
       </c>
       <c r="B84" s="5" t="s">
-        <v>4844</v>
+        <v>4277</v>
       </c>
       <c r="C84" s="5" t="s">
         <v>4010</v>
       </c>
       <c r="D84" s="5" t="s">
-        <v>7</v>
+        <v>4319</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" s="5" t="s">
-        <v>4543</v>
+        <v>3479</v>
       </c>
       <c r="B85" s="5" t="s">
-        <v>4845</v>
+        <v>3801</v>
       </c>
       <c r="C85" s="5" t="s">
         <v>4010</v>
       </c>
       <c r="D85" s="5" t="s">
-        <v>5</v>
+        <v>556</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" s="5" t="s">
-        <v>16</v>
+        <v>4348</v>
       </c>
       <c r="B86" s="5" t="s">
-        <v>4846</v>
+        <v>4410</v>
       </c>
       <c r="C86" s="5" t="s">
         <v>4010</v>
       </c>
       <c r="D86" s="5" t="s">
-        <v>15</v>
+        <v>2748</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" s="5" t="s">
-        <v>18</v>
+        <v>4153</v>
       </c>
       <c r="B87" s="5" t="s">
-        <v>4435</v>
+        <v>4154</v>
       </c>
       <c r="C87" s="5" t="s">
         <v>4010</v>
       </c>
       <c r="D87" s="5" t="s">
-        <v>17</v>
+        <v>4306</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" s="5" t="s">
-        <v>4323</v>
+        <v>4241</v>
       </c>
       <c r="B88" s="5" t="s">
-        <v>4847</v>
+        <v>4242</v>
       </c>
       <c r="C88" s="5" t="s">
         <v>4010</v>
       </c>
       <c r="D88" s="5" t="s">
-        <v>4505</v>
+        <v>2760</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" s="5" t="s">
-        <v>4544</v>
+        <v>4220</v>
       </c>
       <c r="B89" s="5" t="s">
-        <v>4544</v>
+        <v>4221</v>
       </c>
       <c r="C89" s="5" t="s">
         <v>4010</v>
       </c>
       <c r="D89" s="5" t="s">
-        <v>9</v>
+        <v>4311</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" s="5" t="s">
-        <v>4545</v>
+        <v>590</v>
       </c>
       <c r="B90" s="5" t="s">
-        <v>4545</v>
+        <v>4245</v>
       </c>
       <c r="C90" s="5" t="s">
         <v>4010</v>
       </c>
       <c r="D90" s="5" t="s">
-        <v>11</v>
+        <v>589</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" s="5" t="s">
-        <v>4546</v>
+        <v>654</v>
       </c>
       <c r="B91" s="5" t="s">
-        <v>4546</v>
+        <v>4270</v>
       </c>
       <c r="C91" s="5" t="s">
         <v>4010</v>
       </c>
       <c r="D91" s="5" t="s">
-        <v>13</v>
+        <v>653</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" s="5" t="s">
-        <v>4624</v>
+        <v>656</v>
       </c>
       <c r="B92" s="5" t="s">
-        <v>1695</v>
+        <v>4271</v>
       </c>
       <c r="C92" s="5" t="s">
         <v>4010</v>
       </c>
       <c r="D92" s="5" t="s">
-        <v>410</v>
+        <v>655</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" s="5" t="s">
-        <v>409</v>
+        <v>424</v>
       </c>
       <c r="B93" s="5" t="s">
-        <v>4848</v>
+        <v>4013</v>
       </c>
       <c r="C93" s="5" t="s">
         <v>4010</v>
       </c>
       <c r="D93" s="5" t="s">
-        <v>408</v>
+        <v>423</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" s="5" t="s">
-        <v>4625</v>
+        <v>4040</v>
       </c>
       <c r="B94" s="5" t="s">
-        <v>4849</v>
+        <v>4041</v>
       </c>
       <c r="C94" s="5" t="s">
         <v>4010</v>
       </c>
       <c r="D94" s="5" t="s">
-        <v>412</v>
+        <v>4282</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" s="5" t="s">
-        <v>4626</v>
+        <v>4038</v>
       </c>
       <c r="B95" s="5" t="s">
-        <v>4850</v>
+        <v>4039</v>
       </c>
       <c r="C95" s="5" t="s">
         <v>4010</v>
       </c>
       <c r="D95" s="5" t="s">
-        <v>414</v>
+        <v>4281</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" s="5" t="s">
-        <v>71</v>
+        <v>4349</v>
       </c>
       <c r="B96" s="5" t="s">
-        <v>4851</v>
+        <v>4364</v>
       </c>
       <c r="C96" s="5" t="s">
         <v>4010</v>
-      </c>
-      <c r="D96" s="5" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" s="5" t="s">
-        <v>141</v>
+        <v>4036</v>
       </c>
       <c r="B97" s="5" t="s">
-        <v>4852</v>
+        <v>4037</v>
       </c>
       <c r="C97" s="5" t="s">
         <v>4010</v>
       </c>
       <c r="D97" s="5" t="s">
-        <v>140</v>
+        <v>4280</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" s="5" t="s">
-        <v>139</v>
+        <v>1236</v>
       </c>
       <c r="B98" s="5" t="s">
-        <v>4853</v>
+        <v>4016</v>
       </c>
       <c r="C98" s="5" t="s">
         <v>4010</v>
       </c>
       <c r="D98" s="5" t="s">
-        <v>138</v>
+        <v>431</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99" s="5" t="s">
-        <v>73</v>
+        <v>4055</v>
       </c>
       <c r="B99" s="5" t="s">
-        <v>4854</v>
+        <v>4056</v>
       </c>
       <c r="C99" s="5" t="s">
         <v>4010</v>
       </c>
       <c r="D99" s="5" t="s">
-        <v>72</v>
+        <v>483</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" s="5" t="s">
-        <v>73</v>
+        <v>3451</v>
       </c>
       <c r="B100" s="5" t="s">
-        <v>4854</v>
+        <v>3768</v>
       </c>
       <c r="C100" s="5" t="s">
         <v>4010</v>
-      </c>
-      <c r="D100" s="5" t="s">
-        <v>4510</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" s="5" t="s">
-        <v>4554</v>
+        <v>4043</v>
       </c>
       <c r="B101" s="5" t="s">
-        <v>4855</v>
+        <v>4044</v>
       </c>
       <c r="C101" s="5" t="s">
         <v>4010</v>
       </c>
       <c r="D101" s="5" t="s">
-        <v>65</v>
+        <v>477</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102" s="5" t="s">
-        <v>4555</v>
+        <v>4047</v>
       </c>
       <c r="B102" s="5" t="s">
-        <v>4856</v>
+        <v>4048</v>
       </c>
       <c r="C102" s="5" t="s">
         <v>4010</v>
       </c>
       <c r="D102" s="5" t="s">
-        <v>68</v>
+        <v>479</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103" s="5" t="s">
-        <v>4556</v>
+        <v>4049</v>
       </c>
       <c r="B103" s="5" t="s">
-        <v>4857</v>
+        <v>4050</v>
       </c>
       <c r="C103" s="5" t="s">
         <v>4010</v>
       </c>
       <c r="D103" s="5" t="s">
-        <v>70</v>
+        <v>480</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104" s="5" t="s">
-        <v>4621</v>
+        <v>4053</v>
       </c>
       <c r="B104" s="5" t="s">
-        <v>4858</v>
+        <v>4054</v>
       </c>
       <c r="C104" s="5" t="s">
         <v>4010</v>
       </c>
       <c r="D104" s="5" t="s">
-        <v>398</v>
+        <v>482</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105" s="5" t="s">
-        <v>4623</v>
+        <v>4045</v>
       </c>
       <c r="B105" s="5" t="s">
-        <v>4859</v>
+        <v>4046</v>
       </c>
       <c r="C105" s="5" t="s">
         <v>4010</v>
       </c>
       <c r="D105" s="5" t="s">
-        <v>4542</v>
+        <v>478</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A106" s="5" t="s">
-        <v>4622</v>
+        <v>4057</v>
       </c>
       <c r="B106" s="5" t="s">
-        <v>4860</v>
+        <v>4058</v>
       </c>
       <c r="C106" s="5" t="s">
         <v>4010</v>
       </c>
       <c r="D106" s="5" t="s">
-        <v>4541</v>
+        <v>4283</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A107" s="5" t="s">
-        <v>4614</v>
+        <v>4065</v>
       </c>
       <c r="B107" s="5" t="s">
-        <v>4861</v>
+        <v>4066</v>
       </c>
       <c r="C107" s="5" t="s">
         <v>4010</v>
       </c>
       <c r="D107" s="5" t="s">
-        <v>4539</v>
+        <v>4287</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A108" s="5" t="s">
-        <v>188</v>
+        <v>4059</v>
       </c>
       <c r="B108" s="5" t="s">
-        <v>4862</v>
+        <v>4060</v>
       </c>
       <c r="C108" s="5" t="s">
         <v>4010</v>
       </c>
       <c r="D108" s="5" t="s">
-        <v>187</v>
+        <v>4284</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A109" s="5" t="s">
-        <v>190</v>
+        <v>4061</v>
       </c>
       <c r="B109" s="5" t="s">
-        <v>4863</v>
+        <v>4062</v>
       </c>
       <c r="C109" s="5" t="s">
         <v>4010</v>
       </c>
       <c r="D109" s="5" t="s">
-        <v>189</v>
+        <v>4285</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A110" s="5" t="s">
-        <v>192</v>
+        <v>4067</v>
       </c>
       <c r="B110" s="5" t="s">
-        <v>4864</v>
+        <v>4068</v>
       </c>
       <c r="C110" s="5" t="s">
         <v>4010</v>
       </c>
       <c r="D110" s="5" t="s">
-        <v>191</v>
+        <v>4288</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A111" s="5" t="s">
-        <v>4571</v>
+        <v>4075</v>
       </c>
       <c r="B111" s="5" t="s">
-        <v>4457</v>
+        <v>4076</v>
       </c>
       <c r="C111" s="5" t="s">
         <v>4010</v>
       </c>
       <c r="D111" s="5" t="s">
-        <v>179</v>
+        <v>4292</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A112" s="5" t="s">
-        <v>194</v>
+        <v>4073</v>
       </c>
       <c r="B112" s="5" t="s">
-        <v>4865</v>
+        <v>4074</v>
       </c>
       <c r="C112" s="5" t="s">
         <v>4010</v>
       </c>
       <c r="D112" s="5" t="s">
-        <v>193</v>
+        <v>4291</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A113" s="5" t="s">
-        <v>164</v>
+        <v>4069</v>
       </c>
       <c r="B113" s="5" t="s">
-        <v>4866</v>
+        <v>4070</v>
       </c>
       <c r="C113" s="5" t="s">
         <v>4010</v>
       </c>
       <c r="D113" s="5" t="s">
-        <v>163</v>
+        <v>4289</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A114" s="5" t="s">
-        <v>4564</v>
+        <v>4071</v>
       </c>
       <c r="B114" s="5" t="s">
-        <v>4867</v>
+        <v>4072</v>
       </c>
       <c r="C114" s="5" t="s">
         <v>4010</v>
       </c>
       <c r="D114" s="5" t="s">
-        <v>167</v>
+        <v>4290</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A115" s="5" t="s">
-        <v>4565</v>
+        <v>4051</v>
       </c>
       <c r="B115" s="5" t="s">
-        <v>4868</v>
+        <v>4052</v>
       </c>
       <c r="C115" s="5" t="s">
         <v>4010</v>
       </c>
       <c r="D115" s="5" t="s">
-        <v>169</v>
+        <v>481</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A116" s="5" t="s">
-        <v>4566</v>
+        <v>4063</v>
       </c>
       <c r="B116" s="5" t="s">
-        <v>4869</v>
+        <v>4064</v>
       </c>
       <c r="C116" s="5" t="s">
         <v>4010</v>
       </c>
       <c r="D116" s="5" t="s">
-        <v>4512</v>
+        <v>4286</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A117" s="5" t="s">
-        <v>4567</v>
+        <v>3449</v>
       </c>
       <c r="B117" s="5" t="s">
-        <v>4870</v>
+        <v>4369</v>
       </c>
       <c r="C117" s="5" t="s">
         <v>4010</v>
-      </c>
-      <c r="D117" s="5" t="s">
-        <v>171</v>
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A118" s="5" t="s">
-        <v>4568</v>
+        <v>677</v>
       </c>
       <c r="B118" s="5" t="s">
-        <v>4871</v>
+        <v>4365</v>
       </c>
       <c r="C118" s="5" t="s">
         <v>4010</v>
-      </c>
-      <c r="D118" s="5" t="s">
-        <v>173</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A119" s="5" t="s">
-        <v>4569</v>
+        <v>674</v>
       </c>
       <c r="B119" s="5" t="s">
-        <v>4872</v>
+        <v>4366</v>
       </c>
       <c r="C119" s="5" t="s">
         <v>4010</v>
-      </c>
-      <c r="D119" s="5" t="s">
-        <v>4513</v>
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A120" s="5" t="s">
-        <v>4572</v>
+        <v>4350</v>
       </c>
       <c r="B120" s="5" t="s">
-        <v>4873</v>
+        <v>4367</v>
       </c>
       <c r="C120" s="5" t="s">
         <v>4010</v>
-      </c>
-      <c r="D120" s="5" t="s">
-        <v>4515</v>
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A121" s="5" t="s">
-        <v>4570</v>
+        <v>4351</v>
       </c>
       <c r="B121" s="5" t="s">
-        <v>4679</v>
+        <v>4368</v>
       </c>
       <c r="C121" s="5" t="s">
         <v>4010</v>
-      </c>
-      <c r="D121" s="5" t="s">
-        <v>4514</v>
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A122" s="5" t="s">
-        <v>182</v>
+        <v>4361</v>
       </c>
       <c r="B122" s="5" t="s">
-        <v>4874</v>
+        <v>4370</v>
       </c>
       <c r="C122" s="5" t="s">
         <v>4010</v>
-      </c>
-      <c r="D122" s="5" t="s">
-        <v>181</v>
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A123" s="5" t="s">
-        <v>184</v>
+        <v>4265</v>
       </c>
       <c r="B123" s="5" t="s">
-        <v>4875</v>
+        <v>4266</v>
       </c>
       <c r="C123" s="5" t="s">
         <v>4010</v>
       </c>
       <c r="D123" s="5" t="s">
-        <v>183</v>
+        <v>4317</v>
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A124" s="5" t="s">
-        <v>186</v>
+        <v>4263</v>
       </c>
       <c r="B124" s="5" t="s">
-        <v>4876</v>
+        <v>4264</v>
       </c>
       <c r="C124" s="5" t="s">
         <v>4010</v>
       </c>
       <c r="D124" s="5" t="s">
-        <v>185</v>
+        <v>4316</v>
       </c>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A125" s="5" t="s">
-        <v>62</v>
+        <v>503</v>
       </c>
       <c r="B125" s="5" t="s">
-        <v>4877</v>
+        <v>4123</v>
       </c>
       <c r="C125" s="5" t="s">
         <v>4010</v>
       </c>
       <c r="D125" s="5" t="s">
-        <v>61</v>
+        <v>502</v>
       </c>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A126" s="5" t="s">
-        <v>4547</v>
+        <v>626</v>
       </c>
       <c r="B126" s="5" t="s">
-        <v>4878</v>
+        <v>4257</v>
       </c>
       <c r="C126" s="5" t="s">
         <v>4010</v>
       </c>
       <c r="D126" s="5" t="s">
-        <v>37</v>
+        <v>625</v>
       </c>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A127" s="5" t="s">
-        <v>210</v>
+        <v>640</v>
       </c>
       <c r="B127" s="5" t="s">
-        <v>4879</v>
+        <v>4269</v>
       </c>
       <c r="C127" s="5" t="s">
         <v>4010</v>
       </c>
       <c r="D127" s="5" t="s">
-        <v>209</v>
+        <v>639</v>
       </c>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A128" s="5" t="s">
-        <v>212</v>
+        <v>2692</v>
       </c>
       <c r="B128" s="5" t="s">
-        <v>4880</v>
+        <v>4268</v>
       </c>
       <c r="C128" s="5" t="s">
         <v>4010</v>
       </c>
       <c r="D128" s="5" t="s">
-        <v>211</v>
+        <v>2693</v>
       </c>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A129" s="5" t="s">
-        <v>214</v>
+        <v>2695</v>
       </c>
       <c r="B129" s="5" t="s">
-        <v>4881</v>
+        <v>4267</v>
       </c>
       <c r="C129" s="5" t="s">
         <v>4010</v>
       </c>
       <c r="D129" s="5" t="s">
-        <v>213</v>
+        <v>635</v>
       </c>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A130" s="5" t="s">
-        <v>200</v>
+        <v>103</v>
       </c>
       <c r="B130" s="5" t="s">
-        <v>4465</v>
+        <v>4900</v>
       </c>
       <c r="C130" s="5" t="s">
         <v>4010</v>
       </c>
       <c r="D130" s="5" t="s">
-        <v>199</v>
+        <v>4507</v>
       </c>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A131" s="5" t="s">
-        <v>216</v>
+        <v>85</v>
       </c>
       <c r="B131" s="5" t="s">
-        <v>4882</v>
+        <v>4901</v>
       </c>
       <c r="C131" s="5" t="s">
         <v>4010</v>
       </c>
       <c r="D131" s="5" t="s">
-        <v>215</v>
+        <v>84</v>
       </c>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A132" s="5" t="s">
-        <v>4329</v>
+        <v>75</v>
       </c>
       <c r="B132" s="5" t="s">
-        <v>4883</v>
+        <v>4652</v>
       </c>
       <c r="C132" s="5" t="s">
         <v>4010</v>
       </c>
       <c r="D132" s="5" t="s">
-        <v>4516</v>
+        <v>74</v>
       </c>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A133" s="5" t="s">
-        <v>198</v>
+        <v>4557</v>
       </c>
       <c r="B133" s="5" t="s">
-        <v>4469</v>
+        <v>4902</v>
       </c>
       <c r="C133" s="5" t="s">
         <v>4010</v>
       </c>
       <c r="D133" s="5" t="s">
-        <v>197</v>
+        <v>80</v>
       </c>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A134" s="5" t="s">
-        <v>202</v>
+        <v>83</v>
       </c>
       <c r="B134" s="5" t="s">
-        <v>4689</v>
+        <v>4903</v>
       </c>
       <c r="C134" s="5" t="s">
         <v>4010</v>
       </c>
       <c r="D134" s="5" t="s">
-        <v>201</v>
+        <v>82</v>
       </c>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A135" s="5" t="s">
-        <v>1182</v>
+        <v>77</v>
       </c>
       <c r="B135" s="5" t="s">
-        <v>4884</v>
+        <v>4899</v>
       </c>
       <c r="C135" s="5" t="s">
         <v>4010</v>
       </c>
       <c r="D135" s="5" t="s">
-        <v>203</v>
+        <v>76</v>
       </c>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A136" s="5" t="s">
-        <v>44</v>
+        <v>1157</v>
       </c>
       <c r="B136" s="5" t="s">
-        <v>4885</v>
+        <v>4411</v>
       </c>
       <c r="C136" s="5" t="s">
         <v>4010</v>
-      </c>
-      <c r="D136" s="5" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A137" s="5" t="s">
-        <v>48</v>
+        <v>1151</v>
       </c>
       <c r="B137" s="5" t="s">
-        <v>4886</v>
+        <v>4412</v>
       </c>
       <c r="C137" s="5" t="s">
         <v>4010</v>
-      </c>
-      <c r="D137" s="5" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A138" s="5" t="s">
-        <v>52</v>
+        <v>1234</v>
       </c>
       <c r="B138" s="5" t="s">
-        <v>4887</v>
+        <v>4413</v>
       </c>
       <c r="C138" s="5" t="s">
         <v>4010</v>
-      </c>
-      <c r="D138" s="5" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A139" s="5" t="s">
-        <v>58</v>
+        <v>1150</v>
       </c>
       <c r="B139" s="5" t="s">
-        <v>4648</v>
+        <v>4414</v>
       </c>
       <c r="C139" s="5" t="s">
         <v>4010</v>
-      </c>
-      <c r="D139" s="5" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A140" s="5" t="s">
-        <v>4550</v>
+        <v>1232</v>
       </c>
       <c r="B140" s="5" t="s">
-        <v>4550</v>
+        <v>4415</v>
       </c>
       <c r="C140" s="5" t="s">
         <v>4010</v>
-      </c>
-      <c r="D140" s="5" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A141" s="5" t="s">
-        <v>4548</v>
+        <v>555</v>
       </c>
       <c r="B141" s="5" t="s">
-        <v>4548</v>
+        <v>3800</v>
       </c>
       <c r="C141" s="5" t="s">
         <v>4010</v>
-      </c>
-      <c r="D141" s="5" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A142" s="5" t="s">
-        <v>4549</v>
+        <v>4209</v>
       </c>
       <c r="B142" s="5" t="s">
-        <v>4549</v>
+        <v>4210</v>
       </c>
       <c r="C142" s="5" t="s">
         <v>4010</v>
       </c>
       <c r="D142" s="5" t="s">
-        <v>45</v>
+        <v>554</v>
       </c>
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A143" s="5" t="s">
-        <v>4552</v>
+        <v>4211</v>
       </c>
       <c r="B143" s="5" t="s">
-        <v>4888</v>
+        <v>4212</v>
       </c>
       <c r="C143" s="5" t="s">
         <v>4010</v>
       </c>
       <c r="D143" s="5" t="s">
-        <v>53</v>
+        <v>2845</v>
       </c>
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A144" s="5" t="s">
-        <v>4551</v>
+        <v>4213</v>
       </c>
       <c r="B144" s="5" t="s">
-        <v>4889</v>
+        <v>4214</v>
       </c>
       <c r="C144" s="5" t="s">
         <v>4010</v>
       </c>
       <c r="D144" s="5" t="s">
-        <v>4506</v>
+        <v>2842</v>
       </c>
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A145" s="5" t="s">
-        <v>4553</v>
+        <v>4215</v>
       </c>
       <c r="B145" s="5" t="s">
-        <v>4890</v>
+        <v>4216</v>
       </c>
       <c r="C145" s="5" t="s">
         <v>4010</v>
       </c>
       <c r="D145" s="5" t="s">
-        <v>55</v>
+        <v>2839</v>
       </c>
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A146" s="5" t="s">
-        <v>315</v>
+        <v>1185</v>
       </c>
       <c r="B146" s="5" t="s">
-        <v>4891</v>
+        <v>3798</v>
       </c>
       <c r="C146" s="5" t="s">
         <v>4010</v>
-      </c>
-      <c r="D146" s="5" t="s">
-        <v>314</v>
       </c>
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A147" s="5" t="s">
-        <v>800</v>
+        <v>4156</v>
       </c>
       <c r="B147" s="5" t="s">
-        <v>4892</v>
+        <v>4157</v>
       </c>
       <c r="C147" s="5" t="s">
         <v>4010</v>
       </c>
       <c r="D147" s="5" t="s">
-        <v>318</v>
+        <v>542</v>
       </c>
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A148" s="5" t="s">
-        <v>1203</v>
+        <v>4174</v>
       </c>
       <c r="B148" s="5" t="s">
-        <v>4893</v>
+        <v>4175</v>
       </c>
       <c r="C148" s="5" t="s">
         <v>4010</v>
       </c>
       <c r="D148" s="5" t="s">
-        <v>319</v>
+        <v>2893</v>
       </c>
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A149" s="5" t="s">
-        <v>317</v>
+        <v>4176</v>
       </c>
       <c r="B149" s="5" t="s">
-        <v>4894</v>
+        <v>4177</v>
       </c>
       <c r="C149" s="5" t="s">
         <v>4010</v>
       </c>
       <c r="D149" s="5" t="s">
-        <v>316</v>
+        <v>2890</v>
       </c>
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A150" s="5" t="s">
-        <v>111</v>
+        <v>4178</v>
       </c>
       <c r="B150" s="5" t="s">
-        <v>4895</v>
+        <v>4179</v>
       </c>
       <c r="C150" s="5" t="s">
         <v>4010</v>
       </c>
       <c r="D150" s="5" t="s">
-        <v>110</v>
+        <v>2887</v>
       </c>
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A151" s="5" t="s">
-        <v>109</v>
+        <v>4180</v>
       </c>
       <c r="B151" s="5" t="s">
-        <v>4896</v>
+        <v>4181</v>
       </c>
       <c r="C151" s="5" t="s">
         <v>4010</v>
       </c>
       <c r="D151" s="5" t="s">
-        <v>108</v>
+        <v>2884</v>
       </c>
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A152" s="5" t="s">
-        <v>107</v>
+        <v>4182</v>
       </c>
       <c r="B152" s="5" t="s">
-        <v>4897</v>
+        <v>4183</v>
       </c>
       <c r="C152" s="5" t="s">
         <v>4010</v>
       </c>
       <c r="D152" s="5" t="s">
-        <v>106</v>
+        <v>2881</v>
       </c>
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A153" s="5" t="s">
-        <v>95</v>
+        <v>4184</v>
       </c>
       <c r="B153" s="5" t="s">
-        <v>4898</v>
+        <v>4185</v>
       </c>
       <c r="C153" s="5" t="s">
         <v>4010</v>
       </c>
       <c r="D153" s="5" t="s">
-        <v>4508</v>
+        <v>2878</v>
       </c>
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A154" s="5" t="s">
-        <v>351</v>
+        <v>4186</v>
       </c>
       <c r="B154" s="5" t="s">
-        <v>4741</v>
+        <v>4187</v>
       </c>
       <c r="C154" s="5" t="s">
         <v>4010</v>
       </c>
       <c r="D154" s="5" t="s">
-        <v>350</v>
+        <v>2875</v>
       </c>
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A155" s="5" t="s">
-        <v>353</v>
+        <v>4188</v>
       </c>
       <c r="B155" s="5" t="s">
-        <v>4742</v>
+        <v>4189</v>
       </c>
       <c r="C155" s="5" t="s">
         <v>4010</v>
       </c>
       <c r="D155" s="5" t="s">
-        <v>352</v>
+        <v>2872</v>
       </c>
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A156" s="5" t="s">
-        <v>4598</v>
+        <v>4190</v>
       </c>
       <c r="B156" s="5" t="s">
-        <v>4743</v>
+        <v>4191</v>
       </c>
       <c r="C156" s="5" t="s">
         <v>4010</v>
       </c>
       <c r="D156" s="5" t="s">
-        <v>4531</v>
+        <v>2869</v>
       </c>
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A157" s="5" t="s">
-        <v>77</v>
+        <v>4192</v>
       </c>
       <c r="B157" s="5" t="s">
-        <v>4899</v>
+        <v>4193</v>
       </c>
       <c r="C157" s="5" t="s">
         <v>4010</v>
       </c>
       <c r="D157" s="5" t="s">
-        <v>76</v>
+        <v>2866</v>
       </c>
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A158" s="5" t="s">
-        <v>103</v>
+        <v>4194</v>
       </c>
       <c r="B158" s="5" t="s">
-        <v>4900</v>
+        <v>4195</v>
       </c>
       <c r="C158" s="5" t="s">
         <v>4010</v>
       </c>
       <c r="D158" s="5" t="s">
-        <v>4507</v>
+        <v>2863</v>
       </c>
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A159" s="5" t="s">
-        <v>85</v>
+        <v>4196</v>
       </c>
       <c r="B159" s="5" t="s">
-        <v>4901</v>
+        <v>4197</v>
       </c>
       <c r="C159" s="5" t="s">
         <v>4010</v>
       </c>
       <c r="D159" s="5" t="s">
-        <v>84</v>
+        <v>2860</v>
       </c>
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A160" s="5" t="s">
-        <v>4557</v>
+        <v>4198</v>
       </c>
       <c r="B160" s="5" t="s">
-        <v>4902</v>
+        <v>4199</v>
       </c>
       <c r="C160" s="5" t="s">
         <v>4010</v>
       </c>
       <c r="D160" s="5" t="s">
-        <v>80</v>
+        <v>2857</v>
       </c>
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A161" s="5" t="s">
-        <v>83</v>
+        <v>4200</v>
       </c>
       <c r="B161" s="5" t="s">
-        <v>4903</v>
+        <v>4201</v>
       </c>
       <c r="C161" s="5" t="s">
         <v>4010</v>
       </c>
       <c r="D161" s="5" t="s">
-        <v>82</v>
+        <v>2854</v>
       </c>
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A162" s="5" t="s">
-        <v>4613</v>
+        <v>4202</v>
       </c>
       <c r="B162" s="5" t="s">
-        <v>4904</v>
+        <v>4203</v>
       </c>
       <c r="C162" s="5" t="s">
         <v>4010</v>
       </c>
       <c r="D162" s="5" t="s">
-        <v>4537</v>
+        <v>2851</v>
       </c>
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A163" s="5" t="s">
-        <v>4619</v>
+        <v>4204</v>
       </c>
       <c r="B163" s="5" t="s">
-        <v>4905</v>
+        <v>4205</v>
       </c>
       <c r="C163" s="5" t="s">
         <v>4010</v>
       </c>
       <c r="D163" s="5" t="s">
-        <v>390</v>
+        <v>4307</v>
       </c>
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A164" s="5" t="s">
-        <v>4612</v>
+        <v>4164</v>
       </c>
       <c r="B164" s="5" t="s">
-        <v>4906</v>
+        <v>4165</v>
       </c>
       <c r="C164" s="5" t="s">
         <v>4010</v>
       </c>
       <c r="D164" s="5" t="s">
-        <v>376</v>
+        <v>550</v>
       </c>
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A165" s="5" t="s">
-        <v>4617</v>
+        <v>4166</v>
       </c>
       <c r="B165" s="5" t="s">
-        <v>4907</v>
+        <v>4167</v>
       </c>
       <c r="C165" s="5" t="s">
         <v>4010</v>
       </c>
       <c r="D165" s="5" t="s">
-        <v>382</v>
+        <v>2905</v>
       </c>
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A166" s="5" t="s">
-        <v>4611</v>
+        <v>4168</v>
       </c>
       <c r="B166" s="5" t="s">
-        <v>4908</v>
+        <v>4169</v>
       </c>
       <c r="C166" s="5" t="s">
         <v>4010</v>
       </c>
       <c r="D166" s="5" t="s">
-        <v>370</v>
+        <v>2902</v>
       </c>
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A167" s="5" t="s">
-        <v>4610</v>
+        <v>4170</v>
       </c>
       <c r="B167" s="5" t="s">
-        <v>4909</v>
+        <v>4171</v>
       </c>
       <c r="C167" s="5" t="s">
         <v>4010</v>
       </c>
       <c r="D167" s="5" t="s">
-        <v>4536</v>
+        <v>2899</v>
       </c>
     </row>
     <row r="168" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A168" s="5" t="s">
-        <v>4609</v>
+        <v>4172</v>
       </c>
       <c r="B168" s="5" t="s">
-        <v>4910</v>
+        <v>4173</v>
       </c>
       <c r="C168" s="5" t="s">
         <v>4010</v>
       </c>
       <c r="D168" s="5" t="s">
-        <v>4535</v>
+        <v>2896</v>
       </c>
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A169" s="5" t="s">
-        <v>4616</v>
+        <v>4158</v>
       </c>
       <c r="B169" s="5" t="s">
-        <v>4911</v>
+        <v>4159</v>
       </c>
       <c r="C169" s="5" t="s">
         <v>4010</v>
       </c>
       <c r="D169" s="5" t="s">
-        <v>4540</v>
+        <v>544</v>
       </c>
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A170" s="5" t="s">
-        <v>1161</v>
+        <v>4160</v>
       </c>
       <c r="B170" s="5" t="s">
-        <v>4388</v>
+        <v>4161</v>
       </c>
       <c r="C170" s="5" t="s">
         <v>4010</v>
+      </c>
+      <c r="D170" s="5" t="s">
+        <v>546</v>
       </c>
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A171" s="5" t="s">
-        <v>127</v>
+        <v>4162</v>
       </c>
       <c r="B171" s="5" t="s">
-        <v>4665</v>
+        <v>4163</v>
       </c>
       <c r="C171" s="5" t="s">
         <v>4010</v>
       </c>
       <c r="D171" s="5" t="s">
-        <v>126</v>
+        <v>548</v>
       </c>
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A172" s="5" t="s">
-        <v>4560</v>
+        <v>541</v>
       </c>
       <c r="B172" s="5" t="s">
-        <v>4669</v>
+        <v>2916</v>
       </c>
       <c r="C172" s="5" t="s">
         <v>4010</v>
       </c>
       <c r="D172" s="5" t="s">
-        <v>143</v>
+        <v>540</v>
       </c>
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A173" s="5" t="s">
-        <v>149</v>
+        <v>4339</v>
       </c>
       <c r="B173" s="5" t="s">
-        <v>4390</v>
+        <v>4838</v>
       </c>
       <c r="C173" s="5" t="s">
         <v>4010</v>
+      </c>
+      <c r="D173" s="5" t="s">
+        <v>4524</v>
       </c>
     </row>
     <row r="174" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A174" s="5" t="s">
-        <v>499</v>
+        <v>4338</v>
       </c>
       <c r="B174" s="5" t="s">
-        <v>4120</v>
+        <v>4837</v>
       </c>
       <c r="C174" s="5" t="s">
         <v>4010</v>
       </c>
       <c r="D174" s="5" t="s">
-        <v>498</v>
+        <v>4523</v>
       </c>
     </row>
     <row r="175" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A175" s="5" t="s">
-        <v>1160</v>
+        <v>4336</v>
       </c>
       <c r="B175" s="5" t="s">
-        <v>4393</v>
+        <v>4839</v>
       </c>
       <c r="C175" s="5" t="s">
         <v>4010</v>
+      </c>
+      <c r="D175" s="5" t="s">
+        <v>4522</v>
       </c>
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A176" s="5" t="s">
-        <v>123</v>
+        <v>1205</v>
       </c>
       <c r="B176" s="5" t="s">
-        <v>4394</v>
+        <v>4419</v>
       </c>
       <c r="C176" s="5" t="s">
         <v>4010</v>
@@ -46146,263 +46098,281 @@
     </row>
     <row r="177" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A177" s="5" t="s">
-        <v>1159</v>
+        <v>4587</v>
       </c>
       <c r="B177" s="5" t="s">
-        <v>4396</v>
+        <v>4724</v>
       </c>
       <c r="C177" s="5" t="s">
         <v>4010</v>
+      </c>
+      <c r="D177" s="5" t="s">
+        <v>320</v>
       </c>
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A178" s="5" t="s">
-        <v>113</v>
+        <v>4588</v>
       </c>
       <c r="B178" s="5" t="s">
-        <v>4660</v>
+        <v>4842</v>
       </c>
       <c r="C178" s="5" t="s">
         <v>4010</v>
       </c>
       <c r="D178" s="5" t="s">
-        <v>112</v>
+        <v>322</v>
       </c>
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A179" s="5" t="s">
-        <v>331</v>
+        <v>1204</v>
       </c>
       <c r="B179" s="5" t="s">
-        <v>4727</v>
+        <v>4421</v>
       </c>
       <c r="C179" s="5" t="s">
         <v>4010</v>
-      </c>
-      <c r="D179" s="5" t="s">
-        <v>330</v>
       </c>
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A180" s="5" t="s">
-        <v>335</v>
+        <v>325</v>
       </c>
       <c r="B180" s="5" t="s">
-        <v>4397</v>
+        <v>4841</v>
       </c>
       <c r="C180" s="5" t="s">
         <v>4010</v>
+      </c>
+      <c r="D180" s="5" t="s">
+        <v>324</v>
       </c>
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A181" s="5" t="s">
-        <v>1208</v>
+        <v>327</v>
       </c>
       <c r="B181" s="5" t="s">
-        <v>4398</v>
+        <v>4840</v>
       </c>
       <c r="C181" s="5" t="s">
         <v>4010</v>
+      </c>
+      <c r="D181" s="5" t="s">
+        <v>326</v>
       </c>
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A182" s="5" t="s">
-        <v>3211</v>
+        <v>4358</v>
       </c>
       <c r="B182" s="5" t="s">
-        <v>4035</v>
+        <v>4358</v>
       </c>
       <c r="C182" s="5" t="s">
         <v>4010</v>
-      </c>
-      <c r="D182" s="5" t="s">
-        <v>1090</v>
       </c>
     </row>
     <row r="183" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A183" s="5" t="s">
-        <v>438</v>
+        <v>4208</v>
       </c>
       <c r="B183" s="5" t="s">
-        <v>4018</v>
+        <v>4208</v>
       </c>
       <c r="C183" s="5" t="s">
         <v>4010</v>
       </c>
       <c r="D183" s="5" t="s">
-        <v>437</v>
+        <v>4309</v>
       </c>
     </row>
     <row r="184" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A184" s="5" t="s">
-        <v>4138</v>
+        <v>4092</v>
       </c>
       <c r="B184" s="5" t="s">
-        <v>4139</v>
+        <v>4093</v>
       </c>
       <c r="C184" s="5" t="s">
         <v>4010</v>
       </c>
       <c r="D184" s="5" t="s">
-        <v>520</v>
+        <v>4294</v>
       </c>
     </row>
     <row r="185" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A185" s="5" t="s">
-        <v>4140</v>
+        <v>1228</v>
       </c>
       <c r="B185" s="5" t="s">
-        <v>4141</v>
+        <v>4371</v>
       </c>
       <c r="C185" s="5" t="s">
         <v>4010</v>
-      </c>
-      <c r="D185" s="5" t="s">
-        <v>522</v>
       </c>
     </row>
     <row r="186" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A186" s="5" t="s">
-        <v>4142</v>
+        <v>4239</v>
       </c>
       <c r="B186" s="5" t="s">
-        <v>4143</v>
+        <v>4240</v>
       </c>
       <c r="C186" s="5" t="s">
         <v>4010</v>
       </c>
       <c r="D186" s="5" t="s">
-        <v>524</v>
+        <v>582</v>
       </c>
     </row>
     <row r="187" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A187" s="5" t="s">
-        <v>4144</v>
+        <v>2</v>
       </c>
       <c r="B187" s="5" t="s">
-        <v>4145</v>
+        <v>4827</v>
       </c>
       <c r="C187" s="5" t="s">
         <v>4010</v>
       </c>
       <c r="D187" s="5" t="s">
-        <v>4304</v>
+        <v>0</v>
       </c>
     </row>
     <row r="188" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A188" s="5" t="s">
-        <v>4146</v>
+        <v>4247</v>
       </c>
       <c r="B188" s="5" t="s">
-        <v>4147</v>
+        <v>4248</v>
       </c>
       <c r="C188" s="5" t="s">
         <v>4010</v>
       </c>
       <c r="D188" s="5" t="s">
-        <v>526</v>
+        <v>591</v>
       </c>
     </row>
     <row r="189" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A189" s="5" t="s">
-        <v>1173</v>
+        <v>1245</v>
       </c>
       <c r="B189" s="5" t="s">
-        <v>3792</v>
+        <v>4249</v>
       </c>
       <c r="C189" s="5" t="s">
         <v>4010</v>
+      </c>
+      <c r="D189" s="5" t="s">
+        <v>593</v>
       </c>
     </row>
     <row r="190" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A190" s="5" t="s">
-        <v>1199</v>
+        <v>1243</v>
       </c>
       <c r="B190" s="5" t="s">
-        <v>3793</v>
+        <v>4253</v>
       </c>
       <c r="C190" s="5" t="s">
         <v>4010</v>
+      </c>
+      <c r="D190" s="5" t="s">
+        <v>603</v>
       </c>
     </row>
     <row r="191" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A191" s="5" t="s">
-        <v>4148</v>
+        <v>1241</v>
       </c>
       <c r="B191" s="5" t="s">
-        <v>4149</v>
+        <v>4252</v>
       </c>
       <c r="C191" s="5" t="s">
         <v>4010</v>
       </c>
       <c r="D191" s="5" t="s">
-        <v>4305</v>
+        <v>599</v>
       </c>
     </row>
     <row r="192" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A192" s="5" t="s">
-        <v>4356</v>
+        <v>4250</v>
       </c>
       <c r="B192" s="5" t="s">
-        <v>4399</v>
+        <v>4251</v>
       </c>
       <c r="C192" s="5" t="s">
         <v>4010</v>
+      </c>
+      <c r="D192" s="5" t="s">
+        <v>4315</v>
       </c>
     </row>
     <row r="193" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A193" s="5" t="s">
-        <v>275</v>
+        <v>1186</v>
       </c>
       <c r="B193" s="5" t="s">
-        <v>4402</v>
+        <v>4256</v>
       </c>
       <c r="C193" s="5" t="s">
         <v>4010</v>
+      </c>
+      <c r="D193" s="5" t="s">
+        <v>607</v>
       </c>
     </row>
     <row r="194" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A194" s="5" t="s">
-        <v>1139</v>
+        <v>4254</v>
       </c>
       <c r="B194" s="5" t="s">
-        <v>4403</v>
+        <v>4255</v>
       </c>
       <c r="C194" s="5" t="s">
         <v>4010</v>
+      </c>
+      <c r="D194" s="5" t="s">
+        <v>605</v>
       </c>
     </row>
     <row r="195" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A195" s="5" t="s">
-        <v>1140</v>
+        <v>3152</v>
       </c>
       <c r="B195" s="5" t="s">
-        <v>4404</v>
+        <v>4104</v>
       </c>
       <c r="C195" s="5" t="s">
         <v>4010</v>
+      </c>
+      <c r="D195" s="5" t="s">
+        <v>3153</v>
       </c>
     </row>
     <row r="196" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A196" s="5" t="s">
-        <v>563</v>
+        <v>2768</v>
       </c>
       <c r="B196" s="5" t="s">
-        <v>4222</v>
+        <v>4235</v>
       </c>
       <c r="C196" s="5" t="s">
         <v>4010</v>
       </c>
       <c r="D196" s="5" t="s">
-        <v>562</v>
+        <v>570</v>
       </c>
     </row>
     <row r="197" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A197" s="5" t="s">
-        <v>4360</v>
+        <v>1178</v>
       </c>
       <c r="B197" s="5" t="s">
-        <v>4405</v>
+        <v>1178</v>
       </c>
       <c r="C197" s="5" t="s">
         <v>4010</v>
@@ -46410,155 +46380,161 @@
     </row>
     <row r="198" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A198" s="5" t="s">
-        <v>1172</v>
+        <v>4236</v>
       </c>
       <c r="B198" s="5" t="s">
-        <v>4363</v>
+        <v>4236</v>
       </c>
       <c r="C198" s="5" t="s">
         <v>4010</v>
+      </c>
+      <c r="D198" s="5" t="s">
+        <v>572</v>
       </c>
     </row>
     <row r="199" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A199" s="5" t="s">
-        <v>4133</v>
+        <v>4237</v>
       </c>
       <c r="B199" s="5" t="s">
-        <v>4134</v>
+        <v>4238</v>
       </c>
       <c r="C199" s="5" t="s">
         <v>4010</v>
       </c>
       <c r="D199" s="5" t="s">
-        <v>514</v>
+        <v>574</v>
       </c>
     </row>
     <row r="200" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A200" s="5" t="s">
-        <v>3276</v>
+        <v>1210</v>
       </c>
       <c r="B200" s="5" t="s">
-        <v>3275</v>
+        <v>4372</v>
       </c>
       <c r="C200" s="5" t="s">
         <v>4010</v>
-      </c>
-      <c r="D200" s="5" t="s">
-        <v>435</v>
       </c>
     </row>
     <row r="201" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A201" s="5" t="s">
-        <v>2745</v>
+        <v>4223</v>
       </c>
       <c r="B201" s="5" t="s">
-        <v>4243</v>
+        <v>4224</v>
       </c>
       <c r="C201" s="5" t="s">
         <v>4010</v>
       </c>
       <c r="D201" s="5" t="s">
-        <v>587</v>
+        <v>564</v>
       </c>
     </row>
     <row r="202" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A202" s="5" t="s">
-        <v>485</v>
+        <v>4225</v>
       </c>
       <c r="B202" s="5" t="s">
-        <v>4106</v>
+        <v>4226</v>
       </c>
       <c r="C202" s="5" t="s">
         <v>4010</v>
       </c>
       <c r="D202" s="5" t="s">
-        <v>484</v>
+        <v>566</v>
       </c>
     </row>
     <row r="203" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A203" s="5" t="s">
-        <v>418</v>
+        <v>4227</v>
       </c>
       <c r="B203" s="5" t="s">
-        <v>4012</v>
+        <v>4228</v>
       </c>
       <c r="C203" s="5" t="s">
         <v>4010</v>
       </c>
       <c r="D203" s="5" t="s">
-        <v>417</v>
+        <v>568</v>
       </c>
     </row>
     <row r="204" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A204" s="5" t="s">
-        <v>4136</v>
+        <v>4229</v>
       </c>
       <c r="B204" s="5" t="s">
-        <v>4137</v>
+        <v>4230</v>
       </c>
       <c r="C204" s="5" t="s">
         <v>4010</v>
       </c>
       <c r="D204" s="5" t="s">
-        <v>518</v>
+        <v>4312</v>
       </c>
     </row>
     <row r="205" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A205" s="5" t="s">
-        <v>4150</v>
+        <v>4231</v>
       </c>
       <c r="B205" s="5" t="s">
-        <v>4151</v>
+        <v>4232</v>
       </c>
       <c r="C205" s="5" t="s">
         <v>4010</v>
       </c>
       <c r="D205" s="5" t="s">
-        <v>534</v>
+        <v>4313</v>
       </c>
     </row>
     <row r="206" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A206" s="5" t="s">
-        <v>2957</v>
+        <v>4233</v>
       </c>
       <c r="B206" s="5" t="s">
-        <v>4135</v>
+        <v>4234</v>
       </c>
       <c r="C206" s="5" t="s">
         <v>4010</v>
       </c>
       <c r="D206" s="5" t="s">
-        <v>516</v>
+        <v>4314</v>
       </c>
     </row>
     <row r="207" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A207" s="5" t="s">
-        <v>1143</v>
+        <v>561</v>
       </c>
       <c r="B207" s="5" t="s">
-        <v>4406</v>
+        <v>561</v>
       </c>
       <c r="C207" s="5" t="s">
         <v>4010</v>
+      </c>
+      <c r="D207" s="5" t="s">
+        <v>560</v>
       </c>
     </row>
     <row r="208" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A208" s="5" t="s">
-        <v>1142</v>
+        <v>250</v>
       </c>
       <c r="B208" s="5" t="s">
-        <v>4407</v>
+        <v>250</v>
       </c>
       <c r="C208" s="5" t="s">
         <v>4010</v>
+      </c>
+      <c r="D208" s="5" t="s">
+        <v>249</v>
       </c>
     </row>
     <row r="209" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A209" s="5" t="s">
-        <v>1200</v>
+        <v>1138</v>
       </c>
       <c r="B209" s="5" t="s">
-        <v>4409</v>
+        <v>4422</v>
       </c>
       <c r="C209" s="5" t="s">
         <v>4010</v>
@@ -46566,803 +46542,812 @@
     </row>
     <row r="210" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A210" s="5" t="s">
-        <v>279</v>
+        <v>260</v>
       </c>
       <c r="B210" s="5" t="s">
-        <v>4714</v>
+        <v>4835</v>
       </c>
       <c r="C210" s="5" t="s">
         <v>4010</v>
       </c>
       <c r="D210" s="5" t="s">
-        <v>278</v>
+        <v>259</v>
       </c>
     </row>
     <row r="211" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A211" s="5" t="s">
-        <v>3459</v>
+        <v>258</v>
       </c>
       <c r="B211" s="5" t="s">
-        <v>3776</v>
+        <v>4834</v>
       </c>
       <c r="C211" s="5" t="s">
         <v>4010</v>
+      </c>
+      <c r="D211" s="5" t="s">
+        <v>257</v>
       </c>
     </row>
     <row r="212" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A212" s="5" t="s">
-        <v>4110</v>
+        <v>252</v>
       </c>
       <c r="B212" s="5" t="s">
-        <v>4111</v>
+        <v>4833</v>
       </c>
       <c r="C212" s="5" t="s">
         <v>4010</v>
       </c>
       <c r="D212" s="5" t="s">
-        <v>3140</v>
+        <v>251</v>
       </c>
     </row>
     <row r="213" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A213" s="5" t="s">
-        <v>4112</v>
+        <v>1137</v>
       </c>
       <c r="B213" s="5" t="s">
-        <v>4113</v>
+        <v>4424</v>
       </c>
       <c r="C213" s="5" t="s">
         <v>4010</v>
-      </c>
-      <c r="D213" s="5" t="s">
-        <v>3137</v>
       </c>
     </row>
     <row r="214" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A214" s="5" t="s">
-        <v>4114</v>
+        <v>256</v>
       </c>
       <c r="B214" s="5" t="s">
-        <v>4115</v>
+        <v>4836</v>
       </c>
       <c r="C214" s="5" t="s">
         <v>4010</v>
       </c>
       <c r="D214" s="5" t="s">
-        <v>3134</v>
+        <v>255</v>
       </c>
     </row>
     <row r="215" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A215" s="5" t="s">
-        <v>4116</v>
+        <v>254</v>
       </c>
       <c r="B215" s="5" t="s">
-        <v>4117</v>
+        <v>4707</v>
       </c>
       <c r="C215" s="5" t="s">
         <v>4010</v>
       </c>
       <c r="D215" s="5" t="s">
-        <v>4301</v>
+        <v>253</v>
       </c>
     </row>
     <row r="216" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A216" s="5" t="s">
-        <v>1238</v>
+        <v>262</v>
       </c>
       <c r="B216" s="5" t="s">
-        <v>4126</v>
+        <v>4832</v>
       </c>
       <c r="C216" s="5" t="s">
         <v>4010</v>
       </c>
       <c r="D216" s="5" t="s">
-        <v>506</v>
+        <v>261</v>
       </c>
     </row>
     <row r="217" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A217" s="5" t="s">
-        <v>264</v>
+        <v>248</v>
       </c>
       <c r="B217" s="5" t="s">
-        <v>4711</v>
+        <v>4706</v>
       </c>
       <c r="C217" s="5" t="s">
         <v>4010</v>
       </c>
       <c r="D217" s="5" t="s">
-        <v>263</v>
+        <v>247</v>
       </c>
     </row>
     <row r="218" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A218" s="5" t="s">
-        <v>2739</v>
+        <v>422</v>
       </c>
       <c r="B218" s="5" t="s">
-        <v>4246</v>
+        <v>422</v>
       </c>
       <c r="C218" s="5" t="s">
         <v>4010</v>
       </c>
       <c r="D218" s="5" t="s">
-        <v>2728</v>
+        <v>421</v>
       </c>
     </row>
     <row r="219" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A219" s="5" t="s">
-        <v>4278</v>
+        <v>426</v>
       </c>
       <c r="B219" s="5" t="s">
-        <v>4279</v>
+        <v>3303</v>
       </c>
       <c r="C219" s="5" t="s">
         <v>4010</v>
       </c>
       <c r="D219" s="5" t="s">
-        <v>4912</v>
+        <v>425</v>
       </c>
     </row>
     <row r="220" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A220" s="5" t="s">
-        <v>4276</v>
+        <v>401</v>
       </c>
       <c r="B220" s="5" t="s">
-        <v>4277</v>
+        <v>4797</v>
       </c>
       <c r="C220" s="5" t="s">
         <v>4010</v>
       </c>
       <c r="D220" s="5" t="s">
-        <v>4319</v>
+        <v>400</v>
       </c>
     </row>
     <row r="221" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A221" s="5" t="s">
-        <v>3479</v>
+        <v>403</v>
       </c>
       <c r="B221" s="5" t="s">
-        <v>3801</v>
+        <v>4798</v>
       </c>
       <c r="C221" s="5" t="s">
         <v>4010</v>
       </c>
       <c r="D221" s="5" t="s">
-        <v>556</v>
+        <v>402</v>
       </c>
     </row>
     <row r="222" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A222" s="5" t="s">
-        <v>4348</v>
+        <v>4355</v>
       </c>
       <c r="B222" s="5" t="s">
-        <v>4410</v>
+        <v>4119</v>
       </c>
       <c r="C222" s="5" t="s">
         <v>4010</v>
-      </c>
-      <c r="D222" s="5" t="s">
-        <v>2748</v>
       </c>
     </row>
     <row r="223" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A223" s="5" t="s">
-        <v>4153</v>
+        <v>4118</v>
       </c>
       <c r="B223" s="5" t="s">
-        <v>4154</v>
+        <v>4119</v>
       </c>
       <c r="C223" s="5" t="s">
         <v>4010</v>
       </c>
       <c r="D223" s="5" t="s">
-        <v>4306</v>
+        <v>4302</v>
       </c>
     </row>
     <row r="224" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A224" s="5" t="s">
-        <v>4241</v>
+        <v>3445</v>
       </c>
       <c r="B224" s="5" t="s">
-        <v>4242</v>
+        <v>4373</v>
       </c>
       <c r="C224" s="5" t="s">
         <v>4010</v>
-      </c>
-      <c r="D224" s="5" t="s">
-        <v>2760</v>
       </c>
     </row>
     <row r="225" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A225" s="5" t="s">
-        <v>4220</v>
+        <v>4033</v>
       </c>
       <c r="B225" s="5" t="s">
-        <v>4221</v>
+        <v>4034</v>
       </c>
       <c r="C225" s="5" t="s">
         <v>4010</v>
       </c>
       <c r="D225" s="5" t="s">
-        <v>4311</v>
+        <v>3232</v>
       </c>
     </row>
     <row r="226" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A226" s="5" t="s">
-        <v>590</v>
+        <v>4024</v>
       </c>
       <c r="B226" s="5" t="s">
-        <v>4245</v>
+        <v>4025</v>
       </c>
       <c r="C226" s="5" t="s">
         <v>4010</v>
       </c>
       <c r="D226" s="5" t="s">
-        <v>589</v>
+        <v>463</v>
       </c>
     </row>
     <row r="227" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A227" s="5" t="s">
-        <v>654</v>
+        <v>474</v>
       </c>
       <c r="B227" s="5" t="s">
-        <v>4270</v>
+        <v>4031</v>
       </c>
       <c r="C227" s="5" t="s">
         <v>4010</v>
       </c>
       <c r="D227" s="5" t="s">
-        <v>653</v>
+        <v>473</v>
       </c>
     </row>
     <row r="228" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A228" s="5" t="s">
-        <v>656</v>
+        <v>468</v>
       </c>
       <c r="B228" s="5" t="s">
-        <v>4271</v>
+        <v>4027</v>
       </c>
       <c r="C228" s="5" t="s">
         <v>4010</v>
       </c>
       <c r="D228" s="5" t="s">
-        <v>655</v>
+        <v>467</v>
       </c>
     </row>
     <row r="229" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A229" s="5" t="s">
-        <v>424</v>
+        <v>470</v>
       </c>
       <c r="B229" s="5" t="s">
-        <v>4013</v>
+        <v>4028</v>
       </c>
       <c r="C229" s="5" t="s">
         <v>4010</v>
       </c>
       <c r="D229" s="5" t="s">
-        <v>423</v>
+        <v>469</v>
       </c>
     </row>
     <row r="230" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A230" s="5" t="s">
-        <v>4040</v>
+        <v>1171</v>
       </c>
       <c r="B230" s="5" t="s">
-        <v>4041</v>
+        <v>4032</v>
       </c>
       <c r="C230" s="5" t="s">
         <v>4010</v>
-      </c>
-      <c r="D230" s="5" t="s">
-        <v>4282</v>
       </c>
     </row>
     <row r="231" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A231" s="5" t="s">
-        <v>4038</v>
+        <v>476</v>
       </c>
       <c r="B231" s="5" t="s">
-        <v>4039</v>
+        <v>4032</v>
       </c>
       <c r="C231" s="5" t="s">
         <v>4010</v>
       </c>
       <c r="D231" s="5" t="s">
-        <v>4281</v>
+        <v>475</v>
       </c>
     </row>
     <row r="232" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A232" s="5" t="s">
-        <v>4349</v>
+        <v>466</v>
       </c>
       <c r="B232" s="5" t="s">
-        <v>4364</v>
+        <v>4026</v>
       </c>
       <c r="C232" s="5" t="s">
         <v>4010</v>
+      </c>
+      <c r="D232" s="5" t="s">
+        <v>465</v>
       </c>
     </row>
     <row r="233" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A233" s="5" t="s">
-        <v>4036</v>
+        <v>472</v>
       </c>
       <c r="B233" s="5" t="s">
-        <v>4037</v>
+        <v>4374</v>
       </c>
       <c r="C233" s="5" t="s">
         <v>4010</v>
-      </c>
-      <c r="D233" s="5" t="s">
-        <v>4280</v>
       </c>
     </row>
     <row r="234" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A234" s="5" t="s">
-        <v>1236</v>
+        <v>4029</v>
       </c>
       <c r="B234" s="5" t="s">
-        <v>4016</v>
+        <v>4030</v>
       </c>
       <c r="C234" s="5" t="s">
         <v>4010</v>
       </c>
       <c r="D234" s="5" t="s">
-        <v>431</v>
+        <v>471</v>
       </c>
     </row>
     <row r="235" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A235" s="5" t="s">
-        <v>4055</v>
+        <v>3273</v>
       </c>
       <c r="B235" s="5" t="s">
-        <v>4056</v>
+        <v>4019</v>
       </c>
       <c r="C235" s="5" t="s">
         <v>4010</v>
       </c>
       <c r="D235" s="5" t="s">
-        <v>483</v>
+        <v>439</v>
       </c>
     </row>
     <row r="236" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A236" s="5" t="s">
-        <v>3451</v>
+        <v>3458</v>
       </c>
       <c r="B236" s="5" t="s">
-        <v>3768</v>
+        <v>3775</v>
       </c>
       <c r="C236" s="5" t="s">
         <v>4010</v>
+      </c>
+      <c r="D236" s="5" t="s">
+        <v>3144</v>
       </c>
     </row>
     <row r="237" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A237" s="5" t="s">
-        <v>4043</v>
+        <v>4323</v>
       </c>
       <c r="B237" s="5" t="s">
-        <v>4044</v>
+        <v>4847</v>
       </c>
       <c r="C237" s="5" t="s">
         <v>4010</v>
       </c>
       <c r="D237" s="5" t="s">
-        <v>477</v>
+        <v>4505</v>
       </c>
     </row>
     <row r="238" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A238" s="5" t="s">
-        <v>4047</v>
+        <v>1195</v>
       </c>
       <c r="B238" s="5" t="s">
-        <v>4048</v>
+        <v>4429</v>
       </c>
       <c r="C238" s="5" t="s">
         <v>4010</v>
-      </c>
-      <c r="D238" s="5" t="s">
-        <v>479</v>
       </c>
     </row>
     <row r="239" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A239" s="5" t="s">
-        <v>4049</v>
+        <v>34</v>
       </c>
       <c r="B239" s="5" t="s">
-        <v>4050</v>
+        <v>4843</v>
       </c>
       <c r="C239" s="5" t="s">
         <v>4010</v>
       </c>
       <c r="D239" s="5" t="s">
-        <v>480</v>
+        <v>33</v>
       </c>
     </row>
     <row r="240" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A240" s="5" t="s">
-        <v>4053</v>
+        <v>4</v>
       </c>
       <c r="B240" s="5" t="s">
-        <v>4054</v>
+        <v>4628</v>
       </c>
       <c r="C240" s="5" t="s">
         <v>4010</v>
       </c>
       <c r="D240" s="5" t="s">
-        <v>482</v>
+        <v>3</v>
       </c>
     </row>
     <row r="241" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A241" s="5" t="s">
-        <v>4045</v>
+        <v>1193</v>
       </c>
       <c r="B241" s="5" t="s">
-        <v>4046</v>
+        <v>4431</v>
       </c>
       <c r="C241" s="5" t="s">
         <v>4010</v>
-      </c>
-      <c r="D241" s="5" t="s">
-        <v>478</v>
       </c>
     </row>
     <row r="242" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A242" s="5" t="s">
-        <v>4057</v>
+        <v>4320</v>
       </c>
       <c r="B242" s="5" t="s">
-        <v>4058</v>
+        <v>4434</v>
       </c>
       <c r="C242" s="5" t="s">
         <v>4010</v>
-      </c>
-      <c r="D242" s="5" t="s">
-        <v>4283</v>
       </c>
     </row>
     <row r="243" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A243" s="5" t="s">
-        <v>4065</v>
+        <v>18</v>
       </c>
       <c r="B243" s="5" t="s">
-        <v>4066</v>
+        <v>4435</v>
       </c>
       <c r="C243" s="5" t="s">
         <v>4010</v>
       </c>
       <c r="D243" s="5" t="s">
-        <v>4287</v>
+        <v>17</v>
       </c>
     </row>
     <row r="244" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A244" s="5" t="s">
-        <v>4059</v>
+        <v>28</v>
       </c>
       <c r="B244" s="5" t="s">
-        <v>4060</v>
+        <v>4634</v>
       </c>
       <c r="C244" s="5" t="s">
         <v>4010</v>
       </c>
       <c r="D244" s="5" t="s">
-        <v>4284</v>
+        <v>27</v>
       </c>
     </row>
     <row r="245" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A245" s="5" t="s">
-        <v>4061</v>
+        <v>30</v>
       </c>
       <c r="B245" s="5" t="s">
-        <v>4062</v>
+        <v>4635</v>
       </c>
       <c r="C245" s="5" t="s">
         <v>4010</v>
       </c>
       <c r="D245" s="5" t="s">
-        <v>4285</v>
+        <v>29</v>
       </c>
     </row>
     <row r="246" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A246" s="5" t="s">
-        <v>4067</v>
+        <v>32</v>
       </c>
       <c r="B246" s="5" t="s">
-        <v>4068</v>
+        <v>4636</v>
       </c>
       <c r="C246" s="5" t="s">
         <v>4010</v>
       </c>
       <c r="D246" s="5" t="s">
-        <v>4288</v>
+        <v>31</v>
       </c>
     </row>
     <row r="247" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A247" s="5" t="s">
-        <v>4075</v>
+        <v>4544</v>
       </c>
       <c r="B247" s="5" t="s">
-        <v>4076</v>
+        <v>4544</v>
       </c>
       <c r="C247" s="5" t="s">
         <v>4010</v>
       </c>
       <c r="D247" s="5" t="s">
-        <v>4292</v>
+        <v>9</v>
       </c>
     </row>
     <row r="248" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A248" s="5" t="s">
-        <v>4073</v>
+        <v>4545</v>
       </c>
       <c r="B248" s="5" t="s">
-        <v>4074</v>
+        <v>4545</v>
       </c>
       <c r="C248" s="5" t="s">
         <v>4010</v>
       </c>
       <c r="D248" s="5" t="s">
-        <v>4291</v>
+        <v>11</v>
       </c>
     </row>
     <row r="249" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A249" s="5" t="s">
-        <v>4069</v>
+        <v>4546</v>
       </c>
       <c r="B249" s="5" t="s">
-        <v>4070</v>
+        <v>4546</v>
       </c>
       <c r="C249" s="5" t="s">
         <v>4010</v>
       </c>
       <c r="D249" s="5" t="s">
-        <v>4289</v>
+        <v>13</v>
       </c>
     </row>
     <row r="250" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A250" s="5" t="s">
-        <v>4071</v>
+        <v>16</v>
       </c>
       <c r="B250" s="5" t="s">
-        <v>4072</v>
+        <v>4846</v>
       </c>
       <c r="C250" s="5" t="s">
         <v>4010</v>
       </c>
       <c r="D250" s="5" t="s">
-        <v>4290</v>
+        <v>15</v>
       </c>
     </row>
     <row r="251" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A251" s="5" t="s">
-        <v>4051</v>
+        <v>8</v>
       </c>
       <c r="B251" s="5" t="s">
-        <v>4052</v>
+        <v>4844</v>
       </c>
       <c r="C251" s="5" t="s">
         <v>4010</v>
       </c>
       <c r="D251" s="5" t="s">
-        <v>481</v>
+        <v>7</v>
       </c>
     </row>
     <row r="252" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A252" s="5" t="s">
-        <v>4063</v>
+        <v>4543</v>
       </c>
       <c r="B252" s="5" t="s">
-        <v>4064</v>
+        <v>4845</v>
       </c>
       <c r="C252" s="5" t="s">
         <v>4010</v>
       </c>
       <c r="D252" s="5" t="s">
-        <v>4286</v>
+        <v>5</v>
       </c>
     </row>
     <row r="253" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A253" s="5" t="s">
-        <v>3449</v>
+        <v>537</v>
       </c>
       <c r="B253" s="5" t="s">
-        <v>4369</v>
+        <v>4152</v>
       </c>
       <c r="C253" s="5" t="s">
         <v>4010</v>
+      </c>
+      <c r="D253" s="5" t="s">
+        <v>536</v>
       </c>
     </row>
     <row r="254" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A254" s="5" t="s">
-        <v>677</v>
+        <v>539</v>
       </c>
       <c r="B254" s="5" t="s">
-        <v>4365</v>
+        <v>4155</v>
       </c>
       <c r="C254" s="5" t="s">
         <v>4010</v>
+      </c>
+      <c r="D254" s="5" t="s">
+        <v>538</v>
       </c>
     </row>
     <row r="255" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A255" s="5" t="s">
-        <v>674</v>
+        <v>1168</v>
       </c>
       <c r="B255" s="5" t="s">
-        <v>4366</v>
+        <v>3755</v>
       </c>
       <c r="C255" s="5" t="s">
         <v>4010</v>
+      </c>
+      <c r="D255" s="5" t="s">
+        <v>451</v>
       </c>
     </row>
     <row r="256" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A256" s="5" t="s">
-        <v>4350</v>
+        <v>1167</v>
       </c>
       <c r="B256" s="5" t="s">
-        <v>4367</v>
+        <v>3754</v>
       </c>
       <c r="C256" s="5" t="s">
         <v>4010</v>
+      </c>
+      <c r="D256" s="5" t="s">
+        <v>449</v>
       </c>
     </row>
     <row r="257" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A257" s="5" t="s">
-        <v>4351</v>
+        <v>1164</v>
       </c>
       <c r="B257" s="5" t="s">
-        <v>4368</v>
+        <v>3688</v>
       </c>
       <c r="C257" s="5" t="s">
         <v>4010</v>
+      </c>
+      <c r="D257" s="5" t="s">
+        <v>443</v>
       </c>
     </row>
     <row r="258" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A258" s="5" t="s">
-        <v>4361</v>
+        <v>1169</v>
       </c>
       <c r="B258" s="5" t="s">
-        <v>4370</v>
+        <v>4022</v>
       </c>
       <c r="C258" s="5" t="s">
         <v>4010</v>
+      </c>
+      <c r="D258" s="5" t="s">
+        <v>453</v>
       </c>
     </row>
     <row r="259" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A259" s="5" t="s">
-        <v>4265</v>
+        <v>1165</v>
       </c>
       <c r="B259" s="5" t="s">
-        <v>4266</v>
+        <v>3752</v>
       </c>
       <c r="C259" s="5" t="s">
         <v>4010</v>
       </c>
       <c r="D259" s="5" t="s">
-        <v>4317</v>
+        <v>445</v>
       </c>
     </row>
     <row r="260" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A260" s="5" t="s">
-        <v>4263</v>
+        <v>1170</v>
       </c>
       <c r="B260" s="5" t="s">
-        <v>4264</v>
+        <v>4023</v>
       </c>
       <c r="C260" s="5" t="s">
         <v>4010</v>
       </c>
       <c r="D260" s="5" t="s">
-        <v>4316</v>
+        <v>459</v>
       </c>
     </row>
     <row r="261" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A261" s="5" t="s">
-        <v>503</v>
+        <v>1163</v>
       </c>
       <c r="B261" s="5" t="s">
-        <v>4123</v>
+        <v>4020</v>
       </c>
       <c r="C261" s="5" t="s">
         <v>4010</v>
       </c>
       <c r="D261" s="5" t="s">
-        <v>502</v>
+        <v>441</v>
       </c>
     </row>
     <row r="262" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A262" s="5" t="s">
-        <v>626</v>
+        <v>1166</v>
       </c>
       <c r="B262" s="5" t="s">
-        <v>4257</v>
+        <v>4021</v>
       </c>
       <c r="C262" s="5" t="s">
         <v>4010</v>
       </c>
       <c r="D262" s="5" t="s">
-        <v>625</v>
+        <v>447</v>
       </c>
     </row>
     <row r="263" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A263" s="5" t="s">
-        <v>640</v>
+        <v>509</v>
       </c>
       <c r="B263" s="5" t="s">
-        <v>4269</v>
+        <v>4127</v>
       </c>
       <c r="C263" s="5" t="s">
         <v>4010</v>
       </c>
       <c r="D263" s="5" t="s">
-        <v>639</v>
+        <v>508</v>
       </c>
     </row>
     <row r="264" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A264" s="5" t="s">
-        <v>2692</v>
+        <v>141</v>
       </c>
       <c r="B264" s="5" t="s">
-        <v>4268</v>
+        <v>4852</v>
       </c>
       <c r="C264" s="5" t="s">
         <v>4010</v>
       </c>
       <c r="D264" s="5" t="s">
-        <v>2693</v>
+        <v>140</v>
       </c>
     </row>
     <row r="265" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A265" s="5" t="s">
-        <v>2695</v>
+        <v>139</v>
       </c>
       <c r="B265" s="5" t="s">
-        <v>4267</v>
+        <v>4853</v>
       </c>
       <c r="C265" s="5" t="s">
         <v>4010</v>
       </c>
       <c r="D265" s="5" t="s">
-        <v>635</v>
+        <v>138</v>
       </c>
     </row>
     <row r="266" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A266" s="5" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="B266" s="5" t="s">
-        <v>4652</v>
+        <v>4851</v>
       </c>
       <c r="C266" s="5" t="s">
         <v>4010</v>
       </c>
       <c r="D266" s="5" t="s">
-        <v>74</v>
+        <v>142</v>
       </c>
     </row>
     <row r="267" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A267" s="5" t="s">
-        <v>1157</v>
+        <v>73</v>
       </c>
       <c r="B267" s="5" t="s">
-        <v>4411</v>
+        <v>4854</v>
       </c>
       <c r="C267" s="5" t="s">
         <v>4010</v>
+      </c>
+      <c r="D267" s="5" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="268" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A268" s="5" t="s">
-        <v>1151</v>
+        <v>4916</v>
       </c>
       <c r="B268" s="5" t="s">
-        <v>4412</v>
+        <v>4854</v>
       </c>
       <c r="C268" s="5" t="s">
         <v>4010</v>
+      </c>
+      <c r="D268" s="5" t="s">
+        <v>4510</v>
       </c>
     </row>
     <row r="269" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A269" s="5" t="s">
-        <v>1234</v>
+        <v>1162</v>
       </c>
       <c r="B269" s="5" t="s">
-        <v>4413</v>
+        <v>4439</v>
       </c>
       <c r="C269" s="5" t="s">
         <v>4010</v>
@@ -47370,21 +47355,24 @@
     </row>
     <row r="270" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A270" s="5" t="s">
-        <v>1150</v>
+        <v>137</v>
       </c>
       <c r="B270" s="5" t="s">
-        <v>4414</v>
+        <v>4667</v>
       </c>
       <c r="C270" s="5" t="s">
         <v>4010</v>
+      </c>
+      <c r="D270" s="5" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="271" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A271" s="5" t="s">
-        <v>1232</v>
+        <v>1230</v>
       </c>
       <c r="B271" s="5" t="s">
-        <v>4415</v>
+        <v>4440</v>
       </c>
       <c r="C271" s="5" t="s">
         <v>4010</v>
@@ -47392,77 +47380,77 @@
     </row>
     <row r="272" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A272" s="5" t="s">
-        <v>555</v>
+        <v>4555</v>
       </c>
       <c r="B272" s="5" t="s">
-        <v>3800</v>
+        <v>4856</v>
       </c>
       <c r="C272" s="5" t="s">
         <v>4010</v>
+      </c>
+      <c r="D272" s="5" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="273" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A273" s="5" t="s">
-        <v>4209</v>
+        <v>4556</v>
       </c>
       <c r="B273" s="5" t="s">
-        <v>4210</v>
+        <v>4857</v>
       </c>
       <c r="C273" s="5" t="s">
         <v>4010</v>
       </c>
       <c r="D273" s="5" t="s">
-        <v>554</v>
+        <v>70</v>
       </c>
     </row>
     <row r="274" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A274" s="5" t="s">
-        <v>4211</v>
+        <v>66</v>
       </c>
       <c r="B274" s="5" t="s">
-        <v>4212</v>
+        <v>4442</v>
       </c>
       <c r="C274" s="5" t="s">
         <v>4010</v>
-      </c>
-      <c r="D274" s="5" t="s">
-        <v>2845</v>
       </c>
     </row>
     <row r="275" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A275" s="5" t="s">
-        <v>4213</v>
+        <v>4554</v>
       </c>
       <c r="B275" s="5" t="s">
-        <v>4214</v>
+        <v>4855</v>
       </c>
       <c r="C275" s="5" t="s">
         <v>4010</v>
       </c>
       <c r="D275" s="5" t="s">
-        <v>2842</v>
+        <v>65</v>
       </c>
     </row>
     <row r="276" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A276" s="5" t="s">
-        <v>4215</v>
+        <v>64</v>
       </c>
       <c r="B276" s="5" t="s">
-        <v>4216</v>
+        <v>4649</v>
       </c>
       <c r="C276" s="5" t="s">
         <v>4010</v>
       </c>
       <c r="D276" s="5" t="s">
-        <v>2839</v>
+        <v>63</v>
       </c>
     </row>
     <row r="277" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A277" s="5" t="s">
-        <v>1185</v>
+        <v>1132</v>
       </c>
       <c r="B277" s="5" t="s">
-        <v>3798</v>
+        <v>3682</v>
       </c>
       <c r="C277" s="5" t="s">
         <v>4010</v>
@@ -47470,460 +47458,436 @@
     </row>
     <row r="278" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A278" s="5" t="s">
-        <v>4156</v>
+        <v>487</v>
       </c>
       <c r="B278" s="5" t="s">
-        <v>4157</v>
+        <v>4109</v>
       </c>
       <c r="C278" s="5" t="s">
         <v>4010</v>
       </c>
       <c r="D278" s="5" t="s">
-        <v>542</v>
+        <v>486</v>
       </c>
     </row>
     <row r="279" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A279" s="5" t="s">
-        <v>4174</v>
+        <v>1224</v>
       </c>
       <c r="B279" s="5" t="s">
-        <v>4175</v>
+        <v>4443</v>
       </c>
       <c r="C279" s="5" t="s">
         <v>4010</v>
-      </c>
-      <c r="D279" s="5" t="s">
-        <v>2893</v>
       </c>
     </row>
     <row r="280" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A280" s="5" t="s">
-        <v>4176</v>
+        <v>4612</v>
       </c>
       <c r="B280" s="5" t="s">
-        <v>4177</v>
+        <v>4906</v>
       </c>
       <c r="C280" s="5" t="s">
         <v>4010</v>
       </c>
       <c r="D280" s="5" t="s">
-        <v>2890</v>
+        <v>376</v>
       </c>
     </row>
     <row r="281" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A281" s="5" t="s">
-        <v>4178</v>
+        <v>1226</v>
       </c>
       <c r="B281" s="5" t="s">
-        <v>4179</v>
+        <v>4444</v>
       </c>
       <c r="C281" s="5" t="s">
         <v>4010</v>
-      </c>
-      <c r="D281" s="5" t="s">
-        <v>2887</v>
       </c>
     </row>
     <row r="282" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A282" s="5" t="s">
-        <v>4180</v>
+        <v>4619</v>
       </c>
       <c r="B282" s="5" t="s">
-        <v>4181</v>
+        <v>4905</v>
       </c>
       <c r="C282" s="5" t="s">
         <v>4010</v>
       </c>
       <c r="D282" s="5" t="s">
-        <v>2884</v>
+        <v>390</v>
       </c>
     </row>
     <row r="283" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A283" s="5" t="s">
-        <v>4182</v>
+        <v>4344</v>
       </c>
       <c r="B283" s="5" t="s">
-        <v>4183</v>
+        <v>4445</v>
       </c>
       <c r="C283" s="5" t="s">
         <v>4010</v>
-      </c>
-      <c r="D283" s="5" t="s">
-        <v>2881</v>
       </c>
     </row>
     <row r="284" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A284" s="5" t="s">
-        <v>4184</v>
+        <v>4613</v>
       </c>
       <c r="B284" s="5" t="s">
-        <v>4185</v>
+        <v>4904</v>
       </c>
       <c r="C284" s="5" t="s">
         <v>4010</v>
       </c>
       <c r="D284" s="5" t="s">
-        <v>2878</v>
+        <v>4537</v>
       </c>
     </row>
     <row r="285" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A285" s="5" t="s">
-        <v>4186</v>
+        <v>1227</v>
       </c>
       <c r="B285" s="5" t="s">
-        <v>4187</v>
+        <v>4446</v>
       </c>
       <c r="C285" s="5" t="s">
         <v>4010</v>
-      </c>
-      <c r="D285" s="5" t="s">
-        <v>2875</v>
       </c>
     </row>
     <row r="286" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A286" s="5" t="s">
-        <v>4188</v>
+        <v>4617</v>
       </c>
       <c r="B286" s="5" t="s">
-        <v>4189</v>
+        <v>4907</v>
       </c>
       <c r="C286" s="5" t="s">
         <v>4010</v>
       </c>
       <c r="D286" s="5" t="s">
-        <v>2872</v>
+        <v>382</v>
       </c>
     </row>
     <row r="287" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A287" s="5" t="s">
-        <v>4190</v>
+        <v>4611</v>
       </c>
       <c r="B287" s="5" t="s">
-        <v>4191</v>
+        <v>4908</v>
       </c>
       <c r="C287" s="5" t="s">
         <v>4010</v>
       </c>
       <c r="D287" s="5" t="s">
-        <v>2869</v>
+        <v>370</v>
       </c>
     </row>
     <row r="288" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A288" s="5" t="s">
-        <v>4192</v>
+        <v>4342</v>
       </c>
       <c r="B288" s="5" t="s">
-        <v>4193</v>
+        <v>4447</v>
       </c>
       <c r="C288" s="5" t="s">
         <v>4010</v>
-      </c>
-      <c r="D288" s="5" t="s">
-        <v>2866</v>
       </c>
     </row>
     <row r="289" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A289" s="5" t="s">
-        <v>4194</v>
+        <v>4609</v>
       </c>
       <c r="B289" s="5" t="s">
-        <v>4195</v>
+        <v>4910</v>
       </c>
       <c r="C289" s="5" t="s">
         <v>4010</v>
       </c>
       <c r="D289" s="5" t="s">
-        <v>2863</v>
+        <v>4535</v>
       </c>
     </row>
     <row r="290" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A290" s="5" t="s">
-        <v>4196</v>
+        <v>4616</v>
       </c>
       <c r="B290" s="5" t="s">
-        <v>4197</v>
+        <v>4911</v>
       </c>
       <c r="C290" s="5" t="s">
         <v>4010</v>
       </c>
       <c r="D290" s="5" t="s">
-        <v>2860</v>
+        <v>4540</v>
       </c>
     </row>
     <row r="291" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A291" s="5" t="s">
-        <v>4198</v>
+        <v>4343</v>
       </c>
       <c r="B291" s="5" t="s">
-        <v>4199</v>
+        <v>4448</v>
       </c>
       <c r="C291" s="5" t="s">
         <v>4010</v>
-      </c>
-      <c r="D291" s="5" t="s">
-        <v>2857</v>
       </c>
     </row>
     <row r="292" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A292" s="5" t="s">
-        <v>4200</v>
+        <v>4610</v>
       </c>
       <c r="B292" s="5" t="s">
-        <v>4201</v>
+        <v>4909</v>
       </c>
       <c r="C292" s="5" t="s">
         <v>4010</v>
       </c>
       <c r="D292" s="5" t="s">
-        <v>2854</v>
+        <v>4536</v>
       </c>
     </row>
     <row r="293" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A293" s="5" t="s">
-        <v>4202</v>
+        <v>1148</v>
       </c>
       <c r="B293" s="5" t="s">
-        <v>4203</v>
+        <v>4449</v>
       </c>
       <c r="C293" s="5" t="s">
         <v>4010</v>
-      </c>
-      <c r="D293" s="5" t="s">
-        <v>2851</v>
       </c>
     </row>
     <row r="294" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A294" s="5" t="s">
-        <v>4204</v>
+        <v>4618</v>
       </c>
       <c r="B294" s="5" t="s">
-        <v>4205</v>
+        <v>4810</v>
       </c>
       <c r="C294" s="5" t="s">
         <v>4010</v>
       </c>
       <c r="D294" s="5" t="s">
-        <v>4307</v>
+        <v>386</v>
       </c>
     </row>
     <row r="295" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A295" s="5" t="s">
-        <v>4164</v>
+        <v>4608</v>
       </c>
       <c r="B295" s="5" t="s">
-        <v>4165</v>
+        <v>4754</v>
       </c>
       <c r="C295" s="5" t="s">
         <v>4010</v>
       </c>
       <c r="D295" s="5" t="s">
-        <v>550</v>
+        <v>368</v>
       </c>
     </row>
     <row r="296" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A296" s="5" t="s">
-        <v>4166</v>
+        <v>4615</v>
       </c>
       <c r="B296" s="5" t="s">
-        <v>4167</v>
+        <v>4761</v>
       </c>
       <c r="C296" s="5" t="s">
         <v>4010</v>
       </c>
       <c r="D296" s="5" t="s">
-        <v>2905</v>
+        <v>380</v>
       </c>
     </row>
     <row r="297" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A297" s="5" t="s">
-        <v>4168</v>
+        <v>4620</v>
       </c>
       <c r="B297" s="5" t="s">
-        <v>4169</v>
+        <v>4766</v>
       </c>
       <c r="C297" s="5" t="s">
         <v>4010</v>
       </c>
       <c r="D297" s="5" t="s">
-        <v>2902</v>
+        <v>392</v>
       </c>
     </row>
     <row r="298" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A298" s="5" t="s">
-        <v>4170</v>
+        <v>1144</v>
       </c>
       <c r="B298" s="5" t="s">
-        <v>4171</v>
+        <v>4450</v>
       </c>
       <c r="C298" s="5" t="s">
         <v>4010</v>
-      </c>
-      <c r="D298" s="5" t="s">
-        <v>2899</v>
       </c>
     </row>
     <row r="299" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A299" s="5" t="s">
-        <v>4172</v>
+        <v>4621</v>
       </c>
       <c r="B299" s="5" t="s">
-        <v>4173</v>
+        <v>4858</v>
       </c>
       <c r="C299" s="5" t="s">
         <v>4010</v>
       </c>
       <c r="D299" s="5" t="s">
-        <v>2896</v>
+        <v>398</v>
       </c>
     </row>
     <row r="300" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A300" s="5" t="s">
-        <v>4158</v>
+        <v>4623</v>
       </c>
       <c r="B300" s="5" t="s">
-        <v>4159</v>
+        <v>4859</v>
       </c>
       <c r="C300" s="5" t="s">
         <v>4010</v>
       </c>
       <c r="D300" s="5" t="s">
-        <v>544</v>
+        <v>4542</v>
       </c>
     </row>
     <row r="301" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A301" s="5" t="s">
-        <v>4160</v>
+        <v>1149</v>
       </c>
       <c r="B301" s="5" t="s">
-        <v>4161</v>
+        <v>4451</v>
       </c>
       <c r="C301" s="5" t="s">
         <v>4010</v>
-      </c>
-      <c r="D301" s="5" t="s">
-        <v>546</v>
       </c>
     </row>
     <row r="302" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A302" s="5" t="s">
-        <v>4162</v>
+        <v>4622</v>
       </c>
       <c r="B302" s="5" t="s">
-        <v>4163</v>
+        <v>4860</v>
       </c>
       <c r="C302" s="5" t="s">
         <v>4010</v>
       </c>
       <c r="D302" s="5" t="s">
-        <v>548</v>
+        <v>4541</v>
       </c>
     </row>
     <row r="303" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A303" s="5" t="s">
-        <v>541</v>
+        <v>4345</v>
       </c>
       <c r="B303" s="5" t="s">
-        <v>2916</v>
+        <v>4452</v>
       </c>
       <c r="C303" s="5" t="s">
         <v>4010</v>
-      </c>
-      <c r="D303" s="5" t="s">
-        <v>540</v>
       </c>
     </row>
     <row r="304" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A304" s="5" t="s">
-        <v>1205</v>
+        <v>4774</v>
       </c>
       <c r="B304" s="5" t="s">
-        <v>4419</v>
+        <v>4775</v>
       </c>
       <c r="C304" s="5" t="s">
         <v>4010</v>
+      </c>
+      <c r="D304" s="5" t="s">
+        <v>4538</v>
       </c>
     </row>
     <row r="305" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A305" s="5" t="s">
-        <v>4587</v>
+        <v>4346</v>
       </c>
       <c r="B305" s="5" t="s">
-        <v>4724</v>
+        <v>4453</v>
       </c>
       <c r="C305" s="5" t="s">
         <v>4010</v>
-      </c>
-      <c r="D305" s="5" t="s">
-        <v>320</v>
       </c>
     </row>
     <row r="306" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A306" s="5" t="s">
-        <v>4337</v>
+        <v>4614</v>
       </c>
       <c r="B306" s="5" t="s">
-        <v>4420</v>
+        <v>4861</v>
       </c>
       <c r="C306" s="5" t="s">
         <v>4010</v>
+      </c>
+      <c r="D306" s="5" t="s">
+        <v>4539</v>
       </c>
     </row>
     <row r="307" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A307" s="5" t="s">
-        <v>1204</v>
+        <v>3281</v>
       </c>
       <c r="B307" s="5" t="s">
-        <v>4421</v>
+        <v>4017</v>
       </c>
       <c r="C307" s="5" t="s">
         <v>4010</v>
+      </c>
+      <c r="D307" s="5" t="s">
+        <v>3282</v>
       </c>
     </row>
     <row r="308" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A308" s="5" t="s">
-        <v>4358</v>
+        <v>1235</v>
       </c>
       <c r="B308" s="5" t="s">
-        <v>4358</v>
+        <v>4014</v>
       </c>
       <c r="C308" s="5" t="s">
         <v>4010</v>
+      </c>
+      <c r="D308" s="5" t="s">
+        <v>429</v>
       </c>
     </row>
     <row r="309" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A309" s="5" t="s">
-        <v>4208</v>
+        <v>4362</v>
       </c>
       <c r="B309" s="5" t="s">
-        <v>4208</v>
+        <v>4375</v>
       </c>
       <c r="C309" s="5" t="s">
         <v>4010</v>
-      </c>
-      <c r="D309" s="5" t="s">
-        <v>4309</v>
       </c>
     </row>
     <row r="310" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A310" s="5" t="s">
-        <v>4092</v>
+        <v>4274</v>
       </c>
       <c r="B310" s="5" t="s">
-        <v>4093</v>
+        <v>4275</v>
       </c>
       <c r="C310" s="5" t="s">
         <v>4010</v>
       </c>
       <c r="D310" s="5" t="s">
-        <v>4294</v>
+        <v>4318</v>
       </c>
     </row>
     <row r="311" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A311" s="5" t="s">
-        <v>1228</v>
+        <v>1218</v>
       </c>
       <c r="B311" s="5" t="s">
-        <v>4371</v>
+        <v>4455</v>
       </c>
       <c r="C311" s="5" t="s">
         <v>4010</v>
@@ -47931,150 +47895,150 @@
     </row>
     <row r="312" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A312" s="5" t="s">
-        <v>4239</v>
+        <v>182</v>
       </c>
       <c r="B312" s="5" t="s">
-        <v>4240</v>
+        <v>4874</v>
       </c>
       <c r="C312" s="5" t="s">
         <v>4010</v>
       </c>
       <c r="D312" s="5" t="s">
-        <v>582</v>
+        <v>181</v>
       </c>
     </row>
     <row r="313" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A313" s="5" t="s">
-        <v>4247</v>
+        <v>184</v>
       </c>
       <c r="B313" s="5" t="s">
-        <v>4248</v>
+        <v>4875</v>
       </c>
       <c r="C313" s="5" t="s">
         <v>4010</v>
       </c>
       <c r="D313" s="5" t="s">
-        <v>591</v>
+        <v>183</v>
       </c>
     </row>
     <row r="314" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A314" s="5" t="s">
-        <v>1245</v>
+        <v>186</v>
       </c>
       <c r="B314" s="5" t="s">
-        <v>4249</v>
+        <v>4876</v>
       </c>
       <c r="C314" s="5" t="s">
         <v>4010</v>
       </c>
       <c r="D314" s="5" t="s">
-        <v>593</v>
+        <v>185</v>
       </c>
     </row>
     <row r="315" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A315" s="5" t="s">
-        <v>1243</v>
+        <v>190</v>
       </c>
       <c r="B315" s="5" t="s">
-        <v>4253</v>
+        <v>4863</v>
       </c>
       <c r="C315" s="5" t="s">
         <v>4010</v>
       </c>
       <c r="D315" s="5" t="s">
-        <v>603</v>
+        <v>189</v>
       </c>
     </row>
     <row r="316" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A316" s="5" t="s">
-        <v>1241</v>
+        <v>194</v>
       </c>
       <c r="B316" s="5" t="s">
-        <v>4252</v>
+        <v>4865</v>
       </c>
       <c r="C316" s="5" t="s">
         <v>4010</v>
       </c>
       <c r="D316" s="5" t="s">
-        <v>599</v>
+        <v>193</v>
       </c>
     </row>
     <row r="317" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A317" s="5" t="s">
-        <v>4250</v>
+        <v>4572</v>
       </c>
       <c r="B317" s="5" t="s">
-        <v>4251</v>
+        <v>4873</v>
       </c>
       <c r="C317" s="5" t="s">
         <v>4010</v>
       </c>
       <c r="D317" s="5" t="s">
-        <v>4315</v>
+        <v>4515</v>
       </c>
     </row>
     <row r="318" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A318" s="5" t="s">
-        <v>1186</v>
+        <v>4563</v>
       </c>
       <c r="B318" s="5" t="s">
-        <v>4256</v>
+        <v>4672</v>
       </c>
       <c r="C318" s="5" t="s">
         <v>4010</v>
       </c>
       <c r="D318" s="5" t="s">
-        <v>607</v>
+        <v>161</v>
       </c>
     </row>
     <row r="319" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A319" s="5" t="s">
-        <v>4254</v>
+        <v>4567</v>
       </c>
       <c r="B319" s="5" t="s">
-        <v>4255</v>
+        <v>4870</v>
       </c>
       <c r="C319" s="5" t="s">
         <v>4010</v>
       </c>
       <c r="D319" s="5" t="s">
-        <v>605</v>
+        <v>171</v>
       </c>
     </row>
     <row r="320" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A320" s="5" t="s">
-        <v>3152</v>
+        <v>4568</v>
       </c>
       <c r="B320" s="5" t="s">
-        <v>4104</v>
+        <v>4871</v>
       </c>
       <c r="C320" s="5" t="s">
         <v>4010</v>
       </c>
       <c r="D320" s="5" t="s">
-        <v>3153</v>
+        <v>173</v>
       </c>
     </row>
     <row r="321" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A321" s="5" t="s">
-        <v>2768</v>
+        <v>4569</v>
       </c>
       <c r="B321" s="5" t="s">
-        <v>4235</v>
+        <v>4872</v>
       </c>
       <c r="C321" s="5" t="s">
         <v>4010</v>
       </c>
       <c r="D321" s="5" t="s">
-        <v>570</v>
+        <v>4513</v>
       </c>
     </row>
     <row r="322" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A322" s="5" t="s">
-        <v>1178</v>
+        <v>180</v>
       </c>
       <c r="B322" s="5" t="s">
-        <v>1178</v>
+        <v>4457</v>
       </c>
       <c r="C322" s="5" t="s">
         <v>4010</v>
@@ -48082,38 +48046,38 @@
     </row>
     <row r="323" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A323" s="5" t="s">
-        <v>4236</v>
+        <v>4571</v>
       </c>
       <c r="B323" s="5" t="s">
-        <v>4236</v>
+        <v>4457</v>
       </c>
       <c r="C323" s="5" t="s">
         <v>4010</v>
       </c>
       <c r="D323" s="5" t="s">
-        <v>572</v>
+        <v>179</v>
       </c>
     </row>
     <row r="324" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A324" s="5" t="s">
-        <v>4237</v>
+        <v>4570</v>
       </c>
       <c r="B324" s="5" t="s">
-        <v>4238</v>
+        <v>4679</v>
       </c>
       <c r="C324" s="5" t="s">
         <v>4010</v>
       </c>
       <c r="D324" s="5" t="s">
-        <v>574</v>
+        <v>4514</v>
       </c>
     </row>
     <row r="325" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A325" s="5" t="s">
-        <v>1210</v>
+        <v>1180</v>
       </c>
       <c r="B325" s="5" t="s">
-        <v>4372</v>
+        <v>4458</v>
       </c>
       <c r="C325" s="5" t="s">
         <v>4010</v>
@@ -48121,108 +48085,102 @@
     </row>
     <row r="326" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A326" s="5" t="s">
-        <v>4223</v>
+        <v>188</v>
       </c>
       <c r="B326" s="5" t="s">
-        <v>4224</v>
+        <v>4862</v>
       </c>
       <c r="C326" s="5" t="s">
         <v>4010</v>
       </c>
       <c r="D326" s="5" t="s">
-        <v>564</v>
+        <v>187</v>
       </c>
     </row>
     <row r="327" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A327" s="5" t="s">
-        <v>4225</v>
+        <v>192</v>
       </c>
       <c r="B327" s="5" t="s">
-        <v>4226</v>
+        <v>4864</v>
       </c>
       <c r="C327" s="5" t="s">
         <v>4010</v>
       </c>
       <c r="D327" s="5" t="s">
-        <v>566</v>
+        <v>191</v>
       </c>
     </row>
     <row r="328" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A328" s="5" t="s">
-        <v>4227</v>
+        <v>4328</v>
       </c>
       <c r="B328" s="5" t="s">
-        <v>4228</v>
+        <v>4459</v>
       </c>
       <c r="C328" s="5" t="s">
         <v>4010</v>
-      </c>
-      <c r="D328" s="5" t="s">
-        <v>568</v>
       </c>
     </row>
     <row r="329" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A329" s="5" t="s">
-        <v>4229</v>
+        <v>1216</v>
       </c>
       <c r="B329" s="5" t="s">
-        <v>4230</v>
+        <v>4460</v>
       </c>
       <c r="C329" s="5" t="s">
         <v>4010</v>
-      </c>
-      <c r="D329" s="5" t="s">
-        <v>4312</v>
       </c>
     </row>
     <row r="330" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A330" s="5" t="s">
-        <v>4231</v>
+        <v>4564</v>
       </c>
       <c r="B330" s="5" t="s">
-        <v>4232</v>
+        <v>4867</v>
       </c>
       <c r="C330" s="5" t="s">
         <v>4010</v>
       </c>
       <c r="D330" s="5" t="s">
-        <v>4313</v>
+        <v>167</v>
       </c>
     </row>
     <row r="331" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A331" s="5" t="s">
-        <v>4233</v>
+        <v>4565</v>
       </c>
       <c r="B331" s="5" t="s">
-        <v>4234</v>
+        <v>4868</v>
       </c>
       <c r="C331" s="5" t="s">
         <v>4010</v>
       </c>
       <c r="D331" s="5" t="s">
-        <v>4314</v>
+        <v>169</v>
       </c>
     </row>
     <row r="332" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A332" s="5" t="s">
-        <v>561</v>
+        <v>4566</v>
       </c>
       <c r="B332" s="5" t="s">
-        <v>561</v>
+        <v>4869</v>
       </c>
       <c r="C332" s="5" t="s">
         <v>4010</v>
       </c>
       <c r="D332" s="5" t="s">
-        <v>560</v>
+        <v>4512</v>
       </c>
     </row>
     <row r="333" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A333" s="5" t="s">
-        <v>1138</v>
+        <v>1217</v>
       </c>
       <c r="B333" s="5" t="s">
-        <v>4422</v>
+        <v>4461</v>
       </c>
       <c r="C333" s="5" t="s">
         <v>4010</v>
@@ -48230,261 +48188,261 @@
     </row>
     <row r="334" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A334" s="5" t="s">
-        <v>1137</v>
+        <v>164</v>
       </c>
       <c r="B334" s="5" t="s">
-        <v>4424</v>
+        <v>4866</v>
       </c>
       <c r="C334" s="5" t="s">
         <v>4010</v>
+      </c>
+      <c r="D334" s="5" t="s">
+        <v>163</v>
       </c>
     </row>
     <row r="335" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A335" s="5" t="s">
-        <v>248</v>
+        <v>660</v>
       </c>
       <c r="B335" s="5" t="s">
-        <v>4706</v>
+        <v>4273</v>
       </c>
       <c r="C335" s="5" t="s">
         <v>4010</v>
       </c>
       <c r="D335" s="5" t="s">
-        <v>247</v>
+        <v>659</v>
       </c>
     </row>
     <row r="336" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A336" s="5" t="s">
-        <v>422</v>
+        <v>4100</v>
       </c>
       <c r="B336" s="5" t="s">
-        <v>422</v>
+        <v>4101</v>
       </c>
       <c r="C336" s="5" t="s">
         <v>4010</v>
       </c>
       <c r="D336" s="5" t="s">
-        <v>421</v>
+        <v>4298</v>
       </c>
     </row>
     <row r="337" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A337" s="5" t="s">
-        <v>426</v>
+        <v>1181</v>
       </c>
       <c r="B337" s="5" t="s">
-        <v>3303</v>
+        <v>4464</v>
       </c>
       <c r="C337" s="5" t="s">
         <v>4010</v>
-      </c>
-      <c r="D337" s="5" t="s">
-        <v>425</v>
       </c>
     </row>
     <row r="338" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A338" s="5" t="s">
-        <v>4355</v>
+        <v>202</v>
       </c>
       <c r="B338" s="5" t="s">
-        <v>4119</v>
+        <v>4689</v>
       </c>
       <c r="C338" s="5" t="s">
         <v>4010</v>
+      </c>
+      <c r="D338" s="5" t="s">
+        <v>201</v>
       </c>
     </row>
     <row r="339" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A339" s="5" t="s">
-        <v>4118</v>
+        <v>196</v>
       </c>
       <c r="B339" s="5" t="s">
-        <v>4119</v>
+        <v>4688</v>
       </c>
       <c r="C339" s="5" t="s">
         <v>4010</v>
       </c>
       <c r="D339" s="5" t="s">
-        <v>4302</v>
+        <v>195</v>
       </c>
     </row>
     <row r="340" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A340" s="5" t="s">
-        <v>3445</v>
+        <v>200</v>
       </c>
       <c r="B340" s="5" t="s">
-        <v>4373</v>
+        <v>4465</v>
       </c>
       <c r="C340" s="5" t="s">
         <v>4010</v>
+      </c>
+      <c r="D340" s="5" t="s">
+        <v>199</v>
       </c>
     </row>
     <row r="341" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A341" s="5" t="s">
-        <v>4033</v>
+        <v>1182</v>
       </c>
       <c r="B341" s="5" t="s">
-        <v>4034</v>
+        <v>4884</v>
       </c>
       <c r="C341" s="5" t="s">
         <v>4010</v>
       </c>
       <c r="D341" s="5" t="s">
-        <v>3232</v>
+        <v>203</v>
       </c>
     </row>
     <row r="342" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A342" s="5" t="s">
-        <v>4024</v>
+        <v>1183</v>
       </c>
       <c r="B342" s="5" t="s">
-        <v>4025</v>
+        <v>4467</v>
       </c>
       <c r="C342" s="5" t="s">
         <v>4010</v>
-      </c>
-      <c r="D342" s="5" t="s">
-        <v>463</v>
       </c>
     </row>
     <row r="343" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A343" s="5" t="s">
-        <v>474</v>
+        <v>210</v>
       </c>
       <c r="B343" s="5" t="s">
-        <v>4031</v>
+        <v>4879</v>
       </c>
       <c r="C343" s="5" t="s">
         <v>4010</v>
       </c>
       <c r="D343" s="5" t="s">
-        <v>473</v>
+        <v>209</v>
       </c>
     </row>
     <row r="344" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A344" s="5" t="s">
-        <v>468</v>
+        <v>212</v>
       </c>
       <c r="B344" s="5" t="s">
-        <v>4027</v>
+        <v>4880</v>
       </c>
       <c r="C344" s="5" t="s">
         <v>4010</v>
       </c>
       <c r="D344" s="5" t="s">
-        <v>467</v>
+        <v>211</v>
       </c>
     </row>
     <row r="345" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A345" s="5" t="s">
-        <v>470</v>
+        <v>214</v>
       </c>
       <c r="B345" s="5" t="s">
-        <v>4028</v>
+        <v>4881</v>
       </c>
       <c r="C345" s="5" t="s">
         <v>4010</v>
       </c>
       <c r="D345" s="5" t="s">
-        <v>469</v>
+        <v>213</v>
       </c>
     </row>
     <row r="346" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A346" s="5" t="s">
-        <v>1171</v>
+        <v>216</v>
       </c>
       <c r="B346" s="5" t="s">
-        <v>4032</v>
+        <v>4882</v>
       </c>
       <c r="C346" s="5" t="s">
         <v>4010</v>
+      </c>
+      <c r="D346" s="5" t="s">
+        <v>215</v>
       </c>
     </row>
     <row r="347" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A347" s="5" t="s">
-        <v>476</v>
+        <v>198</v>
       </c>
       <c r="B347" s="5" t="s">
-        <v>4032</v>
+        <v>4469</v>
       </c>
       <c r="C347" s="5" t="s">
         <v>4010</v>
       </c>
       <c r="D347" s="5" t="s">
-        <v>475</v>
+        <v>197</v>
       </c>
     </row>
     <row r="348" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A348" s="5" t="s">
-        <v>466</v>
+        <v>4329</v>
       </c>
       <c r="B348" s="5" t="s">
-        <v>4026</v>
+        <v>4883</v>
       </c>
       <c r="C348" s="5" t="s">
         <v>4010</v>
       </c>
       <c r="D348" s="5" t="s">
-        <v>465</v>
+        <v>4516</v>
       </c>
     </row>
     <row r="349" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A349" s="5" t="s">
-        <v>472</v>
+        <v>62</v>
       </c>
       <c r="B349" s="5" t="s">
-        <v>4374</v>
+        <v>4877</v>
       </c>
       <c r="C349" s="5" t="s">
         <v>4010</v>
+      </c>
+      <c r="D349" s="5" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="350" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A350" s="5" t="s">
-        <v>4029</v>
+        <v>1196</v>
       </c>
       <c r="B350" s="5" t="s">
-        <v>4030</v>
+        <v>4472</v>
       </c>
       <c r="C350" s="5" t="s">
         <v>4010</v>
-      </c>
-      <c r="D350" s="5" t="s">
-        <v>471</v>
       </c>
     </row>
     <row r="351" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A351" s="5" t="s">
-        <v>3273</v>
+        <v>1197</v>
       </c>
       <c r="B351" s="5" t="s">
-        <v>4019</v>
+        <v>4473</v>
       </c>
       <c r="C351" s="5" t="s">
         <v>4010</v>
-      </c>
-      <c r="D351" s="5" t="s">
-        <v>439</v>
       </c>
     </row>
     <row r="352" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A352" s="5" t="s">
-        <v>3458</v>
+        <v>1198</v>
       </c>
       <c r="B352" s="5" t="s">
-        <v>3775</v>
+        <v>4474</v>
       </c>
       <c r="C352" s="5" t="s">
         <v>4010</v>
-      </c>
-      <c r="D352" s="5" t="s">
-        <v>3144</v>
       </c>
     </row>
     <row r="353" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A353" s="5" t="s">
-        <v>1195</v>
+        <v>4325</v>
       </c>
       <c r="B353" s="5" t="s">
-        <v>4429</v>
+        <v>4475</v>
       </c>
       <c r="C353" s="5" t="s">
         <v>4010</v>
@@ -48492,222 +48450,231 @@
     </row>
     <row r="354" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A354" s="5" t="s">
-        <v>4</v>
+        <v>4324</v>
       </c>
       <c r="B354" s="5" t="s">
-        <v>4628</v>
+        <v>4476</v>
       </c>
       <c r="C354" s="5" t="s">
         <v>4010</v>
-      </c>
-      <c r="D354" s="5" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="355" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A355" s="5" t="s">
-        <v>1193</v>
+        <v>58</v>
       </c>
       <c r="B355" s="5" t="s">
-        <v>4431</v>
+        <v>4648</v>
       </c>
       <c r="C355" s="5" t="s">
         <v>4010</v>
+      </c>
+      <c r="D355" s="5" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="356" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A356" s="5" t="s">
-        <v>4322</v>
+        <v>36</v>
       </c>
       <c r="B356" s="5" t="s">
-        <v>4432</v>
+        <v>4637</v>
       </c>
       <c r="C356" s="5" t="s">
         <v>4010</v>
+      </c>
+      <c r="D356" s="5" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="357" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A357" s="5" t="s">
-        <v>4321</v>
+        <v>4550</v>
       </c>
       <c r="B357" s="5" t="s">
-        <v>4433</v>
+        <v>4550</v>
       </c>
       <c r="C357" s="5" t="s">
         <v>4010</v>
+      </c>
+      <c r="D357" s="5" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="358" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A358" s="5" t="s">
-        <v>4320</v>
+        <v>4548</v>
       </c>
       <c r="B358" s="5" t="s">
-        <v>4434</v>
+        <v>4548</v>
       </c>
       <c r="C358" s="5" t="s">
         <v>4010</v>
+      </c>
+      <c r="D358" s="5" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="359" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A359" s="5" t="s">
-        <v>537</v>
+        <v>4549</v>
       </c>
       <c r="B359" s="5" t="s">
-        <v>4152</v>
+        <v>4549</v>
       </c>
       <c r="C359" s="5" t="s">
         <v>4010</v>
       </c>
       <c r="D359" s="5" t="s">
-        <v>536</v>
+        <v>45</v>
       </c>
     </row>
     <row r="360" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A360" s="5" t="s">
-        <v>539</v>
+        <v>44</v>
       </c>
       <c r="B360" s="5" t="s">
-        <v>4155</v>
+        <v>4885</v>
       </c>
       <c r="C360" s="5" t="s">
         <v>4010</v>
       </c>
       <c r="D360" s="5" t="s">
-        <v>538</v>
+        <v>43</v>
       </c>
     </row>
     <row r="361" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A361" s="5" t="s">
-        <v>1168</v>
+        <v>48</v>
       </c>
       <c r="B361" s="5" t="s">
-        <v>3755</v>
+        <v>4886</v>
       </c>
       <c r="C361" s="5" t="s">
         <v>4010</v>
       </c>
       <c r="D361" s="5" t="s">
-        <v>451</v>
+        <v>47</v>
       </c>
     </row>
     <row r="362" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A362" s="5" t="s">
-        <v>1167</v>
+        <v>52</v>
       </c>
       <c r="B362" s="5" t="s">
-        <v>3754</v>
+        <v>4887</v>
       </c>
       <c r="C362" s="5" t="s">
         <v>4010</v>
       </c>
       <c r="D362" s="5" t="s">
-        <v>449</v>
+        <v>51</v>
       </c>
     </row>
     <row r="363" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A363" s="5" t="s">
-        <v>1164</v>
+        <v>4547</v>
       </c>
       <c r="B363" s="5" t="s">
-        <v>3688</v>
+        <v>4878</v>
       </c>
       <c r="C363" s="5" t="s">
         <v>4010</v>
       </c>
       <c r="D363" s="5" t="s">
-        <v>443</v>
+        <v>37</v>
       </c>
     </row>
     <row r="364" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A364" s="5" t="s">
-        <v>1169</v>
+        <v>4551</v>
       </c>
       <c r="B364" s="5" t="s">
-        <v>4022</v>
+        <v>4889</v>
       </c>
       <c r="C364" s="5" t="s">
         <v>4010</v>
       </c>
       <c r="D364" s="5" t="s">
-        <v>453</v>
+        <v>4506</v>
       </c>
     </row>
     <row r="365" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A365" s="5" t="s">
-        <v>1165</v>
+        <v>4553</v>
       </c>
       <c r="B365" s="5" t="s">
-        <v>3752</v>
+        <v>4890</v>
       </c>
       <c r="C365" s="5" t="s">
         <v>4010</v>
       </c>
       <c r="D365" s="5" t="s">
-        <v>445</v>
+        <v>55</v>
       </c>
     </row>
     <row r="366" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A366" s="5" t="s">
-        <v>1170</v>
+        <v>4552</v>
       </c>
       <c r="B366" s="5" t="s">
-        <v>4023</v>
+        <v>4888</v>
       </c>
       <c r="C366" s="5" t="s">
         <v>4010</v>
       </c>
       <c r="D366" s="5" t="s">
-        <v>459</v>
+        <v>53</v>
       </c>
     </row>
     <row r="367" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A367" s="5" t="s">
-        <v>1163</v>
+        <v>2742</v>
       </c>
       <c r="B367" s="5" t="s">
-        <v>4020</v>
+        <v>4244</v>
       </c>
       <c r="C367" s="5" t="s">
         <v>4010</v>
       </c>
       <c r="D367" s="5" t="s">
-        <v>441</v>
+        <v>2743</v>
       </c>
     </row>
     <row r="368" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A368" s="5" t="s">
-        <v>1166</v>
+        <v>234</v>
       </c>
       <c r="B368" s="5" t="s">
-        <v>4021</v>
+        <v>4702</v>
       </c>
       <c r="C368" s="5" t="s">
         <v>4010</v>
       </c>
       <c r="D368" s="5" t="s">
-        <v>447</v>
+        <v>233</v>
       </c>
     </row>
     <row r="369" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A369" s="5" t="s">
-        <v>509</v>
+        <v>236</v>
       </c>
       <c r="B369" s="5" t="s">
-        <v>4127</v>
+        <v>4825</v>
       </c>
       <c r="C369" s="5" t="s">
         <v>4010</v>
       </c>
       <c r="D369" s="5" t="s">
-        <v>508</v>
+        <v>235</v>
       </c>
     </row>
     <row r="370" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A370" s="5" t="s">
-        <v>1162</v>
+        <v>1136</v>
       </c>
       <c r="B370" s="5" t="s">
-        <v>4439</v>
+        <v>4478</v>
       </c>
       <c r="C370" s="5" t="s">
         <v>4010</v>
@@ -48715,237 +48682,273 @@
     </row>
     <row r="371" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A371" s="5" t="s">
-        <v>137</v>
+        <v>238</v>
       </c>
       <c r="B371" s="5" t="s">
-        <v>4667</v>
+        <v>4703</v>
       </c>
       <c r="C371" s="5" t="s">
         <v>4010</v>
       </c>
       <c r="D371" s="5" t="s">
-        <v>136</v>
+        <v>237</v>
       </c>
     </row>
     <row r="372" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A372" s="5" t="s">
-        <v>1230</v>
+        <v>240</v>
       </c>
       <c r="B372" s="5" t="s">
-        <v>4440</v>
+        <v>4704</v>
       </c>
       <c r="C372" s="5" t="s">
         <v>4010</v>
+      </c>
+      <c r="D372" s="5" t="s">
+        <v>239</v>
       </c>
     </row>
     <row r="373" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A373" s="5" t="s">
-        <v>1231</v>
+        <v>242</v>
       </c>
       <c r="B373" s="5" t="s">
-        <v>4441</v>
+        <v>4705</v>
       </c>
       <c r="C373" s="5" t="s">
         <v>4010</v>
+      </c>
+      <c r="D373" s="5" t="s">
+        <v>241</v>
       </c>
     </row>
     <row r="374" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A374" s="5" t="s">
-        <v>66</v>
+        <v>246</v>
       </c>
       <c r="B374" s="5" t="s">
-        <v>4442</v>
+        <v>4826</v>
       </c>
       <c r="C374" s="5" t="s">
         <v>4010</v>
+      </c>
+      <c r="D374" s="5" t="s">
+        <v>245</v>
       </c>
     </row>
     <row r="375" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A375" s="5" t="s">
-        <v>64</v>
+        <v>4107</v>
       </c>
       <c r="B375" s="5" t="s">
-        <v>4649</v>
+        <v>4108</v>
       </c>
       <c r="C375" s="5" t="s">
         <v>4010</v>
       </c>
       <c r="D375" s="5" t="s">
-        <v>63</v>
+        <v>4300</v>
       </c>
     </row>
     <row r="376" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A376" s="5" t="s">
-        <v>1132</v>
+        <v>4131</v>
       </c>
       <c r="B376" s="5" t="s">
-        <v>3682</v>
+        <v>4132</v>
       </c>
       <c r="C376" s="5" t="s">
         <v>4010</v>
+      </c>
+      <c r="D376" s="5" t="s">
+        <v>512</v>
       </c>
     </row>
     <row r="377" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A377" s="5" t="s">
-        <v>487</v>
+        <v>1203</v>
       </c>
       <c r="B377" s="5" t="s">
-        <v>4109</v>
+        <v>4893</v>
       </c>
       <c r="C377" s="5" t="s">
         <v>4010</v>
       </c>
       <c r="D377" s="5" t="s">
-        <v>486</v>
+        <v>319</v>
       </c>
     </row>
     <row r="378" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A378" s="5" t="s">
-        <v>1224</v>
+        <v>315</v>
       </c>
       <c r="B378" s="5" t="s">
-        <v>4443</v>
+        <v>4891</v>
       </c>
       <c r="C378" s="5" t="s">
         <v>4010</v>
+      </c>
+      <c r="D378" s="5" t="s">
+        <v>314</v>
       </c>
     </row>
     <row r="379" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A379" s="5" t="s">
-        <v>1226</v>
+        <v>800</v>
       </c>
       <c r="B379" s="5" t="s">
-        <v>4444</v>
+        <v>4892</v>
       </c>
       <c r="C379" s="5" t="s">
         <v>4010</v>
+      </c>
+      <c r="D379" s="5" t="s">
+        <v>318</v>
       </c>
     </row>
     <row r="380" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A380" s="5" t="s">
-        <v>4344</v>
+        <v>317</v>
       </c>
       <c r="B380" s="5" t="s">
-        <v>4445</v>
+        <v>4894</v>
       </c>
       <c r="C380" s="5" t="s">
         <v>4010</v>
+      </c>
+      <c r="D380" s="5" t="s">
+        <v>316</v>
       </c>
     </row>
     <row r="381" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A381" s="5" t="s">
-        <v>1227</v>
+        <v>313</v>
       </c>
       <c r="B381" s="5" t="s">
-        <v>4446</v>
+        <v>4721</v>
       </c>
       <c r="C381" s="5" t="s">
         <v>4010</v>
+      </c>
+      <c r="D381" s="5" t="s">
+        <v>312</v>
       </c>
     </row>
     <row r="382" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A382" s="5" t="s">
-        <v>4342</v>
+        <v>420</v>
       </c>
       <c r="B382" s="5" t="s">
-        <v>4447</v>
+        <v>3305</v>
       </c>
       <c r="C382" s="5" t="s">
         <v>4010</v>
+      </c>
+      <c r="D382" s="5" t="s">
+        <v>419</v>
       </c>
     </row>
     <row r="383" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A383" s="5" t="s">
-        <v>4343</v>
+        <v>4102</v>
       </c>
       <c r="B383" s="5" t="s">
-        <v>4448</v>
+        <v>4103</v>
       </c>
       <c r="C383" s="5" t="s">
         <v>4010</v>
+      </c>
+      <c r="D383" s="5" t="s">
+        <v>4299</v>
       </c>
     </row>
     <row r="384" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A384" s="5" t="s">
-        <v>1148</v>
+        <v>4129</v>
       </c>
       <c r="B384" s="5" t="s">
-        <v>4449</v>
+        <v>4130</v>
       </c>
       <c r="C384" s="5" t="s">
         <v>4010</v>
+      </c>
+      <c r="D384" s="5" t="s">
+        <v>4303</v>
       </c>
     </row>
     <row r="385" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A385" s="5" t="s">
-        <v>4608</v>
+        <v>4088</v>
       </c>
       <c r="B385" s="5" t="s">
-        <v>4754</v>
+        <v>4089</v>
       </c>
       <c r="C385" s="5" t="s">
         <v>4010</v>
       </c>
       <c r="D385" s="5" t="s">
-        <v>368</v>
+        <v>3179</v>
       </c>
     </row>
     <row r="386" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A386" s="5" t="s">
-        <v>4615</v>
+        <v>4090</v>
       </c>
       <c r="B386" s="5" t="s">
-        <v>4761</v>
+        <v>4091</v>
       </c>
       <c r="C386" s="5" t="s">
         <v>4010</v>
       </c>
       <c r="D386" s="5" t="s">
-        <v>380</v>
+        <v>3176</v>
       </c>
     </row>
     <row r="387" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A387" s="5" t="s">
-        <v>4620</v>
+        <v>3455</v>
       </c>
       <c r="B387" s="5" t="s">
-        <v>4766</v>
+        <v>4376</v>
       </c>
       <c r="C387" s="5" t="s">
         <v>4010</v>
-      </c>
-      <c r="D387" s="5" t="s">
-        <v>392</v>
       </c>
     </row>
     <row r="388" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A388" s="5" t="s">
-        <v>1144</v>
+        <v>4086</v>
       </c>
       <c r="B388" s="5" t="s">
-        <v>4450</v>
+        <v>4087</v>
       </c>
       <c r="C388" s="5" t="s">
         <v>4010</v>
+      </c>
+      <c r="D388" s="5" t="s">
+        <v>3182</v>
       </c>
     </row>
     <row r="389" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A389" s="5" t="s">
-        <v>1149</v>
+        <v>4084</v>
       </c>
       <c r="B389" s="5" t="s">
-        <v>4451</v>
+        <v>4085</v>
       </c>
       <c r="C389" s="5" t="s">
         <v>4010</v>
+      </c>
+      <c r="D389" s="5" t="s">
+        <v>3185</v>
       </c>
     </row>
     <row r="390" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A390" s="5" t="s">
-        <v>4345</v>
+        <v>3456</v>
       </c>
       <c r="B390" s="5" t="s">
-        <v>4452</v>
+        <v>4377</v>
       </c>
       <c r="C390" s="5" t="s">
         <v>4010</v>
@@ -48953,24 +48956,21 @@
     </row>
     <row r="391" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A391" s="5" t="s">
-        <v>4774</v>
+        <v>3454</v>
       </c>
       <c r="B391" s="5" t="s">
-        <v>4775</v>
+        <v>3771</v>
       </c>
       <c r="C391" s="5" t="s">
         <v>4010</v>
-      </c>
-      <c r="D391" s="5" t="s">
-        <v>4538</v>
       </c>
     </row>
     <row r="392" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A392" s="5" t="s">
-        <v>4346</v>
+        <v>4353</v>
       </c>
       <c r="B392" s="5" t="s">
-        <v>4453</v>
+        <v>4378</v>
       </c>
       <c r="C392" s="5" t="s">
         <v>4010</v>
@@ -48978,38 +48978,38 @@
     </row>
     <row r="393" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A393" s="5" t="s">
-        <v>3281</v>
+        <v>4080</v>
       </c>
       <c r="B393" s="5" t="s">
-        <v>4017</v>
+        <v>4081</v>
       </c>
       <c r="C393" s="5" t="s">
         <v>4010</v>
       </c>
       <c r="D393" s="5" t="s">
-        <v>3282</v>
+        <v>3175</v>
       </c>
     </row>
     <row r="394" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A394" s="5" t="s">
-        <v>1235</v>
+        <v>4082</v>
       </c>
       <c r="B394" s="5" t="s">
-        <v>4014</v>
+        <v>4083</v>
       </c>
       <c r="C394" s="5" t="s">
         <v>4010</v>
       </c>
       <c r="D394" s="5" t="s">
-        <v>429</v>
+        <v>3188</v>
       </c>
     </row>
     <row r="395" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A395" s="5" t="s">
-        <v>4362</v>
+        <v>3452</v>
       </c>
       <c r="B395" s="5" t="s">
-        <v>4375</v>
+        <v>4379</v>
       </c>
       <c r="C395" s="5" t="s">
         <v>4010</v>
@@ -49017,71 +49017,77 @@
     </row>
     <row r="396" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A396" s="5" t="s">
-        <v>4274</v>
+        <v>4354</v>
       </c>
       <c r="B396" s="5" t="s">
-        <v>4275</v>
+        <v>4380</v>
       </c>
       <c r="C396" s="5" t="s">
         <v>4010</v>
-      </c>
-      <c r="D396" s="5" t="s">
-        <v>4318</v>
       </c>
     </row>
     <row r="397" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A397" s="5" t="s">
-        <v>4327</v>
+        <v>4098</v>
       </c>
       <c r="B397" s="5" t="s">
-        <v>4454</v>
+        <v>4099</v>
       </c>
       <c r="C397" s="5" t="s">
         <v>4010</v>
+      </c>
+      <c r="D397" s="5" t="s">
+        <v>4297</v>
       </c>
     </row>
     <row r="398" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A398" s="5" t="s">
-        <v>1218</v>
+        <v>4094</v>
       </c>
       <c r="B398" s="5" t="s">
-        <v>4455</v>
+        <v>4095</v>
       </c>
       <c r="C398" s="5" t="s">
         <v>4010</v>
+      </c>
+      <c r="D398" s="5" t="s">
+        <v>4295</v>
       </c>
     </row>
     <row r="399" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A399" s="5" t="s">
-        <v>4563</v>
+        <v>4096</v>
       </c>
       <c r="B399" s="5" t="s">
-        <v>4672</v>
+        <v>4097</v>
       </c>
       <c r="C399" s="5" t="s">
         <v>4010</v>
       </c>
       <c r="D399" s="5" t="s">
-        <v>161</v>
+        <v>4296</v>
       </c>
     </row>
     <row r="400" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A400" s="5" t="s">
-        <v>180</v>
+        <v>658</v>
       </c>
       <c r="B400" s="5" t="s">
-        <v>4457</v>
+        <v>4272</v>
       </c>
       <c r="C400" s="5" t="s">
         <v>4010</v>
+      </c>
+      <c r="D400" s="5" t="s">
+        <v>657</v>
       </c>
     </row>
     <row r="401" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A401" s="5" t="s">
-        <v>1180</v>
+        <v>4357</v>
       </c>
       <c r="B401" s="5" t="s">
-        <v>4458</v>
+        <v>4381</v>
       </c>
       <c r="C401" s="5" t="s">
         <v>4010</v>
@@ -49089,21 +49095,24 @@
     </row>
     <row r="402" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A402" s="5" t="s">
-        <v>4328</v>
+        <v>4206</v>
       </c>
       <c r="B402" s="5" t="s">
-        <v>4459</v>
+        <v>4207</v>
       </c>
       <c r="C402" s="5" t="s">
         <v>4010</v>
+      </c>
+      <c r="D402" s="5" t="s">
+        <v>4308</v>
       </c>
     </row>
     <row r="403" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A403" s="5" t="s">
-        <v>1216</v>
+        <v>1237</v>
       </c>
       <c r="B403" s="5" t="s">
-        <v>4460</v>
+        <v>4382</v>
       </c>
       <c r="C403" s="5" t="s">
         <v>4010</v>
@@ -49111,49 +49120,49 @@
     </row>
     <row r="404" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A404" s="5" t="s">
-        <v>1217</v>
+        <v>4124</v>
       </c>
       <c r="B404" s="5" t="s">
-        <v>4461</v>
+        <v>4125</v>
       </c>
       <c r="C404" s="5" t="s">
         <v>4010</v>
+      </c>
+      <c r="D404" s="5" t="s">
+        <v>504</v>
       </c>
     </row>
     <row r="405" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A405" s="5" t="s">
-        <v>660</v>
+        <v>1244</v>
       </c>
       <c r="B405" s="5" t="s">
-        <v>4273</v>
+        <v>4484</v>
       </c>
       <c r="C405" s="5" t="s">
         <v>4010</v>
-      </c>
-      <c r="D405" s="5" t="s">
-        <v>659</v>
       </c>
     </row>
     <row r="406" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A406" s="5" t="s">
-        <v>4100</v>
+        <v>4121</v>
       </c>
       <c r="B406" s="5" t="s">
-        <v>4101</v>
+        <v>4122</v>
       </c>
       <c r="C406" s="5" t="s">
         <v>4010</v>
       </c>
       <c r="D406" s="5" t="s">
-        <v>4298</v>
+        <v>500</v>
       </c>
     </row>
     <row r="407" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A407" s="5" t="s">
-        <v>4326</v>
+        <v>1209</v>
       </c>
       <c r="B407" s="5" t="s">
-        <v>4463</v>
+        <v>4485</v>
       </c>
       <c r="C407" s="5" t="s">
         <v>4010</v>
@@ -49161,10 +49170,10 @@
     </row>
     <row r="408" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A408" s="5" t="s">
-        <v>1181</v>
+        <v>4340</v>
       </c>
       <c r="B408" s="5" t="s">
-        <v>4464</v>
+        <v>4486</v>
       </c>
       <c r="C408" s="5" t="s">
         <v>4010</v>
@@ -49172,399 +49181,432 @@
     </row>
     <row r="409" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A409" s="5" t="s">
-        <v>196</v>
+        <v>4594</v>
       </c>
       <c r="B409" s="5" t="s">
-        <v>4688</v>
+        <v>4807</v>
       </c>
       <c r="C409" s="5" t="s">
         <v>4010</v>
       </c>
       <c r="D409" s="5" t="s">
-        <v>195</v>
+        <v>4527</v>
       </c>
     </row>
     <row r="410" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A410" s="5" t="s">
-        <v>1183</v>
+        <v>4595</v>
       </c>
       <c r="B410" s="5" t="s">
-        <v>4467</v>
+        <v>4808</v>
       </c>
       <c r="C410" s="5" t="s">
         <v>4010</v>
+      </c>
+      <c r="D410" s="5" t="s">
+        <v>4528</v>
       </c>
     </row>
     <row r="411" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A411" s="5" t="s">
-        <v>1196</v>
+        <v>4596</v>
       </c>
       <c r="B411" s="5" t="s">
-        <v>4472</v>
+        <v>4809</v>
       </c>
       <c r="C411" s="5" t="s">
         <v>4010</v>
+      </c>
+      <c r="D411" s="5" t="s">
+        <v>4529</v>
       </c>
     </row>
     <row r="412" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A412" s="5" t="s">
-        <v>1197</v>
+        <v>345</v>
       </c>
       <c r="B412" s="5" t="s">
-        <v>4473</v>
+        <v>4804</v>
       </c>
       <c r="C412" s="5" t="s">
         <v>4010</v>
+      </c>
+      <c r="D412" s="5" t="s">
+        <v>344</v>
       </c>
     </row>
     <row r="413" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A413" s="5" t="s">
-        <v>1198</v>
+        <v>347</v>
       </c>
       <c r="B413" s="5" t="s">
-        <v>4474</v>
+        <v>4805</v>
       </c>
       <c r="C413" s="5" t="s">
         <v>4010</v>
+      </c>
+      <c r="D413" s="5" t="s">
+        <v>346</v>
       </c>
     </row>
     <row r="414" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A414" s="5" t="s">
-        <v>4325</v>
+        <v>4597</v>
       </c>
       <c r="B414" s="5" t="s">
-        <v>4475</v>
+        <v>4806</v>
       </c>
       <c r="C414" s="5" t="s">
         <v>4010</v>
+      </c>
+      <c r="D414" s="5" t="s">
+        <v>4530</v>
       </c>
     </row>
     <row r="415" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A415" s="5" t="s">
-        <v>4324</v>
+        <v>343</v>
       </c>
       <c r="B415" s="5" t="s">
-        <v>4476</v>
+        <v>4733</v>
       </c>
       <c r="C415" s="5" t="s">
         <v>4010</v>
+      </c>
+      <c r="D415" s="5" t="s">
+        <v>342</v>
       </c>
     </row>
     <row r="416" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A416" s="5" t="s">
-        <v>36</v>
+        <v>109</v>
       </c>
       <c r="B416" s="5" t="s">
-        <v>4637</v>
+        <v>4896</v>
       </c>
       <c r="C416" s="5" t="s">
         <v>4010</v>
       </c>
       <c r="D416" s="5" t="s">
-        <v>35</v>
+        <v>108</v>
       </c>
     </row>
     <row r="417" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A417" s="5" t="s">
-        <v>2742</v>
+        <v>107</v>
       </c>
       <c r="B417" s="5" t="s">
-        <v>4244</v>
+        <v>4897</v>
       </c>
       <c r="C417" s="5" t="s">
         <v>4010</v>
       </c>
       <c r="D417" s="5" t="s">
-        <v>2743</v>
+        <v>106</v>
       </c>
     </row>
     <row r="418" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A418" s="5" t="s">
-        <v>234</v>
+        <v>111</v>
       </c>
       <c r="B418" s="5" t="s">
-        <v>4702</v>
+        <v>4895</v>
       </c>
       <c r="C418" s="5" t="s">
         <v>4010</v>
       </c>
       <c r="D418" s="5" t="s">
-        <v>233</v>
+        <v>110</v>
       </c>
     </row>
     <row r="419" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A419" s="5" t="s">
-        <v>1136</v>
+        <v>95</v>
       </c>
       <c r="B419" s="5" t="s">
-        <v>4478</v>
+        <v>4898</v>
       </c>
       <c r="C419" s="5" t="s">
         <v>4010</v>
+      </c>
+      <c r="D419" s="5" t="s">
+        <v>4508</v>
       </c>
     </row>
     <row r="420" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A420" s="5" t="s">
-        <v>4107</v>
+        <v>1158</v>
       </c>
       <c r="B420" s="5" t="s">
-        <v>4108</v>
+        <v>4490</v>
       </c>
       <c r="C420" s="5" t="s">
         <v>4010</v>
-      </c>
-      <c r="D420" s="5" t="s">
-        <v>4300</v>
       </c>
     </row>
     <row r="421" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A421" s="5" t="s">
-        <v>4131</v>
+        <v>105</v>
       </c>
       <c r="B421" s="5" t="s">
-        <v>4132</v>
+        <v>4658</v>
       </c>
       <c r="C421" s="5" t="s">
         <v>4010</v>
       </c>
       <c r="D421" s="5" t="s">
-        <v>512</v>
+        <v>104</v>
       </c>
     </row>
     <row r="422" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A422" s="5" t="s">
-        <v>4333</v>
+        <v>642</v>
       </c>
       <c r="B422" s="5" t="s">
-        <v>4480</v>
+        <v>4258</v>
       </c>
       <c r="C422" s="5" t="s">
         <v>4010</v>
+      </c>
+      <c r="D422" s="5" t="s">
+        <v>641</v>
       </c>
     </row>
     <row r="423" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A423" s="5" t="s">
-        <v>4335</v>
+        <v>652</v>
       </c>
       <c r="B423" s="5" t="s">
-        <v>4481</v>
+        <v>4262</v>
       </c>
       <c r="C423" s="5" t="s">
         <v>4010</v>
+      </c>
+      <c r="D423" s="5" t="s">
+        <v>651</v>
       </c>
     </row>
     <row r="424" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A424" s="5" t="s">
-        <v>4334</v>
+        <v>1246</v>
       </c>
       <c r="B424" s="5" t="s">
-        <v>4483</v>
+        <v>3816</v>
       </c>
       <c r="C424" s="5" t="s">
         <v>4010</v>
+      </c>
+      <c r="D424" s="5" t="s">
+        <v>647</v>
       </c>
     </row>
     <row r="425" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A425" s="5" t="s">
-        <v>313</v>
+        <v>4260</v>
       </c>
       <c r="B425" s="5" t="s">
-        <v>4721</v>
+        <v>4261</v>
       </c>
       <c r="C425" s="5" t="s">
         <v>4010</v>
       </c>
       <c r="D425" s="5" t="s">
-        <v>312</v>
+        <v>649</v>
       </c>
     </row>
     <row r="426" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A426" s="5" t="s">
-        <v>420</v>
+        <v>644</v>
       </c>
       <c r="B426" s="5" t="s">
-        <v>3305</v>
+        <v>4259</v>
       </c>
       <c r="C426" s="5" t="s">
         <v>4010</v>
       </c>
       <c r="D426" s="5" t="s">
-        <v>419</v>
+        <v>643</v>
       </c>
     </row>
     <row r="427" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A427" s="5" t="s">
-        <v>4102</v>
+        <v>4601</v>
       </c>
       <c r="B427" s="5" t="s">
-        <v>4103</v>
+        <v>4821</v>
       </c>
       <c r="C427" s="5" t="s">
         <v>4010</v>
       </c>
       <c r="D427" s="5" t="s">
-        <v>4299</v>
+        <v>358</v>
       </c>
     </row>
     <row r="428" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A428" s="5" t="s">
-        <v>4129</v>
+        <v>4605</v>
       </c>
       <c r="B428" s="5" t="s">
-        <v>4130</v>
+        <v>4822</v>
       </c>
       <c r="C428" s="5" t="s">
         <v>4010</v>
       </c>
       <c r="D428" s="5" t="s">
-        <v>4303</v>
+        <v>364</v>
       </c>
     </row>
     <row r="429" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A429" s="5" t="s">
-        <v>4088</v>
+        <v>355</v>
       </c>
       <c r="B429" s="5" t="s">
-        <v>4089</v>
+        <v>4744</v>
       </c>
       <c r="C429" s="5" t="s">
         <v>4010</v>
       </c>
       <c r="D429" s="5" t="s">
-        <v>3179</v>
+        <v>354</v>
       </c>
     </row>
     <row r="430" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A430" s="5" t="s">
-        <v>4090</v>
+        <v>1222</v>
       </c>
       <c r="B430" s="5" t="s">
-        <v>4091</v>
+        <v>4491</v>
       </c>
       <c r="C430" s="5" t="s">
         <v>4010</v>
-      </c>
-      <c r="D430" s="5" t="s">
-        <v>3176</v>
       </c>
     </row>
     <row r="431" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A431" s="5" t="s">
-        <v>3455</v>
+        <v>4603</v>
       </c>
       <c r="B431" s="5" t="s">
-        <v>4376</v>
+        <v>4824</v>
       </c>
       <c r="C431" s="5" t="s">
         <v>4010</v>
+      </c>
+      <c r="D431" s="5" t="s">
+        <v>360</v>
       </c>
     </row>
     <row r="432" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A432" s="5" t="s">
-        <v>4086</v>
+        <v>4607</v>
       </c>
       <c r="B432" s="5" t="s">
-        <v>4087</v>
+        <v>4823</v>
       </c>
       <c r="C432" s="5" t="s">
         <v>4010</v>
       </c>
       <c r="D432" s="5" t="s">
-        <v>3182</v>
+        <v>366</v>
       </c>
     </row>
     <row r="433" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A433" s="5" t="s">
-        <v>4084</v>
+        <v>1223</v>
       </c>
       <c r="B433" s="5" t="s">
-        <v>4085</v>
+        <v>4492</v>
       </c>
       <c r="C433" s="5" t="s">
         <v>4010</v>
-      </c>
-      <c r="D433" s="5" t="s">
-        <v>3185</v>
       </c>
     </row>
     <row r="434" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A434" s="5" t="s">
-        <v>3456</v>
+        <v>4599</v>
       </c>
       <c r="B434" s="5" t="s">
-        <v>4377</v>
+        <v>4818</v>
       </c>
       <c r="C434" s="5" t="s">
         <v>4010</v>
+      </c>
+      <c r="D434" s="5" t="s">
+        <v>356</v>
       </c>
     </row>
     <row r="435" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A435" s="5" t="s">
-        <v>3454</v>
+        <v>4600</v>
       </c>
       <c r="B435" s="5" t="s">
-        <v>3771</v>
+        <v>4819</v>
       </c>
       <c r="C435" s="5" t="s">
         <v>4010</v>
+      </c>
+      <c r="D435" s="5" t="s">
+        <v>4532</v>
       </c>
     </row>
     <row r="436" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A436" s="5" t="s">
-        <v>4353</v>
+        <v>4604</v>
       </c>
       <c r="B436" s="5" t="s">
-        <v>4378</v>
+        <v>4820</v>
       </c>
       <c r="C436" s="5" t="s">
         <v>4010</v>
+      </c>
+      <c r="D436" s="5" t="s">
+        <v>362</v>
       </c>
     </row>
     <row r="437" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A437" s="5" t="s">
-        <v>4080</v>
+        <v>4341</v>
       </c>
       <c r="B437" s="5" t="s">
-        <v>4081</v>
+        <v>4493</v>
       </c>
       <c r="C437" s="5" t="s">
         <v>4010</v>
-      </c>
-      <c r="D437" s="5" t="s">
-        <v>3175</v>
       </c>
     </row>
     <row r="438" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A438" s="5" t="s">
-        <v>4082</v>
+        <v>4606</v>
       </c>
       <c r="B438" s="5" t="s">
-        <v>4083</v>
+        <v>4817</v>
       </c>
       <c r="C438" s="5" t="s">
         <v>4010</v>
       </c>
       <c r="D438" s="5" t="s">
-        <v>3188</v>
+        <v>4534</v>
       </c>
     </row>
     <row r="439" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A439" s="5" t="s">
-        <v>3452</v>
+        <v>4602</v>
       </c>
       <c r="B439" s="5" t="s">
-        <v>4379</v>
+        <v>4816</v>
       </c>
       <c r="C439" s="5" t="s">
         <v>4010</v>
+      </c>
+      <c r="D439" s="5" t="s">
+        <v>4533</v>
       </c>
     </row>
     <row r="440" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A440" s="5" t="s">
-        <v>4354</v>
+        <v>4359</v>
       </c>
       <c r="B440" s="5" t="s">
-        <v>4380</v>
+        <v>4383</v>
       </c>
       <c r="C440" s="5" t="s">
         <v>4010</v>
@@ -49572,141 +49614,144 @@
     </row>
     <row r="441" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A441" s="5" t="s">
-        <v>4098</v>
+        <v>4217</v>
       </c>
       <c r="B441" s="5" t="s">
-        <v>4099</v>
+        <v>4218</v>
       </c>
       <c r="C441" s="5" t="s">
         <v>4010</v>
       </c>
       <c r="D441" s="5" t="s">
-        <v>4297</v>
+        <v>4310</v>
       </c>
     </row>
     <row r="442" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A442" s="5" t="s">
-        <v>4094</v>
+        <v>1220</v>
       </c>
       <c r="B442" s="5" t="s">
-        <v>4095</v>
+        <v>4494</v>
       </c>
       <c r="C442" s="5" t="s">
         <v>4010</v>
-      </c>
-      <c r="D442" s="5" t="s">
-        <v>4295</v>
       </c>
     </row>
     <row r="443" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A443" s="5" t="s">
-        <v>4096</v>
+        <v>349</v>
       </c>
       <c r="B443" s="5" t="s">
-        <v>4097</v>
+        <v>4740</v>
       </c>
       <c r="C443" s="5" t="s">
         <v>4010</v>
       </c>
       <c r="D443" s="5" t="s">
-        <v>4296</v>
+        <v>348</v>
       </c>
     </row>
     <row r="444" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A444" s="5" t="s">
-        <v>658</v>
+        <v>1221</v>
       </c>
       <c r="B444" s="5" t="s">
-        <v>4272</v>
+        <v>4495</v>
       </c>
       <c r="C444" s="5" t="s">
         <v>4010</v>
-      </c>
-      <c r="D444" s="5" t="s">
-        <v>657</v>
       </c>
     </row>
     <row r="445" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A445" s="5" t="s">
-        <v>4357</v>
+        <v>351</v>
       </c>
       <c r="B445" s="5" t="s">
-        <v>4381</v>
+        <v>4741</v>
       </c>
       <c r="C445" s="5" t="s">
         <v>4010</v>
+      </c>
+      <c r="D445" s="5" t="s">
+        <v>350</v>
       </c>
     </row>
     <row r="446" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A446" s="5" t="s">
-        <v>4206</v>
+        <v>353</v>
       </c>
       <c r="B446" s="5" t="s">
-        <v>4207</v>
+        <v>4742</v>
       </c>
       <c r="C446" s="5" t="s">
         <v>4010</v>
       </c>
       <c r="D446" s="5" t="s">
-        <v>4308</v>
+        <v>352</v>
       </c>
     </row>
     <row r="447" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A447" s="5" t="s">
-        <v>1237</v>
+        <v>4598</v>
       </c>
       <c r="B447" s="5" t="s">
-        <v>4382</v>
+        <v>4743</v>
       </c>
       <c r="C447" s="5" t="s">
         <v>4010</v>
+      </c>
+      <c r="D447" s="5" t="s">
+        <v>4531</v>
       </c>
     </row>
     <row r="448" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A448" s="5" t="s">
-        <v>4124</v>
+        <v>3443</v>
       </c>
       <c r="B448" s="5" t="s">
-        <v>4125</v>
+        <v>3750</v>
       </c>
       <c r="C448" s="5" t="s">
         <v>4010</v>
       </c>
       <c r="D448" s="5" t="s">
-        <v>504</v>
+        <v>3279</v>
       </c>
     </row>
     <row r="449" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A449" s="5" t="s">
-        <v>1244</v>
+        <v>559</v>
       </c>
       <c r="B449" s="5" t="s">
-        <v>4484</v>
+        <v>4219</v>
       </c>
       <c r="C449" s="5" t="s">
         <v>4010</v>
+      </c>
+      <c r="D449" s="5" t="s">
+        <v>558</v>
       </c>
     </row>
     <row r="450" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A450" s="5" t="s">
-        <v>4121</v>
+        <v>1093</v>
       </c>
       <c r="B450" s="5" t="s">
-        <v>4122</v>
+        <v>4077</v>
       </c>
       <c r="C450" s="5" t="s">
         <v>4010</v>
       </c>
       <c r="D450" s="5" t="s">
-        <v>500</v>
+        <v>1092</v>
       </c>
     </row>
     <row r="451" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A451" s="5" t="s">
-        <v>1209</v>
+        <v>1146</v>
       </c>
       <c r="B451" s="5" t="s">
-        <v>4485</v>
+        <v>4496</v>
       </c>
       <c r="C451" s="5" t="s">
         <v>4010</v>
@@ -49714,35 +49759,35 @@
     </row>
     <row r="452" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A452" s="5" t="s">
-        <v>4340</v>
+        <v>4625</v>
       </c>
       <c r="B452" s="5" t="s">
-        <v>4486</v>
+        <v>4849</v>
       </c>
       <c r="C452" s="5" t="s">
         <v>4010</v>
+      </c>
+      <c r="D452" s="5" t="s">
+        <v>412</v>
       </c>
     </row>
     <row r="453" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A453" s="5" t="s">
-        <v>343</v>
+        <v>413</v>
       </c>
       <c r="B453" s="5" t="s">
-        <v>4733</v>
+        <v>4497</v>
       </c>
       <c r="C453" s="5" t="s">
         <v>4010</v>
-      </c>
-      <c r="D453" s="5" t="s">
-        <v>342</v>
       </c>
     </row>
     <row r="454" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A454" s="5" t="s">
-        <v>1158</v>
+        <v>1147</v>
       </c>
       <c r="B454" s="5" t="s">
-        <v>4490</v>
+        <v>4498</v>
       </c>
       <c r="C454" s="5" t="s">
         <v>4010</v>
@@ -49750,130 +49795,133 @@
     </row>
     <row r="455" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A455" s="5" t="s">
-        <v>105</v>
+        <v>4347</v>
       </c>
       <c r="B455" s="5" t="s">
-        <v>4658</v>
+        <v>4499</v>
       </c>
       <c r="C455" s="5" t="s">
         <v>4010</v>
-      </c>
-      <c r="D455" s="5" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="456" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A456" s="5" t="s">
-        <v>642</v>
+        <v>407</v>
       </c>
       <c r="B456" s="5" t="s">
-        <v>4258</v>
+        <v>4769</v>
       </c>
       <c r="C456" s="5" t="s">
         <v>4010</v>
       </c>
       <c r="D456" s="5" t="s">
-        <v>641</v>
+        <v>406</v>
       </c>
     </row>
     <row r="457" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A457" s="5" t="s">
-        <v>652</v>
+        <v>4624</v>
       </c>
       <c r="B457" s="5" t="s">
-        <v>4262</v>
+        <v>1695</v>
       </c>
       <c r="C457" s="5" t="s">
         <v>4010</v>
       </c>
       <c r="D457" s="5" t="s">
-        <v>651</v>
+        <v>410</v>
       </c>
     </row>
     <row r="458" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A458" s="5" t="s">
-        <v>1246</v>
+        <v>409</v>
       </c>
       <c r="B458" s="5" t="s">
-        <v>3816</v>
+        <v>4848</v>
       </c>
       <c r="C458" s="5" t="s">
         <v>4010</v>
       </c>
       <c r="D458" s="5" t="s">
-        <v>647</v>
+        <v>408</v>
       </c>
     </row>
     <row r="459" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A459" s="5" t="s">
-        <v>4260</v>
+        <v>4626</v>
       </c>
       <c r="B459" s="5" t="s">
-        <v>4261</v>
+        <v>4850</v>
       </c>
       <c r="C459" s="5" t="s">
         <v>4010</v>
       </c>
       <c r="D459" s="5" t="s">
-        <v>649</v>
+        <v>414</v>
       </c>
     </row>
     <row r="460" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A460" s="5" t="s">
-        <v>644</v>
+        <v>3085</v>
       </c>
       <c r="B460" s="5" t="s">
-        <v>4259</v>
+        <v>4128</v>
       </c>
       <c r="C460" s="5" t="s">
         <v>4010</v>
       </c>
       <c r="D460" s="5" t="s">
-        <v>643</v>
+        <v>510</v>
       </c>
     </row>
     <row r="461" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A461" s="5" t="s">
-        <v>355</v>
+        <v>3146</v>
       </c>
       <c r="B461" s="5" t="s">
-        <v>4744</v>
+        <v>4105</v>
       </c>
       <c r="C461" s="5" t="s">
         <v>4010</v>
       </c>
       <c r="D461" s="5" t="s">
-        <v>354</v>
+        <v>3147</v>
       </c>
     </row>
     <row r="462" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A462" s="5" t="s">
-        <v>1222</v>
+        <v>3297</v>
       </c>
       <c r="B462" s="5" t="s">
-        <v>4491</v>
+        <v>4015</v>
       </c>
       <c r="C462" s="5" t="s">
         <v>4010</v>
+      </c>
+      <c r="D462" s="5" t="s">
+        <v>3298</v>
       </c>
     </row>
     <row r="463" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A463" s="5" t="s">
-        <v>1223</v>
+        <v>428</v>
       </c>
       <c r="B463" s="5" t="s">
-        <v>4492</v>
+        <v>3748</v>
       </c>
       <c r="C463" s="5" t="s">
         <v>4010</v>
+      </c>
+      <c r="D463" s="5" t="s">
+        <v>427</v>
       </c>
     </row>
     <row r="464" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A464" s="5" t="s">
-        <v>4341</v>
+        <v>1184</v>
       </c>
       <c r="B464" s="5" t="s">
-        <v>4493</v>
+        <v>4500</v>
       </c>
       <c r="C464" s="5" t="s">
         <v>4010</v>
@@ -49881,35 +49929,38 @@
     </row>
     <row r="465" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A465" s="5" t="s">
-        <v>4359</v>
+        <v>220</v>
       </c>
       <c r="B465" s="5" t="s">
-        <v>4383</v>
+        <v>4790</v>
       </c>
       <c r="C465" s="5" t="s">
         <v>4010</v>
+      </c>
+      <c r="D465" s="5" t="s">
+        <v>219</v>
       </c>
     </row>
     <row r="466" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A466" s="5" t="s">
-        <v>4217</v>
+        <v>222</v>
       </c>
       <c r="B466" s="5" t="s">
-        <v>4218</v>
+        <v>4791</v>
       </c>
       <c r="C466" s="5" t="s">
         <v>4010</v>
       </c>
       <c r="D466" s="5" t="s">
-        <v>4310</v>
+        <v>221</v>
       </c>
     </row>
     <row r="467" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A467" s="5" t="s">
-        <v>1220</v>
+        <v>4330</v>
       </c>
       <c r="B467" s="5" t="s">
-        <v>4494</v>
+        <v>4501</v>
       </c>
       <c r="C467" s="5" t="s">
         <v>4010</v>
@@ -49917,24 +49968,24 @@
     </row>
     <row r="468" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A468" s="5" t="s">
-        <v>349</v>
+        <v>4573</v>
       </c>
       <c r="B468" s="5" t="s">
-        <v>4740</v>
+        <v>4786</v>
       </c>
       <c r="C468" s="5" t="s">
         <v>4010</v>
       </c>
       <c r="D468" s="5" t="s">
-        <v>348</v>
+        <v>4517</v>
       </c>
     </row>
     <row r="469" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A469" s="5" t="s">
-        <v>1221</v>
+        <v>4332</v>
       </c>
       <c r="B469" s="5" t="s">
-        <v>4495</v>
+        <v>4502</v>
       </c>
       <c r="C469" s="5" t="s">
         <v>4010</v>
@@ -49942,74 +49993,77 @@
     </row>
     <row r="470" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A470" s="5" t="s">
-        <v>3443</v>
+        <v>4576</v>
       </c>
       <c r="B470" s="5" t="s">
-        <v>3750</v>
+        <v>4789</v>
       </c>
       <c r="C470" s="5" t="s">
         <v>4010</v>
       </c>
       <c r="D470" s="5" t="s">
-        <v>3279</v>
+        <v>4519</v>
       </c>
     </row>
     <row r="471" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A471" s="5" t="s">
-        <v>559</v>
+        <v>218</v>
       </c>
       <c r="B471" s="5" t="s">
-        <v>4219</v>
+        <v>4693</v>
       </c>
       <c r="C471" s="5" t="s">
         <v>4010</v>
       </c>
       <c r="D471" s="5" t="s">
-        <v>558</v>
+        <v>217</v>
       </c>
     </row>
     <row r="472" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A472" s="5" t="s">
-        <v>1093</v>
+        <v>4331</v>
       </c>
       <c r="B472" s="5" t="s">
-        <v>4077</v>
+        <v>4503</v>
       </c>
       <c r="C472" s="5" t="s">
         <v>4010</v>
-      </c>
-      <c r="D472" s="5" t="s">
-        <v>1092</v>
       </c>
     </row>
     <row r="473" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A473" s="5" t="s">
-        <v>1146</v>
+        <v>4578</v>
       </c>
       <c r="B473" s="5" t="s">
-        <v>4496</v>
+        <v>4788</v>
       </c>
       <c r="C473" s="5" t="s">
         <v>4010</v>
+      </c>
+      <c r="D473" s="5" t="s">
+        <v>4520</v>
       </c>
     </row>
     <row r="474" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A474" s="5" t="s">
-        <v>413</v>
+        <v>4575</v>
       </c>
       <c r="B474" s="5" t="s">
-        <v>4497</v>
+        <v>4787</v>
       </c>
       <c r="C474" s="5" t="s">
         <v>4010</v>
+      </c>
+      <c r="D474" s="5" t="s">
+        <v>4518</v>
       </c>
     </row>
     <row r="475" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A475" s="5" t="s">
-        <v>1147</v>
+        <v>1135</v>
       </c>
       <c r="B475" s="5" t="s">
-        <v>4498</v>
+        <v>4504</v>
       </c>
       <c r="C475" s="5" t="s">
         <v>4010</v>
@@ -50017,200 +50071,83 @@
     </row>
     <row r="476" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A476" s="5" t="s">
-        <v>4347</v>
+        <v>4574</v>
       </c>
       <c r="B476" s="5" t="s">
-        <v>4499</v>
+        <v>4784</v>
       </c>
       <c r="C476" s="5" t="s">
         <v>4010</v>
+      </c>
+      <c r="D476" s="5" t="s">
+        <v>223</v>
       </c>
     </row>
     <row r="477" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A477" s="5" t="s">
-        <v>407</v>
+        <v>4577</v>
       </c>
       <c r="B477" s="5" t="s">
-        <v>4769</v>
+        <v>4785</v>
       </c>
       <c r="C477" s="5" t="s">
         <v>4010</v>
       </c>
       <c r="D477" s="5" t="s">
-        <v>406</v>
+        <v>229</v>
       </c>
     </row>
     <row r="478" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A478" s="5" t="s">
-        <v>3085</v>
+        <v>4352</v>
       </c>
       <c r="B478" s="5" t="s">
-        <v>4128</v>
+        <v>4384</v>
       </c>
       <c r="C478" s="5" t="s">
         <v>4010</v>
-      </c>
-      <c r="D478" s="5" t="s">
-        <v>510</v>
       </c>
     </row>
     <row r="479" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A479" s="5" t="s">
-        <v>3146</v>
+        <v>4078</v>
       </c>
       <c r="B479" s="5" t="s">
-        <v>4105</v>
+        <v>4079</v>
       </c>
       <c r="C479" s="5" t="s">
         <v>4010</v>
       </c>
       <c r="D479" s="5" t="s">
-        <v>3147</v>
+        <v>4293</v>
       </c>
     </row>
     <row r="480" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A480" s="5" t="s">
-        <v>3297</v>
+        <v>3209</v>
       </c>
       <c r="B480" s="5" t="s">
-        <v>4015</v>
+        <v>4042</v>
       </c>
       <c r="C480" s="5" t="s">
         <v>4010</v>
       </c>
       <c r="D480" s="5" t="s">
-        <v>3298</v>
-      </c>
-    </row>
-    <row r="481" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A481" s="5" t="s">
-        <v>428</v>
-      </c>
-      <c r="B481" s="5" t="s">
-        <v>3748</v>
-      </c>
-      <c r="C481" s="5" t="s">
-        <v>4010</v>
-      </c>
-      <c r="D481" s="5" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="482" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A482" s="5" t="s">
-        <v>1184</v>
-      </c>
-      <c r="B482" s="5" t="s">
-        <v>4500</v>
-      </c>
-      <c r="C482" s="5" t="s">
-        <v>4010</v>
-      </c>
-    </row>
-    <row r="483" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A483" s="5" t="s">
-        <v>4330</v>
-      </c>
-      <c r="B483" s="5" t="s">
-        <v>4501</v>
-      </c>
-      <c r="C483" s="5" t="s">
-        <v>4010</v>
-      </c>
-    </row>
-    <row r="484" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A484" s="5" t="s">
-        <v>4332</v>
-      </c>
-      <c r="B484" s="5" t="s">
-        <v>4502</v>
-      </c>
-      <c r="C484" s="5" t="s">
-        <v>4010</v>
-      </c>
-    </row>
-    <row r="485" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A485" s="5" t="s">
-        <v>218</v>
-      </c>
-      <c r="B485" s="5" t="s">
-        <v>4693</v>
-      </c>
-      <c r="C485" s="5" t="s">
-        <v>4010</v>
-      </c>
-      <c r="D485" s="5" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="486" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A486" s="5" t="s">
-        <v>4331</v>
-      </c>
-      <c r="B486" s="5" t="s">
-        <v>4503</v>
-      </c>
-      <c r="C486" s="5" t="s">
-        <v>4010</v>
-      </c>
-    </row>
-    <row r="487" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A487" s="5" t="s">
-        <v>1135</v>
-      </c>
-      <c r="B487" s="5" t="s">
-        <v>4504</v>
-      </c>
-      <c r="C487" s="5" t="s">
-        <v>4010</v>
-      </c>
-    </row>
-    <row r="488" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A488" s="5" t="s">
-        <v>4352</v>
-      </c>
-      <c r="B488" s="5" t="s">
-        <v>4384</v>
-      </c>
-      <c r="C488" s="5" t="s">
-        <v>4010</v>
-      </c>
-    </row>
-    <row r="489" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A489" s="5" t="s">
-        <v>4078</v>
-      </c>
-      <c r="B489" s="5" t="s">
-        <v>4079</v>
-      </c>
-      <c r="C489" s="5" t="s">
-        <v>4010</v>
-      </c>
-      <c r="D489" s="5" t="s">
-        <v>4293</v>
-      </c>
-    </row>
-    <row r="490" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A490" s="5" t="s">
-        <v>3209</v>
-      </c>
-      <c r="B490" s="5" t="s">
-        <v>4042</v>
-      </c>
-      <c r="C490" s="5" t="s">
-        <v>4010</v>
-      </c>
-      <c r="D490" s="5" t="s">
         <v>3172</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:D490" xr:uid="{10049E04-F69F-4BBF-AF12-08CD8861AE25}"/>
+  <autoFilter ref="A1:D480" xr:uid="{10049E04-F69F-4BBF-AF12-08CD8861AE25}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D480">
+      <sortCondition ref="A1:A480"/>
+    </sortState>
+  </autoFilter>
   <conditionalFormatting sqref="D1:D1048576">
-    <cfRule type="duplicateValues" dxfId="1" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="2" priority="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:A1048576">
-    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="2"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -50219,10 +50156,61 @@
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
-<SharedContentType xmlns="Microsoft.SharePoint.Taxonomy.ContentTypeSync" SourceId="df39f297-b178-4821-a17a-36874d5f8638" ContentTypeId="0x0101009DFCCA8CC51DAE45AFA7614F15BF563E09" PreviousValue="true"/>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <PublicationDate xmlns="b5ec5cd8-580e-4a43-b29d-c005862e3691">2021-01-14T05:00:00+00:00</PublicationDate>
+    <m2552b7fa2a441ac98537b33bf18d297 xmlns="b5ec5cd8-580e-4a43-b29d-c005862e3691">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+        <TermInfo xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+          <TermName xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">English</TermName>
+          <TermId xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">c76c64fb-3be4-4437-a566-3631af508c5a</TermId>
+        </TermInfo>
+      </Terms>
+    </m2552b7fa2a441ac98537b33bf18d297>
+    <lcd8bd8186de4e4eb09f0ee06ac00afa xmlns="b5ec5cd8-580e-4a43-b29d-c005862e3691">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+        <TermInfo xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+          <TermName xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">IKO Industries Ltd.</TermName>
+          <TermId xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">f0556279-dc57-412e-8b63-b0ea125a80ba</TermId>
+        </TermInfo>
+      </Terms>
+    </lcd8bd8186de4e4eb09f0ee06ac00afa>
+    <gc10b1446f2d4127821a88507c8a1067 xmlns="b5ec5cd8-580e-4a43-b29d-c005862e3691">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+        <TermInfo xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+          <TermName xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">Reliability</TermName>
+          <TermId xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">a8af539b-0b93-40b4-be48-0e4afadbe6ca</TermId>
+        </TermInfo>
+      </Terms>
+    </gc10b1446f2d4127821a88507c8a1067>
+    <RevisionDate xmlns="b5ec5cd8-580e-4a43-b29d-c005862e3691">2021-01-14T05:00:00+00:00</RevisionDate>
+    <TaxCatchAll xmlns="b5ec5cd8-580e-4a43-b29d-c005862e3691">
+      <Value>7</Value>
+      <Value>142</Value>
+      <Value>2</Value>
+    </TaxCatchAll>
+    <ocd738bc25df4c199d6bb04e8851be06 xmlns="b5ec5cd8-580e-4a43-b29d-c005862e3691">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+        <TermInfo xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+          <TermName xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">Reliability</TermName>
+          <TermId xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">a8af539b-0b93-40b4-be48-0e4afadbe6ca</TermId>
+        </TermInfo>
+      </Terms>
+    </ocd738bc25df4c199d6bb04e8851be06>
+    <Document_x0020_Type xmlns="935c85e0-4a6b-43a0-9a26-590824ed45f9">Asset Information</Document_x0020_Type>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Technical Document" ma:contentTypeID="0x0101009DFCCA8CC51DAE45AFA7614F15BF563E0900C64D95DF223C6149AB2D3037800BF16E" ma:contentTypeVersion="358" ma:contentTypeDescription="Any type of documentation that describes handling, functionality and architecture of a technical product or a product under development or use. Use for documents such as specifications, data sheets, patents, manufacturing standards or technical drawings. For documents on how to use such products, use Standard Operating Procedures or Training Materials and Manuals." ma:contentTypeScope="" ma:versionID="c67b4e272a47323968371e744efaa83f">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="b5ec5cd8-580e-4a43-b29d-c005862e3691" xmlns:ns3="935c85e0-4a6b-43a0-9a26-590824ed45f9" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="5cef7e819db18311d53018b95bad65ea" ns2:_="" ns3:_="">
     <xsd:import namespace="b5ec5cd8-580e-4a43-b29d-c005862e3691"/>
@@ -50428,71 +50416,37 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <PublicationDate xmlns="b5ec5cd8-580e-4a43-b29d-c005862e3691">2021-01-14T05:00:00+00:00</PublicationDate>
-    <m2552b7fa2a441ac98537b33bf18d297 xmlns="b5ec5cd8-580e-4a43-b29d-c005862e3691">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-        <TermInfo xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-          <TermName xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">English</TermName>
-          <TermId xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">c76c64fb-3be4-4437-a566-3631af508c5a</TermId>
-        </TermInfo>
-      </Terms>
-    </m2552b7fa2a441ac98537b33bf18d297>
-    <lcd8bd8186de4e4eb09f0ee06ac00afa xmlns="b5ec5cd8-580e-4a43-b29d-c005862e3691">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-        <TermInfo xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-          <TermName xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">IKO Industries Ltd.</TermName>
-          <TermId xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">f0556279-dc57-412e-8b63-b0ea125a80ba</TermId>
-        </TermInfo>
-      </Terms>
-    </lcd8bd8186de4e4eb09f0ee06ac00afa>
-    <gc10b1446f2d4127821a88507c8a1067 xmlns="b5ec5cd8-580e-4a43-b29d-c005862e3691">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-        <TermInfo xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-          <TermName xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">Reliability</TermName>
-          <TermId xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">a8af539b-0b93-40b4-be48-0e4afadbe6ca</TermId>
-        </TermInfo>
-      </Terms>
-    </gc10b1446f2d4127821a88507c8a1067>
-    <RevisionDate xmlns="b5ec5cd8-580e-4a43-b29d-c005862e3691">2021-01-14T05:00:00+00:00</RevisionDate>
-    <TaxCatchAll xmlns="b5ec5cd8-580e-4a43-b29d-c005862e3691">
-      <Value>7</Value>
-      <Value>142</Value>
-      <Value>2</Value>
-    </TaxCatchAll>
-    <ocd738bc25df4c199d6bb04e8851be06 xmlns="b5ec5cd8-580e-4a43-b29d-c005862e3691">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-        <TermInfo xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-          <TermName xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">Reliability</TermName>
-          <TermId xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">a8af539b-0b93-40b4-be48-0e4afadbe6ca</TermId>
-        </TermInfo>
-      </Terms>
-    </ocd738bc25df4c199d6bb04e8851be06>
-    <Document_x0020_Type xmlns="935c85e0-4a6b-43a0-9a26-590824ed45f9">Asset Information</Document_x0020_Type>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<SharedContentType xmlns="Microsoft.SharePoint.Taxonomy.ContentTypeSync" SourceId="df39f297-b178-4821-a17a-36874d5f8638" ContentTypeId="0x0101009DFCCA8CC51DAE45AFA7614F15BF563E09" PreviousValue="true"/>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{ECC5515E-A7FA-4A17-8518-6AE602954287}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1146B47C-F26E-435B-8DBB-8FFBDF6743CB}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="Microsoft.SharePoint.Taxonomy.ContentTypeSync"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B7E25A43-40CB-42BE-8E2F-7DB0420CEFCE}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="b5ec5cd8-580e-4a43-b29d-c005862e3691"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="935c85e0-4a6b-43a0-9a26-590824ed45f9"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2F297F22-B364-4331-AF95-A1BE697B0445}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -50511,27 +50465,10 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B7E25A43-40CB-42BE-8E2F-7DB0420CEFCE}">
+<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{ECC5515E-A7FA-4A17-8518-6AE602954287}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="b5ec5cd8-580e-4a43-b29d-c005862e3691"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="935c85e0-4a6b-43a0-9a26-590824ed45f9"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1146B47C-F26E-435B-8DBB-8FFBDF6743CB}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="Microsoft.SharePoint.Taxonomy.ContentTypeSync"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>